--- a/JupyterNotebooks/AvgHW/CubeA-HW40.xlsx
+++ b/JupyterNotebooks/AvgHW/CubeA-HW40.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>HKL</t>
   </si>
@@ -58,6 +58,18 @@
     <t>OffsetATD</t>
   </si>
   <si>
+    <t>Holden2.5</t>
+  </si>
+  <si>
+    <t>Holden5</t>
+  </si>
+  <si>
+    <t>Holden10</t>
+  </si>
+  <si>
+    <t>Holden15</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -70,24 +82,30 @@
     <t>HexGrid-90degTilt15degRes</t>
   </si>
   <si>
+    <t>[4, 2, 2]</t>
+  </si>
+  <si>
+    <t>[5, 1, 1]</t>
+  </si>
+  <si>
+    <t>[2, 2, 2]</t>
+  </si>
+  <si>
     <t>[1, 1, 1]</t>
   </si>
   <si>
+    <t>[3, 1, 1]</t>
+  </si>
+  <si>
+    <t>[3, 3, 1]</t>
+  </si>
+  <si>
+    <t>[2, 2, 0]</t>
+  </si>
+  <si>
     <t>[2, 0, 0]</t>
   </si>
   <si>
-    <t>[2, 2, 0]</t>
-  </si>
-  <si>
-    <t>[2, 2, 2]</t>
-  </si>
-  <si>
-    <t>[3, 1, 1]</t>
-  </si>
-  <si>
-    <t>[3, 3, 1]</t>
-  </si>
-  <si>
     <t>[3, 3, 3]</t>
   </si>
   <si>
@@ -95,12 +113,6 @@
   </si>
   <si>
     <t>[4, 2, 0]</t>
-  </si>
-  <si>
-    <t>[4, 2, 2]</t>
-  </si>
-  <si>
-    <t>[5, 1, 1]</t>
   </si>
   <si>
     <t>1Pair-A</t>
@@ -488,13 +500,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AG19"/>
+  <dimension ref="A1:W23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:33">
+    <row r="1" spans="1:23">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -561,38 +573,8 @@
       <c r="W1" s="1">
         <v>21</v>
       </c>
-      <c r="X1" s="1">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1">
-        <v>28</v>
-      </c>
-      <c r="AE1" s="1">
-        <v>29</v>
-      </c>
-      <c r="AF1" s="1">
-        <v>30</v>
-      </c>
-      <c r="AG1" s="1">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:33">
+    </row>
+    <row r="2" spans="1:23">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -600,100 +582,70 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="U2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="V2" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="W2" t="s">
-        <v>38</v>
-      </c>
-      <c r="X2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>35</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:33">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -701,13 +653,13 @@
         <v>1</v>
       </c>
       <c r="C3">
+        <v>0.9992379967779946</v>
+      </c>
+      <c r="D3">
+        <v>1.001974158938575</v>
+      </c>
+      <c r="E3">
         <v>0.997966211717362</v>
-      </c>
-      <c r="D3">
-        <v>1.00303459963446</v>
-      </c>
-      <c r="E3">
-        <v>0.9992473853321913</v>
       </c>
       <c r="F3">
         <v>0.997966211717362</v>
@@ -719,19 +671,19 @@
         <v>0.9988742210910363</v>
       </c>
       <c r="I3">
-        <v>0.997966211717362</v>
+        <v>0.9992473853321913</v>
       </c>
       <c r="J3">
         <v>1.00303459963446</v>
       </c>
       <c r="K3">
+        <v>0.997966211717362</v>
+      </c>
+      <c r="L3">
+        <v>1.00303459963446</v>
+      </c>
+      <c r="M3">
         <v>1.000610776919891</v>
-      </c>
-      <c r="L3">
-        <v>0.9992379967779946</v>
-      </c>
-      <c r="M3">
-        <v>1.001974158938575</v>
       </c>
       <c r="N3">
         <v>0.997966211717362</v>
@@ -764,7 +716,7 @@
         <v>1.000199722022223</v>
       </c>
     </row>
-    <row r="4" spans="1:33">
+    <row r="4" spans="1:23">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -772,13 +724,13 @@
         <v>2</v>
       </c>
       <c r="C4">
+        <v>0.9985289825605073</v>
+      </c>
+      <c r="D4">
+        <v>1.003811103022706</v>
+      </c>
+      <c r="E4">
         <v>0.9960738592919095</v>
-      </c>
-      <c r="D4">
-        <v>1.00585829313776</v>
-      </c>
-      <c r="E4">
-        <v>0.9985470258190545</v>
       </c>
       <c r="F4">
         <v>0.9960738592919095</v>
@@ -790,19 +742,19 @@
         <v>0.9978266757183147</v>
       </c>
       <c r="I4">
-        <v>0.9960738592919095</v>
+        <v>0.9985470258190545</v>
       </c>
       <c r="J4">
         <v>1.00585829313776</v>
       </c>
       <c r="K4">
+        <v>0.9960738592919095</v>
+      </c>
+      <c r="L4">
+        <v>1.00585829313776</v>
+      </c>
+      <c r="M4">
         <v>1.001179075508591</v>
-      </c>
-      <c r="L4">
-        <v>0.9985289825605073</v>
-      </c>
-      <c r="M4">
-        <v>1.003811103022706</v>
       </c>
       <c r="N4">
         <v>0.9960738592919095</v>
@@ -835,7 +787,7 @@
         <v>1.000385564806255</v>
       </c>
     </row>
-    <row r="5" spans="1:33">
+    <row r="5" spans="1:23">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -843,13 +795,13 @@
         <v>3</v>
       </c>
       <c r="C5">
+        <v>0.9971813481762857</v>
+      </c>
+      <c r="D5">
+        <v>1.007303800168198</v>
+      </c>
+      <c r="E5">
         <v>0.9924773061108922</v>
-      </c>
-      <c r="D5">
-        <v>1.011227412354476</v>
-      </c>
-      <c r="E5">
-        <v>0.9972143877006703</v>
       </c>
       <c r="F5">
         <v>0.9924773061108922</v>
@@ -861,19 +813,19 @@
         <v>0.9958347184110204</v>
       </c>
       <c r="I5">
-        <v>0.9924773061108922</v>
+        <v>0.9972143877006703</v>
       </c>
       <c r="J5">
         <v>1.011227412354476</v>
       </c>
       <c r="K5">
+        <v>0.9924773061108922</v>
+      </c>
+      <c r="L5">
+        <v>1.011227412354476</v>
+      </c>
+      <c r="M5">
         <v>1.002259070501342</v>
-      </c>
-      <c r="L5">
-        <v>0.9971813481762857</v>
-      </c>
-      <c r="M5">
-        <v>1.007303800168198</v>
       </c>
       <c r="N5">
         <v>0.9924773061108922</v>
@@ -906,7 +858,7 @@
         <v>1.000738977278079</v>
       </c>
     </row>
-    <row r="6" spans="1:33">
+    <row r="6" spans="1:23">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -914,13 +866,13 @@
         <v>4</v>
       </c>
       <c r="C6">
+        <v>0.9958661300284649</v>
+      </c>
+      <c r="D6">
+        <v>1.010712512833168</v>
+      </c>
+      <c r="E6">
         <v>0.9889672931603133</v>
-      </c>
-      <c r="D6">
-        <v>1.016467418837953</v>
-      </c>
-      <c r="E6">
-        <v>0.9959137608553623</v>
       </c>
       <c r="F6">
         <v>0.9889672931603133</v>
@@ -932,19 +884,19 @@
         <v>0.9938906578981959</v>
       </c>
       <c r="I6">
-        <v>0.9889672931603133</v>
+        <v>0.9959137608553623</v>
       </c>
       <c r="J6">
         <v>1.016467418837953</v>
       </c>
       <c r="K6">
+        <v>0.9889672931603133</v>
+      </c>
+      <c r="L6">
+        <v>1.016467418837953</v>
+      </c>
+      <c r="M6">
         <v>1.003313073073102</v>
-      </c>
-      <c r="L6">
-        <v>0.9958661300284649</v>
-      </c>
-      <c r="M6">
-        <v>1.010712512833168</v>
       </c>
       <c r="N6">
         <v>0.9889672931603133</v>
@@ -977,7 +929,7 @@
         <v>1.001083892304186</v>
       </c>
     </row>
-    <row r="7" spans="1:33">
+    <row r="7" spans="1:23">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -985,13 +937,13 @@
         <v>5</v>
       </c>
       <c r="C7">
+        <v>0.999941679871321</v>
+      </c>
+      <c r="D7">
+        <v>1.000152423442629</v>
+      </c>
+      <c r="E7">
         <v>0.9998446626474541</v>
-      </c>
-      <c r="D7">
-        <v>1.00023457939932</v>
-      </c>
-      <c r="E7">
-        <v>0.999940769174183</v>
       </c>
       <c r="F7">
         <v>0.9998446626474541</v>
@@ -1003,19 +955,19 @@
         <v>0.9999128687601375</v>
       </c>
       <c r="I7">
-        <v>0.9998446626474541</v>
+        <v>0.999940769174183</v>
       </c>
       <c r="J7">
         <v>1.00023457939932</v>
       </c>
       <c r="K7">
-        <v>1.000046535700022</v>
+        <v>0.9998446626474541</v>
       </c>
       <c r="L7">
-        <v>0.999941679871321</v>
+        <v>1.00023457939932</v>
       </c>
       <c r="M7">
-        <v>1.000152423442629</v>
+        <v>1.000046535700021</v>
       </c>
       <c r="N7">
         <v>0.9998446626474541</v>
@@ -1027,7 +979,7 @@
         <v>1.000087674286751</v>
       </c>
       <c r="Q7">
-        <v>0.9999955697032199</v>
+        <v>0.9999955697032201</v>
       </c>
       <c r="R7">
         <v>1.000006670406986</v>
@@ -1039,16 +991,16 @@
         <v>1.000006670406986</v>
       </c>
       <c r="U7">
-        <v>1.000017595363303</v>
+        <v>1.000017595363304</v>
       </c>
       <c r="V7">
-        <v>0.9999830088201336</v>
+        <v>0.9999830088201337</v>
       </c>
       <c r="W7">
         <v>1.000015486153415</v>
       </c>
     </row>
-    <row r="8" spans="1:33">
+    <row r="8" spans="1:23">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1056,13 +1008,13 @@
         <v>6</v>
       </c>
       <c r="C8">
+        <v>0.9998403779144506</v>
+      </c>
+      <c r="D8">
+        <v>1.00041710852302</v>
+      </c>
+      <c r="E8">
         <v>0.9995748074702432</v>
-      </c>
-      <c r="D8">
-        <v>1.000641913111906</v>
-      </c>
-      <c r="E8">
-        <v>0.9998379790575023</v>
       </c>
       <c r="F8">
         <v>0.9995748074702432</v>
@@ -1074,19 +1026,19 @@
         <v>0.9997615696652529</v>
       </c>
       <c r="I8">
-        <v>0.9995748074702432</v>
+        <v>0.9998379790575023</v>
       </c>
       <c r="J8">
         <v>1.000641913111906</v>
       </c>
       <c r="K8">
+        <v>0.9995748074702432</v>
+      </c>
+      <c r="L8">
+        <v>1.000641913111906</v>
+      </c>
+      <c r="M8">
         <v>1.00012739038042</v>
-      </c>
-      <c r="L8">
-        <v>0.9998403779144506</v>
-      </c>
-      <c r="M8">
-        <v>1.00041710852302</v>
       </c>
       <c r="N8">
         <v>0.9995748074702432</v>
@@ -1098,7 +1050,7 @@
         <v>1.000239946084704</v>
       </c>
       <c r="Q8">
-        <v>0.9999879089425315</v>
+        <v>0.9999879089425314</v>
       </c>
       <c r="R8">
         <v>1.000018233213217</v>
@@ -1119,7 +1071,7 @@
         <v>1.000042373118795</v>
       </c>
     </row>
-    <row r="9" spans="1:33">
+    <row r="9" spans="1:23">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1127,13 +1079,13 @@
         <v>7</v>
       </c>
       <c r="C9">
+        <v>0.9997686316078427</v>
+      </c>
+      <c r="D9">
+        <v>1.000604574171294</v>
+      </c>
+      <c r="E9">
         <v>0.9993836868234174</v>
-      </c>
-      <c r="D9">
-        <v>1.000930411754366</v>
-      </c>
-      <c r="E9">
-        <v>0.9997651724452485</v>
       </c>
       <c r="F9">
         <v>0.9993836868234174</v>
@@ -1145,19 +1097,19 @@
         <v>0.9996544096891047</v>
       </c>
       <c r="I9">
-        <v>0.9993836868234174</v>
+        <v>0.9997651724452485</v>
       </c>
       <c r="J9">
         <v>1.000930411754366</v>
       </c>
       <c r="K9">
+        <v>0.9993836868234174</v>
+      </c>
+      <c r="L9">
+        <v>1.000930411754366</v>
+      </c>
+      <c r="M9">
         <v>1.00018465373781</v>
-      </c>
-      <c r="L9">
-        <v>0.9997686316078427</v>
-      </c>
-      <c r="M9">
-        <v>1.000604574171294</v>
       </c>
       <c r="N9">
         <v>0.9993836868234174</v>
@@ -1190,7 +1142,7 @@
         <v>1.000061416235039</v>
       </c>
     </row>
-    <row r="10" spans="1:33">
+    <row r="10" spans="1:23">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1198,13 +1150,13 @@
         <v>8</v>
       </c>
       <c r="C10">
+        <v>0.9995087933871268</v>
+      </c>
+      <c r="D10">
+        <v>1.001283454917904</v>
+      </c>
+      <c r="E10">
         <v>0.998691503835595</v>
-      </c>
-      <c r="D10">
-        <v>1.001975161694816</v>
-      </c>
-      <c r="E10">
-        <v>0.9995015561672</v>
       </c>
       <c r="F10">
         <v>0.998691503835595</v>
@@ -1216,19 +1168,19 @@
         <v>0.9992663530223266</v>
       </c>
       <c r="I10">
-        <v>0.998691503835595</v>
+        <v>0.9995015561672</v>
       </c>
       <c r="J10">
         <v>1.001975161694816</v>
       </c>
       <c r="K10">
+        <v>0.998691503835595</v>
+      </c>
+      <c r="L10">
+        <v>1.001975161694816</v>
+      </c>
+      <c r="M10">
         <v>1.000392048898538</v>
-      </c>
-      <c r="L10">
-        <v>0.9995087933871268</v>
-      </c>
-      <c r="M10">
-        <v>1.001283454917904</v>
       </c>
       <c r="N10">
         <v>0.998691503835595</v>
@@ -1261,7 +1213,7 @@
         <v>1.000130375803772</v>
       </c>
     </row>
-    <row r="11" spans="1:33">
+    <row r="11" spans="1:23">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1269,13 +1221,13 @@
         <v>9</v>
       </c>
       <c r="C11">
+        <v>0.9991626369816176</v>
+      </c>
+      <c r="D11">
+        <v>1.00218821658437</v>
+      </c>
+      <c r="E11">
         <v>0.9977694649724077</v>
-      </c>
-      <c r="D11">
-        <v>1.003367596988901</v>
-      </c>
-      <c r="E11">
-        <v>0.9991499296551178</v>
       </c>
       <c r="F11">
         <v>0.9977694649724077</v>
@@ -1287,19 +1239,19 @@
         <v>0.9987491270983949</v>
       </c>
       <c r="I11">
-        <v>0.9977694649724077</v>
+        <v>0.9991499296551178</v>
       </c>
       <c r="J11">
         <v>1.003367596988901</v>
       </c>
       <c r="K11">
+        <v>0.9977694649724077</v>
+      </c>
+      <c r="L11">
+        <v>1.003367596988901</v>
+      </c>
+      <c r="M11">
         <v>1.00066828750752</v>
-      </c>
-      <c r="L11">
-        <v>0.9991626369816176</v>
-      </c>
-      <c r="M11">
-        <v>1.00218821658437</v>
       </c>
       <c r="N11">
         <v>0.9977694649724077</v>
@@ -1332,7 +1284,7 @@
         <v>1.000222298189604</v>
       </c>
     </row>
-    <row r="12" spans="1:33">
+    <row r="12" spans="1:23">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1340,37 +1292,37 @@
         <v>10</v>
       </c>
       <c r="C12">
+        <v>1.008658063000248</v>
+      </c>
+      <c r="D12">
+        <v>0.9776599495876245</v>
+      </c>
+      <c r="E12">
         <v>1.023129671862989</v>
-      </c>
-      <c r="D12">
-        <v>0.9656788526781157</v>
-      </c>
-      <c r="E12">
-        <v>1.008440267632869</v>
       </c>
       <c r="F12">
         <v>1.023129671862989</v>
       </c>
       <c r="G12">
-        <v>0.9926167904667589</v>
+        <v>0.992616790466759</v>
       </c>
       <c r="H12">
         <v>1.012725007352464</v>
       </c>
       <c r="I12">
-        <v>1.023129671862989</v>
+        <v>1.008440267632869</v>
       </c>
       <c r="J12">
         <v>0.9656788526781157</v>
       </c>
       <c r="K12">
+        <v>1.023129671862989</v>
+      </c>
+      <c r="L12">
+        <v>0.9656788526781157</v>
+      </c>
+      <c r="M12">
         <v>0.993046158078209</v>
-      </c>
-      <c r="L12">
-        <v>1.008658063000248</v>
-      </c>
-      <c r="M12">
-        <v>0.9776599495876245</v>
       </c>
       <c r="N12">
         <v>1.023129671862989</v>
@@ -1379,22 +1331,22 @@
         <v>1.008440267632869</v>
       </c>
       <c r="P12">
-        <v>0.9870595601554922</v>
+        <v>0.9870595601554923</v>
       </c>
       <c r="Q12">
         <v>1.000528529049814</v>
       </c>
       <c r="R12">
-        <v>0.9990829307246577</v>
+        <v>0.9990829307246578</v>
       </c>
       <c r="S12">
-        <v>0.9889119702592478</v>
+        <v>0.9889119702592479</v>
       </c>
       <c r="T12">
-        <v>0.9990829307246577</v>
+        <v>0.9990829307246578</v>
       </c>
       <c r="U12">
-        <v>0.997466395660183</v>
+        <v>0.9974663956601831</v>
       </c>
       <c r="V12">
         <v>1.002599050900744</v>
@@ -1403,7 +1355,7 @@
         <v>0.9977443450824096</v>
       </c>
     </row>
-    <row r="13" spans="1:33">
+    <row r="13" spans="1:23">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1411,13 +1363,13 @@
         <v>11</v>
       </c>
       <c r="C13">
+        <v>1.002206115577125</v>
+      </c>
+      <c r="D13">
+        <v>0.9941891788109908</v>
+      </c>
+      <c r="E13">
         <v>1.005865936989239</v>
-      </c>
-      <c r="D13">
-        <v>0.991047796534645</v>
-      </c>
-      <c r="E13">
-        <v>1.002295542145029</v>
       </c>
       <c r="F13">
         <v>1.005865936989239</v>
@@ -1429,19 +1381,19 @@
         <v>1.00332901908819</v>
       </c>
       <c r="I13">
-        <v>1.005865936989239</v>
+        <v>1.002295542145029</v>
       </c>
       <c r="J13">
         <v>0.991047796534645</v>
       </c>
       <c r="K13">
+        <v>1.005865936989239</v>
+      </c>
+      <c r="L13">
+        <v>0.991047796534645</v>
+      </c>
+      <c r="M13">
         <v>0.9982463486991924</v>
-      </c>
-      <c r="L13">
-        <v>1.002206115577125</v>
-      </c>
-      <c r="M13">
-        <v>0.9941891788109908</v>
       </c>
       <c r="N13">
         <v>1.005865936989239</v>
@@ -1474,7 +1426,7 @@
         <v>0.9994074722711871</v>
       </c>
     </row>
-    <row r="14" spans="1:33">
+    <row r="14" spans="1:23">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1482,13 +1434,13 @@
         <v>12</v>
       </c>
       <c r="C14">
+        <v>1.003512512846241</v>
+      </c>
+      <c r="D14">
+        <v>0.99039808277526</v>
+      </c>
+      <c r="E14">
         <v>1.009257961053271</v>
-      </c>
-      <c r="D14">
-        <v>0.9851348086546715</v>
-      </c>
-      <c r="E14">
-        <v>1.004083142202896</v>
       </c>
       <c r="F14">
         <v>1.009257961053271</v>
@@ -1500,19 +1452,19 @@
         <v>1.00555634199889</v>
       </c>
       <c r="I14">
+        <v>1.004083142202896</v>
+      </c>
+      <c r="J14">
+        <v>0.9851348086546712</v>
+      </c>
+      <c r="K14">
         <v>1.009257961053271</v>
       </c>
-      <c r="J14">
-        <v>0.9851348086546715</v>
-      </c>
-      <c r="K14">
-        <v>0.9972617311560218</v>
-      </c>
       <c r="L14">
-        <v>1.003512512846241</v>
+        <v>0.9851348086546712</v>
       </c>
       <c r="M14">
-        <v>0.99039808277526</v>
+        <v>0.9972617311560219</v>
       </c>
       <c r="N14">
         <v>1.009257961053271</v>
@@ -1521,31 +1473,31 @@
         <v>1.004083142202896</v>
       </c>
       <c r="P14">
-        <v>0.9946089754287839</v>
+        <v>0.9946089754287837</v>
       </c>
       <c r="Q14">
         <v>1.00045550763849</v>
       </c>
       <c r="R14">
-        <v>0.9994919706369464</v>
+        <v>0.9994919706369462</v>
       </c>
       <c r="S14">
-        <v>0.9953486079772175</v>
+        <v>0.9953486079772174</v>
       </c>
       <c r="T14">
-        <v>0.9994919706369463</v>
+        <v>0.9994919706369462</v>
       </c>
       <c r="U14">
-        <v>0.9988259462462309</v>
+        <v>0.9988259462462308</v>
       </c>
       <c r="V14">
         <v>1.000912349207639</v>
       </c>
       <c r="W14">
-        <v>0.9990040567201672</v>
-      </c>
-    </row>
-    <row r="15" spans="1:33">
+        <v>0.9990040567201671</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1553,13 +1505,13 @@
         <v>13</v>
       </c>
       <c r="C15">
+        <v>1.0009942597083</v>
+      </c>
+      <c r="D15">
+        <v>0.997610378315901</v>
+      </c>
+      <c r="E15">
         <v>1.002697115514953</v>
-      </c>
-      <c r="D15">
-        <v>0.9963659284845212</v>
-      </c>
-      <c r="E15">
-        <v>1.000754173015497</v>
       </c>
       <c r="F15">
         <v>1.002697115514953</v>
@@ -1571,19 +1523,19 @@
         <v>1.001332731236358</v>
       </c>
       <c r="I15">
+        <v>1.000754173015497</v>
+      </c>
+      <c r="J15">
+        <v>0.9963659284845211</v>
+      </c>
+      <c r="K15">
         <v>1.002697115514953</v>
       </c>
-      <c r="J15">
-        <v>0.9963659284845212</v>
-      </c>
-      <c r="K15">
+      <c r="L15">
+        <v>0.9963659284845211</v>
+      </c>
+      <c r="M15">
         <v>0.9991744050892001</v>
-      </c>
-      <c r="L15">
-        <v>1.000994259708301</v>
-      </c>
-      <c r="M15">
-        <v>0.997610378315901</v>
       </c>
       <c r="N15">
         <v>1.002697115514953</v>
@@ -1616,7 +1568,7 @@
         <v>0.9997673546917121</v>
       </c>
     </row>
-    <row r="16" spans="1:33">
+    <row r="16" spans="1:23">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1624,67 +1576,67 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.9999923350855698</v>
+        <v>0.9851398444302544</v>
       </c>
       <c r="D16">
-        <v>1.000012944473179</v>
+        <v>1.03851730482983</v>
       </c>
       <c r="E16">
-        <v>0.9999962252800662</v>
+        <v>0.9603423147990229</v>
       </c>
       <c r="F16">
-        <v>0.9999923350855698</v>
+        <v>0.9603423147990229</v>
       </c>
       <c r="G16">
-        <v>1.00000274911158</v>
+        <v>1.01272926495976</v>
       </c>
       <c r="H16">
-        <v>0.9999951427684766</v>
+        <v>0.9780321928283118</v>
       </c>
       <c r="I16">
-        <v>0.9999923350855698</v>
+        <v>0.9853004925263786</v>
       </c>
       <c r="J16">
-        <v>1.000012944473179</v>
+        <v>1.059211141857921</v>
       </c>
       <c r="K16">
-        <v>1.00000223904552</v>
+        <v>0.9603423147990229</v>
       </c>
       <c r="L16">
-        <v>0.9999970622579328</v>
+        <v>1.059211141857921</v>
       </c>
       <c r="M16">
-        <v>1.000008323260156</v>
+        <v>1.011908308444843</v>
       </c>
       <c r="N16">
-        <v>0.9999923350855698</v>
+        <v>0.9603423147990229</v>
       </c>
       <c r="O16">
-        <v>0.9999962252800662</v>
+        <v>0.9853004925263786</v>
       </c>
       <c r="P16">
-        <v>1.000004584876623</v>
+        <v>1.02225581719215</v>
       </c>
       <c r="Q16">
-        <v>0.9999994871958233</v>
+        <v>0.9990148787430694</v>
       </c>
       <c r="R16">
-        <v>1.000000501612938</v>
+        <v>1.001617983061108</v>
       </c>
       <c r="S16">
-        <v>1.000003972954942</v>
+        <v>1.019080299781353</v>
       </c>
       <c r="T16">
-        <v>1.000000501612938</v>
+        <v>1.001617983061108</v>
       </c>
       <c r="U16">
-        <v>1.000001063487599</v>
+        <v>1.004395803535771</v>
       </c>
       <c r="V16">
-        <v>0.9999993178071931</v>
+        <v>0.9955851057884212</v>
       </c>
       <c r="W16">
-        <v>1.00000087766031</v>
+        <v>1.00389760808454</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1695,67 +1647,67 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.9998229867315457</v>
+        <v>0.9878431391820179</v>
       </c>
       <c r="D17">
-        <v>1.000265857808287</v>
+        <v>1.031551057107353</v>
       </c>
       <c r="E17">
-        <v>0.9999334128615734</v>
+        <v>0.9675661425075506</v>
       </c>
       <c r="F17">
-        <v>0.9998229867315457</v>
+        <v>0.9675661425075506</v>
       </c>
       <c r="G17">
-        <v>1.000057119358861</v>
+        <v>1.010426954710481</v>
       </c>
       <c r="H17">
-        <v>0.9999013072041879</v>
+        <v>0.9819987579953959</v>
       </c>
       <c r="I17">
-        <v>0.9998229867315457</v>
+        <v>0.9879248365056952</v>
       </c>
       <c r="J17">
-        <v>1.000265857808287</v>
+        <v>1.048510743968409</v>
       </c>
       <c r="K17">
-        <v>1.000053087618617</v>
+        <v>0.9675661425075506</v>
       </c>
       <c r="L17">
-        <v>0.9999336028516159</v>
+        <v>1.048510743968409</v>
       </c>
       <c r="M17">
-        <v>1.000172840622855</v>
+        <v>1.009735750001818</v>
       </c>
       <c r="N17">
-        <v>0.9998229867315457</v>
+        <v>0.9675661425075506</v>
       </c>
       <c r="O17">
-        <v>0.9999334128615734</v>
+        <v>0.9879248365056952</v>
       </c>
       <c r="P17">
-        <v>1.000099635334931</v>
+        <v>1.018217790237052</v>
       </c>
       <c r="Q17">
-        <v>0.9999952661102172</v>
+        <v>0.9991758956080883</v>
       </c>
       <c r="R17">
-        <v>1.000007419133802</v>
+        <v>1.001333907660552</v>
       </c>
       <c r="S17">
-        <v>1.000085463342907</v>
+        <v>1.015620845061528</v>
       </c>
       <c r="T17">
-        <v>1.000007419133802</v>
+        <v>1.001333907660552</v>
       </c>
       <c r="U17">
-        <v>1.000019844190067</v>
+        <v>1.003607169423034</v>
       </c>
       <c r="V17">
-        <v>0.9999804726983624</v>
+        <v>0.9963989640399372</v>
       </c>
       <c r="W17">
-        <v>1.000017526882193</v>
+        <v>1.00319467274734</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1766,67 +1718,67 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.9993746258783137</v>
+        <v>0.9932617070093639</v>
       </c>
       <c r="D18">
-        <v>1.000934785028049</v>
+        <v>1.017586520595366</v>
       </c>
       <c r="E18">
-        <v>0.9997675354745221</v>
+        <v>0.9820455392912335</v>
       </c>
       <c r="F18">
-        <v>0.9993746258783137</v>
+        <v>0.9820455392912335</v>
       </c>
       <c r="G18">
-        <v>1.000200937088134</v>
+        <v>1.005811746672261</v>
       </c>
       <c r="H18">
-        <v>0.9996531494141123</v>
+        <v>0.989950322632615</v>
       </c>
       <c r="I18">
-        <v>0.9993746258783137</v>
+        <v>0.9931865824112508</v>
       </c>
       <c r="J18">
-        <v>1.000934785028049</v>
+        <v>1.027060488674374</v>
       </c>
       <c r="K18">
-        <v>1.000187739851162</v>
+        <v>0.9820455392912335</v>
       </c>
       <c r="L18">
-        <v>0.9997656193592606</v>
+        <v>1.027060488674374</v>
       </c>
       <c r="M18">
-        <v>1.000608014961426</v>
+        <v>1.00538118447501</v>
       </c>
       <c r="N18">
-        <v>0.9993746258783137</v>
+        <v>0.9820455392912335</v>
       </c>
       <c r="O18">
-        <v>0.9997675354745221</v>
+        <v>0.9931865824112508</v>
       </c>
       <c r="P18">
-        <v>1.000351160251286</v>
+        <v>1.010123535542812</v>
       </c>
       <c r="Q18">
-        <v>0.9999842362813279</v>
+        <v>0.9994991645417561</v>
       </c>
       <c r="R18">
-        <v>1.000025648793628</v>
+        <v>1.000764203458953</v>
       </c>
       <c r="S18">
-        <v>1.000301085863568</v>
+        <v>1.008686272585962</v>
       </c>
       <c r="T18">
-        <v>1.000025648793629</v>
+        <v>1.000764203458953</v>
       </c>
       <c r="U18">
-        <v>1.000069470867255</v>
+        <v>1.00202608926228</v>
       </c>
       <c r="V18">
-        <v>0.9999305018694666</v>
+        <v>0.9980299792680707</v>
       </c>
       <c r="W18">
-        <v>1.000061550881873</v>
+        <v>1.001785511470184</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1837,66 +1789,350 @@
         <v>17</v>
       </c>
       <c r="C19">
+        <v>0.9926397417047704</v>
+      </c>
+      <c r="D19">
+        <v>1.019225456580995</v>
+      </c>
+      <c r="E19">
+        <v>0.9803919241329497</v>
+      </c>
+      <c r="F19">
+        <v>0.9803919241329497</v>
+      </c>
+      <c r="G19">
+        <v>1.006353330211851</v>
+      </c>
+      <c r="H19">
+        <v>0.9890112644708193</v>
+      </c>
+      <c r="I19">
+        <v>0.9925385514917994</v>
+      </c>
+      <c r="J19">
+        <v>1.029585592193007</v>
+      </c>
+      <c r="K19">
+        <v>0.9803919241329497</v>
+      </c>
+      <c r="L19">
+        <v>1.029585592193007</v>
+      </c>
+      <c r="M19">
+        <v>1.005875484839764</v>
+      </c>
+      <c r="N19">
+        <v>0.9803919241329497</v>
+      </c>
+      <c r="O19">
+        <v>0.9925385514917994</v>
+      </c>
+      <c r="P19">
+        <v>1.011062071842403</v>
+      </c>
+      <c r="Q19">
+        <v>0.999445940851825</v>
+      </c>
+      <c r="R19">
+        <v>1.000838689272586</v>
+      </c>
+      <c r="S19">
+        <v>1.009492491298886</v>
+      </c>
+      <c r="T19">
+        <v>1.000838689272586</v>
+      </c>
+      <c r="U19">
+        <v>1.002217349507402</v>
+      </c>
+      <c r="V19">
+        <v>0.9978522644325114</v>
+      </c>
+      <c r="W19">
+        <v>1.001952668203244</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>0.9999970622579328</v>
+      </c>
+      <c r="D20">
+        <v>1.000008323260156</v>
+      </c>
+      <c r="E20">
+        <v>0.9999923350855698</v>
+      </c>
+      <c r="F20">
+        <v>0.9999923350855698</v>
+      </c>
+      <c r="G20">
+        <v>1.00000274911158</v>
+      </c>
+      <c r="H20">
+        <v>0.9999951427684768</v>
+      </c>
+      <c r="I20">
+        <v>0.9999962252800662</v>
+      </c>
+      <c r="J20">
+        <v>1.000012944473179</v>
+      </c>
+      <c r="K20">
+        <v>0.9999923350855698</v>
+      </c>
+      <c r="L20">
+        <v>1.000012944473179</v>
+      </c>
+      <c r="M20">
+        <v>1.00000223904552</v>
+      </c>
+      <c r="N20">
+        <v>0.9999923350855698</v>
+      </c>
+      <c r="O20">
+        <v>0.9999962252800662</v>
+      </c>
+      <c r="P20">
+        <v>1.000004584876623</v>
+      </c>
+      <c r="Q20">
+        <v>0.9999994871958233</v>
+      </c>
+      <c r="R20">
+        <v>1.000000501612938</v>
+      </c>
+      <c r="S20">
+        <v>1.000003972954942</v>
+      </c>
+      <c r="T20">
+        <v>1.000000501612938</v>
+      </c>
+      <c r="U20">
+        <v>1.000001063487599</v>
+      </c>
+      <c r="V20">
+        <v>0.9999993178071931</v>
+      </c>
+      <c r="W20">
+        <v>1.00000087766031</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>0.9999336028516159</v>
+      </c>
+      <c r="D21">
+        <v>1.000172840622855</v>
+      </c>
+      <c r="E21">
+        <v>0.9998229867315456</v>
+      </c>
+      <c r="F21">
+        <v>0.9998229867315456</v>
+      </c>
+      <c r="G21">
+        <v>1.00005711935886</v>
+      </c>
+      <c r="H21">
+        <v>0.999901307204188</v>
+      </c>
+      <c r="I21">
+        <v>0.9999334128615736</v>
+      </c>
+      <c r="J21">
+        <v>1.000265857808287</v>
+      </c>
+      <c r="K21">
+        <v>0.9998229867315456</v>
+      </c>
+      <c r="L21">
+        <v>1.000265857808287</v>
+      </c>
+      <c r="M21">
+        <v>1.000053087618617</v>
+      </c>
+      <c r="N21">
+        <v>0.9998229867315456</v>
+      </c>
+      <c r="O21">
+        <v>0.9999334128615736</v>
+      </c>
+      <c r="P21">
+        <v>1.000099635334931</v>
+      </c>
+      <c r="Q21">
+        <v>0.9999952661102169</v>
+      </c>
+      <c r="R21">
+        <v>1.000007419133802</v>
+      </c>
+      <c r="S21">
+        <v>1.000085463342907</v>
+      </c>
+      <c r="T21">
+        <v>1.000007419133802</v>
+      </c>
+      <c r="U21">
+        <v>1.000019844190067</v>
+      </c>
+      <c r="V21">
+        <v>0.9999804726983624</v>
+      </c>
+      <c r="W21">
+        <v>1.000017526882193</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>0.9997656193592607</v>
+      </c>
+      <c r="D22">
+        <v>1.000608014961426</v>
+      </c>
+      <c r="E22">
+        <v>0.9993746258783137</v>
+      </c>
+      <c r="F22">
+        <v>0.9993746258783137</v>
+      </c>
+      <c r="G22">
+        <v>1.000200937088134</v>
+      </c>
+      <c r="H22">
+        <v>0.9996531494141123</v>
+      </c>
+      <c r="I22">
+        <v>0.9997675354745221</v>
+      </c>
+      <c r="J22">
+        <v>1.000934785028049</v>
+      </c>
+      <c r="K22">
+        <v>0.9993746258783137</v>
+      </c>
+      <c r="L22">
+        <v>1.000934785028049</v>
+      </c>
+      <c r="M22">
+        <v>1.000187739851162</v>
+      </c>
+      <c r="N22">
+        <v>0.9993746258783137</v>
+      </c>
+      <c r="O22">
+        <v>0.9997675354745221</v>
+      </c>
+      <c r="P22">
+        <v>1.000351160251286</v>
+      </c>
+      <c r="Q22">
+        <v>0.9999842362813279</v>
+      </c>
+      <c r="R22">
+        <v>1.000025648793628</v>
+      </c>
+      <c r="S22">
+        <v>1.000301085863568</v>
+      </c>
+      <c r="T22">
+        <v>1.000025648793629</v>
+      </c>
+      <c r="U22">
+        <v>1.000069470867255</v>
+      </c>
+      <c r="V22">
+        <v>0.9999305018694666</v>
+      </c>
+      <c r="W22">
+        <v>1.000061550881873</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>0.9994502629097619</v>
+      </c>
+      <c r="D23">
+        <v>1.001423873552513</v>
+      </c>
+      <c r="E23">
         <v>0.9985326767622211</v>
       </c>
-      <c r="D19">
+      <c r="F23">
+        <v>0.9985326767622211</v>
+      </c>
+      <c r="G23">
+        <v>1.000470568697002</v>
+      </c>
+      <c r="H23">
+        <v>0.9991880838717946</v>
+      </c>
+      <c r="I23">
+        <v>0.9994574690692285</v>
+      </c>
+      <c r="J23">
         <v>1.002188648437274</v>
       </c>
-      <c r="E19">
+      <c r="K23">
+        <v>0.9985326767622211</v>
+      </c>
+      <c r="L23">
+        <v>1.002188648437274</v>
+      </c>
+      <c r="M23">
+        <v>1.000440688434662</v>
+      </c>
+      <c r="N23">
+        <v>0.9985326767622211</v>
+      </c>
+      <c r="O23">
         <v>0.9994574690692285</v>
       </c>
-      <c r="F19">
-        <v>0.9985326767622211</v>
-      </c>
-      <c r="G19">
-        <v>1.000470568697002</v>
-      </c>
-      <c r="H19">
-        <v>0.9991880838717946</v>
-      </c>
-      <c r="I19">
-        <v>0.9985326767622211</v>
-      </c>
-      <c r="J19">
-        <v>1.002188648437274</v>
-      </c>
-      <c r="K19">
-        <v>1.000440688434662</v>
-      </c>
-      <c r="L19">
-        <v>0.9994502629097619</v>
-      </c>
-      <c r="M19">
-        <v>1.001423873552513</v>
-      </c>
-      <c r="N19">
-        <v>0.9985326767622211</v>
-      </c>
-      <c r="O19">
-        <v>0.9994574690692285</v>
-      </c>
-      <c r="P19">
+      <c r="P23">
         <v>1.000823058753251</v>
       </c>
-      <c r="Q19">
+      <c r="Q23">
         <v>0.9999640188831151</v>
       </c>
-      <c r="R19">
+      <c r="R23">
         <v>1.000059598089575</v>
       </c>
-      <c r="S19">
+      <c r="S23">
         <v>1.000705562067835</v>
       </c>
-      <c r="T19">
+      <c r="T23">
         <v>1.000059598089575</v>
       </c>
-      <c r="U19">
+      <c r="U23">
         <v>1.000162340741432</v>
       </c>
-      <c r="V19">
+      <c r="V23">
         <v>0.9998364079455895</v>
       </c>
-      <c r="W19">
+      <c r="W23">
         <v>1.000144033966807</v>
       </c>
     </row>

--- a/JupyterNotebooks/AvgHW/CubeA-HW40.xlsx
+++ b/JupyterNotebooks/AvgHW/CubeA-HW40.xlsx
@@ -14,11 +14,47 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
   <si>
     <t>HKL</t>
   </si>
   <si>
+    <t>EA_5</t>
+  </si>
+  <si>
+    <t>EA_2.5</t>
+  </si>
+  <si>
+    <t>EA_10</t>
+  </si>
+  <si>
+    <t>EA_15</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_2.5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_10</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_15</t>
+  </si>
+  <si>
+    <t>CLR_5</t>
+  </si>
+  <si>
+    <t>CLR_2.5</t>
+  </si>
+  <si>
+    <t>CLR_10</t>
+  </si>
+  <si>
+    <t>CLR_15</t>
+  </si>
+  <si>
     <t>BT8Hex_2.5</t>
   </si>
   <si>
@@ -70,6 +106,18 @@
     <t>Holden15</t>
   </si>
   <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>Rotation-90detTilt</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -80,6 +128,15 @@
   </si>
   <si>
     <t>HexGrid-90degTilt15degRes</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-90</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-60 Weighted</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-30</t>
   </si>
   <si>
     <t>[4, 2, 2]</t>
@@ -500,7 +557,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W23"/>
+  <dimension ref="A1:W42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,67 +639,67 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="E2" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="F2" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="G2" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="H2" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="I2" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="J2" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="K2" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="L2" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="M2" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="N2" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="P2" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="Q2" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="R2" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="S2" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="T2" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="U2" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="V2" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="W2" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -653,67 +710,67 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>0.9992379967779946</v>
+        <v>0.9919175533573482</v>
       </c>
       <c r="D3">
-        <v>1.001974158938575</v>
+        <v>1.021087542586457</v>
       </c>
       <c r="E3">
-        <v>0.997966211717362</v>
+        <v>0.978462314697408</v>
       </c>
       <c r="F3">
-        <v>0.997966211717362</v>
+        <v>0.978462314697408</v>
       </c>
       <c r="G3">
-        <v>1.000652425766276</v>
+        <v>1.006968733523059</v>
       </c>
       <c r="H3">
-        <v>0.9988742210910363</v>
+        <v>0.9879508296902003</v>
       </c>
       <c r="I3">
-        <v>0.9992473853321913</v>
+        <v>0.9918361772766584</v>
       </c>
       <c r="J3">
-        <v>1.00303459963446</v>
+        <v>1.032446038213255</v>
       </c>
       <c r="K3">
-        <v>0.997966211717362</v>
+        <v>0.978462314697408</v>
       </c>
       <c r="L3">
-        <v>1.00303459963446</v>
+        <v>1.032446038213255</v>
       </c>
       <c r="M3">
-        <v>1.000610776919891</v>
+        <v>1.006455723991354</v>
       </c>
       <c r="N3">
-        <v>0.997966211717362</v>
+        <v>0.978462314697408</v>
       </c>
       <c r="O3">
-        <v>0.9992473853321913</v>
+        <v>0.9918361772766584</v>
       </c>
       <c r="P3">
-        <v>1.001140992483326</v>
+        <v>1.012141107744957</v>
       </c>
       <c r="Q3">
-        <v>0.9999499055492336</v>
+        <v>0.9994024553998589</v>
       </c>
       <c r="R3">
-        <v>1.000082732228004</v>
+        <v>1.000914843395774</v>
       </c>
       <c r="S3">
-        <v>1.000978136910976</v>
+        <v>1.010416983004324</v>
       </c>
       <c r="T3">
-        <v>1.000082732228005</v>
+        <v>1.000914843395774</v>
       </c>
       <c r="U3">
-        <v>1.000225155612573</v>
+        <v>1.002428315927595</v>
       </c>
       <c r="V3">
-        <v>0.9997733668335304</v>
+        <v>0.9976351156815578</v>
       </c>
       <c r="W3">
-        <v>1.000199722022223</v>
+        <v>1.002140614166968</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -724,67 +781,67 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.9985289825605073</v>
+        <v>0.9926684834289959</v>
       </c>
       <c r="D4">
-        <v>1.003811103022706</v>
+        <v>1.019131655956025</v>
       </c>
       <c r="E4">
-        <v>0.9960738592919095</v>
+        <v>0.9804641312784241</v>
       </c>
       <c r="F4">
-        <v>0.9960738592919095</v>
+        <v>0.9804641312784241</v>
       </c>
       <c r="G4">
-        <v>1.001259503391195</v>
+        <v>1.006322369791278</v>
       </c>
       <c r="H4">
-        <v>0.9978266757183147</v>
+        <v>0.9890678682072305</v>
       </c>
       <c r="I4">
-        <v>0.9985470258190545</v>
+        <v>0.9925905936116299</v>
       </c>
       <c r="J4">
-        <v>1.00585829313776</v>
+        <v>1.02943733739098</v>
       </c>
       <c r="K4">
-        <v>0.9960738592919095</v>
+        <v>0.9804641312784241</v>
       </c>
       <c r="L4">
-        <v>1.00585829313776</v>
+        <v>1.02943733739098</v>
       </c>
       <c r="M4">
-        <v>1.001179075508591</v>
+        <v>1.005855417733883</v>
       </c>
       <c r="N4">
-        <v>0.9960738592919095</v>
+        <v>0.9804641312784241</v>
       </c>
       <c r="O4">
-        <v>0.9985470258190545</v>
+        <v>0.9925905936116299</v>
       </c>
       <c r="P4">
-        <v>1.002202659478407</v>
+        <v>1.011013965501305</v>
       </c>
       <c r="Q4">
-        <v>0.9999032646051249</v>
+        <v>0.9994564817014537</v>
       </c>
       <c r="R4">
-        <v>1.000159726082908</v>
+        <v>1.000830687427012</v>
       </c>
       <c r="S4">
-        <v>1.001888274116003</v>
+        <v>1.009450100264629</v>
       </c>
       <c r="T4">
-        <v>1.000159726082908</v>
+        <v>1.000830687427012</v>
       </c>
       <c r="U4">
-        <v>1.00043467040998</v>
+        <v>1.002203608018078</v>
       </c>
       <c r="V4">
-        <v>0.9995625081863657</v>
+        <v>0.9978557126701473</v>
       </c>
       <c r="W4">
-        <v>1.000385564806255</v>
+        <v>1.001942232174806</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -795,67 +852,67 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.9971813481762857</v>
+        <v>0.9904820886253372</v>
       </c>
       <c r="D5">
-        <v>1.007303800168198</v>
+        <v>1.024827204043127</v>
       </c>
       <c r="E5">
-        <v>0.9924773061108922</v>
+        <v>0.97463588026954</v>
       </c>
       <c r="F5">
-        <v>0.9924773061108922</v>
+        <v>0.97463588026954</v>
       </c>
       <c r="G5">
-        <v>1.002413774801749</v>
+        <v>1.008204580269543</v>
       </c>
       <c r="H5">
-        <v>0.9958347184110204</v>
+        <v>0.985814915552559</v>
       </c>
       <c r="I5">
-        <v>0.9972143877006703</v>
+        <v>0.9903930339083555</v>
       </c>
       <c r="J5">
-        <v>1.011227412354476</v>
+        <v>1.038198860916444</v>
       </c>
       <c r="K5">
-        <v>0.9924773061108922</v>
+        <v>0.97463588026954</v>
       </c>
       <c r="L5">
-        <v>1.011227412354476</v>
+        <v>1.038198860916444</v>
       </c>
       <c r="M5">
-        <v>1.002259070501342</v>
+        <v>1.007603131159029</v>
       </c>
       <c r="N5">
-        <v>0.9924773061108922</v>
+        <v>0.97463588026954</v>
       </c>
       <c r="O5">
-        <v>0.9972143877006703</v>
+        <v>0.9903930339083555</v>
       </c>
       <c r="P5">
-        <v>1.004220900027573</v>
+        <v>1.0142959474124</v>
       </c>
       <c r="Q5">
-        <v>0.9998140812512094</v>
+        <v>0.999298807088949</v>
       </c>
       <c r="R5">
-        <v>1.000306368722013</v>
+        <v>1.001075925031446</v>
       </c>
       <c r="S5">
-        <v>1.003618524952298</v>
+        <v>1.012265491698114</v>
       </c>
       <c r="T5">
-        <v>1.000306368722013</v>
+        <v>1.001075925031446</v>
       </c>
       <c r="U5">
-        <v>1.000833220241947</v>
+        <v>1.00285808884097</v>
       </c>
       <c r="V5">
-        <v>0.9991620374157358</v>
+        <v>0.9972136471266844</v>
       </c>
       <c r="W5">
-        <v>1.000738977278079</v>
+        <v>1.002519961842992</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -866,67 +923,67 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.9958661300284649</v>
+        <v>0.9891306739772731</v>
       </c>
       <c r="D6">
-        <v>1.010712512833168</v>
+        <v>1.02834891630682</v>
       </c>
       <c r="E6">
-        <v>0.9889672931603133</v>
+        <v>0.9710337060227274</v>
       </c>
       <c r="F6">
-        <v>0.9889672931603133</v>
+        <v>0.9710337060227274</v>
       </c>
       <c r="G6">
-        <v>1.003540291746927</v>
+        <v>1.009368403352274</v>
       </c>
       <c r="H6">
-        <v>0.9938906578981959</v>
+        <v>0.9838033259659094</v>
       </c>
       <c r="I6">
-        <v>0.9959137608553623</v>
+        <v>0.9890331705681812</v>
       </c>
       <c r="J6">
-        <v>1.016467418837953</v>
+        <v>1.043616596250002</v>
       </c>
       <c r="K6">
-        <v>0.9889672931603133</v>
+        <v>0.9710337060227274</v>
       </c>
       <c r="L6">
-        <v>1.016467418837953</v>
+        <v>1.043616596250002</v>
       </c>
       <c r="M6">
-        <v>1.003313073073102</v>
+        <v>1.00868321215909</v>
       </c>
       <c r="N6">
-        <v>0.9889672931603133</v>
+        <v>0.9710337060227274</v>
       </c>
       <c r="O6">
-        <v>0.9959137608553623</v>
+        <v>0.9890331705681812</v>
       </c>
       <c r="P6">
-        <v>1.006190589846658</v>
+        <v>1.016324883409091</v>
       </c>
       <c r="Q6">
-        <v>0.9997270263011446</v>
+        <v>0.9992007869602275</v>
       </c>
       <c r="R6">
-        <v>1.000449490951209</v>
+        <v>1.001227824280303</v>
       </c>
       <c r="S6">
-        <v>1.005307157146747</v>
+        <v>1.014006056723486</v>
       </c>
       <c r="T6">
-        <v>1.000449490951209</v>
+        <v>1.001227824280303</v>
       </c>
       <c r="U6">
-        <v>1.001222191150139</v>
+        <v>1.003262969048296</v>
       </c>
       <c r="V6">
-        <v>0.9987712115521739</v>
+        <v>0.9968171164431823</v>
       </c>
       <c r="W6">
-        <v>1.001083892304186</v>
+        <v>1.002877250575285</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -937,67 +994,67 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.999941679871321</v>
+        <v>0.9838897666366143</v>
       </c>
       <c r="D7">
-        <v>1.000152423442629</v>
+        <v>1.041662518147943</v>
       </c>
       <c r="E7">
-        <v>0.9998446626474541</v>
+        <v>0.9569840687047791</v>
       </c>
       <c r="F7">
-        <v>0.9998446626474541</v>
+        <v>0.9569840687047791</v>
       </c>
       <c r="G7">
-        <v>1.000050370232257</v>
+        <v>1.01376891538015</v>
       </c>
       <c r="H7">
-        <v>0.9999128687601375</v>
+        <v>0.9762536371848619</v>
       </c>
       <c r="I7">
-        <v>0.999940769174183</v>
+        <v>0.9841800970241896</v>
       </c>
       <c r="J7">
-        <v>1.00023457939932</v>
+        <v>1.064026200943583</v>
       </c>
       <c r="K7">
-        <v>0.9998446626474541</v>
+        <v>0.9569840687047791</v>
       </c>
       <c r="L7">
-        <v>1.00023457939932</v>
+        <v>1.064026200943583</v>
       </c>
       <c r="M7">
-        <v>1.000046535700021</v>
+        <v>1.012924670446904</v>
       </c>
       <c r="N7">
-        <v>0.9998446626474541</v>
+        <v>0.9569840687047791</v>
       </c>
       <c r="O7">
-        <v>0.999940769174183</v>
+        <v>0.9841800970241896</v>
       </c>
       <c r="P7">
-        <v>1.000087674286751</v>
+        <v>1.024103148983886</v>
       </c>
       <c r="Q7">
-        <v>0.9999955697032201</v>
+        <v>0.9989745062021698</v>
       </c>
       <c r="R7">
-        <v>1.000006670406986</v>
+        <v>1.001730122224184</v>
       </c>
       <c r="S7">
-        <v>1.00007523960192</v>
+        <v>1.020658404449308</v>
       </c>
       <c r="T7">
-        <v>1.000006670406986</v>
+        <v>1.001730122224184</v>
       </c>
       <c r="U7">
-        <v>1.000017595363304</v>
+        <v>1.004739820513175</v>
       </c>
       <c r="V7">
-        <v>0.9999830088201337</v>
+        <v>0.9951886701514961</v>
       </c>
       <c r="W7">
-        <v>1.000015486153415</v>
+        <v>1.004211234308628</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -1008,67 +1065,67 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.9998403779144506</v>
+        <v>0.9837191538085051</v>
       </c>
       <c r="D8">
-        <v>1.00041710852302</v>
+        <v>1.042111082797261</v>
       </c>
       <c r="E8">
-        <v>0.9995748074702432</v>
+        <v>0.956530226749408</v>
       </c>
       <c r="F8">
-        <v>0.9995748074702432</v>
+        <v>0.956530226749408</v>
       </c>
       <c r="G8">
-        <v>1.000137838827561</v>
+        <v>1.013917143562421</v>
       </c>
       <c r="H8">
-        <v>0.9997615696652529</v>
+        <v>0.975996785150762</v>
       </c>
       <c r="I8">
-        <v>0.9998379790575023</v>
+        <v>0.9840035750825074</v>
       </c>
       <c r="J8">
-        <v>1.000641913111906</v>
+        <v>1.064717093562117</v>
       </c>
       <c r="K8">
-        <v>0.9995748074702432</v>
+        <v>0.956530226749408</v>
       </c>
       <c r="L8">
-        <v>1.000641913111906</v>
+        <v>1.064717093562117</v>
       </c>
       <c r="M8">
-        <v>1.00012739038042</v>
+        <v>1.013060418007667</v>
       </c>
       <c r="N8">
-        <v>0.9995748074702432</v>
+        <v>0.956530226749408</v>
       </c>
       <c r="O8">
-        <v>0.9998379790575023</v>
+        <v>0.9840035750825074</v>
       </c>
       <c r="P8">
-        <v>1.000239946084704</v>
+        <v>1.024360334322312</v>
       </c>
       <c r="Q8">
-        <v>0.9999879089425314</v>
+        <v>0.9989603593224643</v>
       </c>
       <c r="R8">
-        <v>1.000018233213217</v>
+        <v>1.001750298464678</v>
       </c>
       <c r="S8">
-        <v>1.000205910332323</v>
+        <v>1.020879270735682</v>
       </c>
       <c r="T8">
-        <v>1.000018233213217</v>
+        <v>1.001750298464678</v>
       </c>
       <c r="U8">
-        <v>1.000048134616803</v>
+        <v>1.004792009739114</v>
       </c>
       <c r="V8">
-        <v>0.9999534691874912</v>
+        <v>0.9951396531411725</v>
       </c>
       <c r="W8">
-        <v>1.000042373118795</v>
+        <v>1.004256934840081</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1079,67 +1136,67 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.9997686316078427</v>
+        <v>0.9835921743103478</v>
       </c>
       <c r="D9">
-        <v>1.000604574171294</v>
+        <v>1.042444929437315</v>
       </c>
       <c r="E9">
-        <v>0.9993836868234174</v>
+        <v>0.9561924524599346</v>
       </c>
       <c r="F9">
-        <v>0.9993836868234174</v>
+        <v>0.9561924524599346</v>
       </c>
       <c r="G9">
-        <v>1.000199789651228</v>
+        <v>1.014027463204333</v>
       </c>
       <c r="H9">
-        <v>0.9996544096891047</v>
+        <v>0.9758056216510207</v>
       </c>
       <c r="I9">
-        <v>0.9997651724452485</v>
+        <v>0.9838721976946023</v>
       </c>
       <c r="J9">
-        <v>1.000930411754366</v>
+        <v>1.065231294068523</v>
       </c>
       <c r="K9">
-        <v>0.9993836868234174</v>
+        <v>0.9561924524599346</v>
       </c>
       <c r="L9">
-        <v>1.000930411754366</v>
+        <v>1.065231294068523</v>
       </c>
       <c r="M9">
-        <v>1.00018465373781</v>
+        <v>1.013161448959554</v>
       </c>
       <c r="N9">
-        <v>0.9993836868234174</v>
+        <v>0.9561924524599346</v>
       </c>
       <c r="O9">
-        <v>0.9997651724452485</v>
+        <v>0.9838721976946023</v>
       </c>
       <c r="P9">
-        <v>1.000347792099808</v>
+        <v>1.024551745881563</v>
       </c>
       <c r="Q9">
-        <v>0.9999824810482384</v>
+        <v>0.9989498304494675</v>
       </c>
       <c r="R9">
-        <v>1.000026423674344</v>
+        <v>1.00176531474102</v>
       </c>
       <c r="S9">
-        <v>1.000298457950281</v>
+        <v>1.021043651655819</v>
       </c>
       <c r="T9">
-        <v>1.000026423674344</v>
+        <v>1.00176531474102</v>
       </c>
       <c r="U9">
-        <v>1.000069765168565</v>
+        <v>1.004830851856848</v>
       </c>
       <c r="V9">
-        <v>0.9999325494995356</v>
+        <v>0.9951031719774655</v>
       </c>
       <c r="W9">
-        <v>1.000061416235039</v>
+        <v>1.004290947723204</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1150,67 +1207,67 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.9995087933871268</v>
+        <v>0.9831215071587417</v>
       </c>
       <c r="D10">
-        <v>1.001283454917904</v>
+        <v>1.04368237846955</v>
       </c>
       <c r="E10">
-        <v>0.998691503835595</v>
+        <v>0.9549404451016017</v>
       </c>
       <c r="F10">
-        <v>0.998691503835595</v>
+        <v>0.9549404451016017</v>
       </c>
       <c r="G10">
-        <v>1.000424134506672</v>
+        <v>1.014436378351096</v>
       </c>
       <c r="H10">
-        <v>0.9992663530223266</v>
+        <v>0.9750970475573782</v>
       </c>
       <c r="I10">
-        <v>0.9995015561672</v>
+        <v>0.9833852291496236</v>
       </c>
       <c r="J10">
-        <v>1.001975161694816</v>
+        <v>1.06713724971389</v>
       </c>
       <c r="K10">
-        <v>0.998691503835595</v>
+        <v>0.9549404451016017</v>
       </c>
       <c r="L10">
-        <v>1.001975161694816</v>
+        <v>1.06713724971389</v>
       </c>
       <c r="M10">
-        <v>1.000392048898538</v>
+        <v>1.013535934373133</v>
       </c>
       <c r="N10">
-        <v>0.998691503835595</v>
+        <v>0.9549404451016017</v>
       </c>
       <c r="O10">
-        <v>0.9995015561672</v>
+        <v>0.9833852291496236</v>
       </c>
       <c r="P10">
-        <v>1.000738358931008</v>
+        <v>1.025261239431757</v>
       </c>
       <c r="Q10">
-        <v>0.999962845336936</v>
+        <v>0.9989108037503596</v>
       </c>
       <c r="R10">
-        <v>1.000056073899204</v>
+        <v>1.001820974655038</v>
       </c>
       <c r="S10">
-        <v>1.000633617456229</v>
+        <v>1.02165295240487</v>
       </c>
       <c r="T10">
-        <v>1.000056073899204</v>
+        <v>1.001820974655038</v>
       </c>
       <c r="U10">
-        <v>1.000148089051071</v>
+        <v>1.004974825579053</v>
       </c>
       <c r="V10">
-        <v>0.9998567720079755</v>
+        <v>0.9949679494835625</v>
       </c>
       <c r="W10">
-        <v>1.000130375803772</v>
+        <v>1.004417021234377</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1221,67 +1278,67 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.9991626369816176</v>
+        <v>0.9991233382390164</v>
       </c>
       <c r="D11">
-        <v>1.00218821658437</v>
+        <v>1.002271677427459</v>
       </c>
       <c r="E11">
-        <v>0.9977694649724077</v>
+        <v>0.9976602963011122</v>
       </c>
       <c r="F11">
-        <v>0.9977694649724077</v>
+        <v>0.9976602963011122</v>
       </c>
       <c r="G11">
-        <v>1.000723125728503</v>
+        <v>1.000750749266318</v>
       </c>
       <c r="H11">
-        <v>0.9987491270983949</v>
+        <v>0.9987044832349103</v>
       </c>
       <c r="I11">
-        <v>0.9991499296551178</v>
+        <v>0.9991335679081631</v>
       </c>
       <c r="J11">
-        <v>1.003367596988901</v>
+        <v>1.003492031249944</v>
       </c>
       <c r="K11">
-        <v>0.9977694649724077</v>
+        <v>0.9976602963011122</v>
       </c>
       <c r="L11">
-        <v>1.003367596988901</v>
+        <v>1.003492031249944</v>
       </c>
       <c r="M11">
-        <v>1.00066828750752</v>
+        <v>1.000702608006504</v>
       </c>
       <c r="N11">
-        <v>0.9977694649724077</v>
+        <v>0.9976602963011122</v>
       </c>
       <c r="O11">
-        <v>0.9991499296551178</v>
+        <v>0.9991335679081631</v>
       </c>
       <c r="P11">
-        <v>1.001258763322009</v>
+        <v>1.001312799579054</v>
       </c>
       <c r="Q11">
-        <v>0.9999365276918102</v>
+        <v>0.9999421585872408</v>
       </c>
       <c r="R11">
-        <v>1.000095663872142</v>
+        <v>1.000095298486407</v>
       </c>
       <c r="S11">
-        <v>1.001080217457507</v>
+        <v>1.001125449474809</v>
       </c>
       <c r="T11">
-        <v>1.000095663872142</v>
+        <v>1.000095298486407</v>
       </c>
       <c r="U11">
-        <v>1.000252529336232</v>
+        <v>1.000259161181384</v>
       </c>
       <c r="V11">
-        <v>0.9997559164634675</v>
+        <v>0.99973938820533</v>
       </c>
       <c r="W11">
-        <v>1.000222298189604</v>
+        <v>1.000229843954179</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1292,67 +1349,67 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.008658063000248</v>
+        <v>0.9995360633065306</v>
       </c>
       <c r="D12">
-        <v>0.9776599495876245</v>
+        <v>1.001201581990818</v>
       </c>
       <c r="E12">
-        <v>1.023129671862989</v>
+        <v>0.9987616717265024</v>
       </c>
       <c r="F12">
-        <v>1.023129671862989</v>
+        <v>0.9987616717265024</v>
       </c>
       <c r="G12">
-        <v>0.992616790466759</v>
+        <v>1.000397102974574</v>
       </c>
       <c r="H12">
-        <v>1.012725007352464</v>
+        <v>0.9993148485047796</v>
       </c>
       <c r="I12">
-        <v>1.008440267632869</v>
+        <v>0.999542220865276</v>
       </c>
       <c r="J12">
-        <v>0.9656788526781157</v>
+        <v>1.001846948761014</v>
       </c>
       <c r="K12">
-        <v>1.023129671862989</v>
+        <v>0.9987616717265024</v>
       </c>
       <c r="L12">
-        <v>0.9656788526781157</v>
+        <v>1.001846948761014</v>
       </c>
       <c r="M12">
-        <v>0.993046158078209</v>
+        <v>1.000371917196877</v>
       </c>
       <c r="N12">
-        <v>1.023129671862989</v>
+        <v>0.9987616717265024</v>
       </c>
       <c r="O12">
-        <v>1.008440267632869</v>
+        <v>0.999542220865276</v>
       </c>
       <c r="P12">
-        <v>0.9870595601554923</v>
+        <v>1.000694584813145</v>
       </c>
       <c r="Q12">
-        <v>1.000528529049814</v>
+        <v>0.9999696619199249</v>
       </c>
       <c r="R12">
-        <v>0.9990829307246578</v>
+        <v>1.000050280450931</v>
       </c>
       <c r="S12">
-        <v>0.9889119702592479</v>
+        <v>1.000595424200288</v>
       </c>
       <c r="T12">
-        <v>0.9990829307246578</v>
+        <v>1.000050280450931</v>
       </c>
       <c r="U12">
-        <v>0.9974663956601831</v>
+        <v>1.000136986081841</v>
       </c>
       <c r="V12">
-        <v>1.002599050900744</v>
+        <v>0.9998619232107735</v>
       </c>
       <c r="W12">
-        <v>0.9977443450824096</v>
+        <v>1.000121544415796</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -1363,67 +1420,67 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>1.002206115577125</v>
+        <v>0.9983768575864231</v>
       </c>
       <c r="D13">
-        <v>0.9941891788109908</v>
+        <v>1.004204264559392</v>
       </c>
       <c r="E13">
-        <v>1.005865936989239</v>
+        <v>0.9956676147360849</v>
       </c>
       <c r="F13">
-        <v>1.005865936989239</v>
+        <v>0.9956676147360849</v>
       </c>
       <c r="G13">
-        <v>0.9980798403250863</v>
+        <v>1.001389432775857</v>
       </c>
       <c r="H13">
-        <v>1.00332901908819</v>
+        <v>0.9976026256618411</v>
       </c>
       <c r="I13">
-        <v>1.002295542145029</v>
+        <v>0.998397945563812</v>
       </c>
       <c r="J13">
-        <v>0.991047796534645</v>
+        <v>1.006462446128444</v>
       </c>
       <c r="K13">
-        <v>1.005865936989239</v>
+        <v>0.9956676147360849</v>
       </c>
       <c r="L13">
-        <v>0.991047796534645</v>
+        <v>1.006462446128444</v>
       </c>
       <c r="M13">
-        <v>0.9982463486991924</v>
+        <v>1.001301158029084</v>
       </c>
       <c r="N13">
-        <v>1.005865936989239</v>
+        <v>0.9956676147360849</v>
       </c>
       <c r="O13">
-        <v>1.002295542145029</v>
+        <v>0.998397945563812</v>
       </c>
       <c r="P13">
-        <v>0.9966716693398372</v>
+        <v>1.002430195846128</v>
       </c>
       <c r="Q13">
-        <v>1.000187691235058</v>
+        <v>0.9998936891698347</v>
       </c>
       <c r="R13">
-        <v>0.999736425222971</v>
+        <v>1.00017600214278</v>
       </c>
       <c r="S13">
-        <v>0.9971410596682535</v>
+        <v>1.002083274822704</v>
       </c>
       <c r="T13">
-        <v>0.999736425222971</v>
+        <v>1.00017600214278</v>
       </c>
       <c r="U13">
-        <v>0.9993222789984999</v>
+        <v>1.00047935980105</v>
       </c>
       <c r="V13">
-        <v>1.000631010596648</v>
+        <v>0.9995170107880567</v>
       </c>
       <c r="W13">
-        <v>0.9994074722711871</v>
+        <v>1.000425293130117</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -1434,67 +1491,67 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>1.003512512846241</v>
+        <v>0.9978710151474801</v>
       </c>
       <c r="D14">
-        <v>0.99039808277526</v>
+        <v>1.005516504941226</v>
       </c>
       <c r="E14">
-        <v>1.009257961053271</v>
+        <v>0.9943179041267111</v>
       </c>
       <c r="F14">
-        <v>1.009257961053271</v>
+        <v>0.9943179041267111</v>
       </c>
       <c r="G14">
-        <v>0.9968278730740847</v>
+        <v>1.001823108272077</v>
       </c>
       <c r="H14">
-        <v>1.00555634199889</v>
+        <v>0.9968540329144774</v>
       </c>
       <c r="I14">
-        <v>1.004083142202896</v>
+        <v>0.9978962302118058</v>
       </c>
       <c r="J14">
-        <v>0.9851348086546712</v>
+        <v>1.008479918221101</v>
       </c>
       <c r="K14">
-        <v>1.009257961053271</v>
+        <v>0.9943179041267111</v>
       </c>
       <c r="L14">
-        <v>0.9851348086546712</v>
+        <v>1.008479918221101</v>
       </c>
       <c r="M14">
-        <v>0.9972617311560219</v>
+        <v>1.001706360140454</v>
       </c>
       <c r="N14">
-        <v>1.009257961053271</v>
+        <v>0.9943179041267111</v>
       </c>
       <c r="O14">
-        <v>1.004083142202896</v>
+        <v>0.9978962302118058</v>
       </c>
       <c r="P14">
-        <v>0.9946089754287837</v>
+        <v>1.003188074216453</v>
       </c>
       <c r="Q14">
-        <v>1.00045550763849</v>
+        <v>0.9998596692419413</v>
       </c>
       <c r="R14">
-        <v>0.9994919706369462</v>
+        <v>1.000231350853206</v>
       </c>
       <c r="S14">
-        <v>0.9953486079772174</v>
+        <v>1.002733085568328</v>
       </c>
       <c r="T14">
-        <v>0.9994919706369462</v>
+        <v>1.000231350853206</v>
       </c>
       <c r="U14">
-        <v>0.9988259462462308</v>
+        <v>1.000629290207924</v>
       </c>
       <c r="V14">
-        <v>1.000912349207639</v>
+        <v>0.9993670129916812</v>
       </c>
       <c r="W14">
-        <v>0.9990040567201671</v>
+        <v>1.000558134246917</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -1505,67 +1562,67 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>1.0009942597083</v>
+        <v>0.9992379967779946</v>
       </c>
       <c r="D15">
-        <v>0.997610378315901</v>
+        <v>1.001974158938575</v>
       </c>
       <c r="E15">
-        <v>1.002697115514953</v>
+        <v>0.997966211717362</v>
       </c>
       <c r="F15">
-        <v>1.002697115514953</v>
+        <v>0.997966211717362</v>
       </c>
       <c r="G15">
-        <v>0.9992098461689657</v>
+        <v>1.000652425766276</v>
       </c>
       <c r="H15">
-        <v>1.001332731236358</v>
+        <v>0.9988742210910363</v>
       </c>
       <c r="I15">
-        <v>1.000754173015497</v>
+        <v>0.9992473853321913</v>
       </c>
       <c r="J15">
-        <v>0.9963659284845211</v>
+        <v>1.00303459963446</v>
       </c>
       <c r="K15">
-        <v>1.002697115514953</v>
+        <v>0.997966211717362</v>
       </c>
       <c r="L15">
-        <v>0.9963659284845211</v>
+        <v>1.00303459963446</v>
       </c>
       <c r="M15">
-        <v>0.9991744050892001</v>
+        <v>1.000610776919891</v>
       </c>
       <c r="N15">
-        <v>1.002697115514953</v>
+        <v>0.997966211717362</v>
       </c>
       <c r="O15">
-        <v>1.000754173015497</v>
+        <v>0.9992473853321913</v>
       </c>
       <c r="P15">
-        <v>0.998560050750009</v>
+        <v>1.001140992483326</v>
       </c>
       <c r="Q15">
-        <v>0.9999820095922312</v>
+        <v>0.9999499055492336</v>
       </c>
       <c r="R15">
-        <v>0.9999390723383237</v>
+        <v>1.000082732228004</v>
       </c>
       <c r="S15">
-        <v>0.9987766492229945</v>
+        <v>1.000978136910976</v>
       </c>
       <c r="T15">
-        <v>0.9999390723383237</v>
+        <v>1.000082732228005</v>
       </c>
       <c r="U15">
-        <v>0.9997567657959842</v>
+        <v>1.000225155612573</v>
       </c>
       <c r="V15">
-        <v>1.000344835739778</v>
+        <v>0.9997733668335304</v>
       </c>
       <c r="W15">
-        <v>0.9997673546917121</v>
+        <v>1.000199722022223</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -1576,67 +1633,67 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.9851398444302544</v>
+        <v>0.9985289825605073</v>
       </c>
       <c r="D16">
-        <v>1.03851730482983</v>
+        <v>1.003811103022706</v>
       </c>
       <c r="E16">
-        <v>0.9603423147990229</v>
+        <v>0.9960738592919095</v>
       </c>
       <c r="F16">
-        <v>0.9603423147990229</v>
+        <v>0.9960738592919095</v>
       </c>
       <c r="G16">
-        <v>1.01272926495976</v>
+        <v>1.001259503391195</v>
       </c>
       <c r="H16">
-        <v>0.9780321928283118</v>
+        <v>0.9978266757183147</v>
       </c>
       <c r="I16">
-        <v>0.9853004925263786</v>
+        <v>0.9985470258190545</v>
       </c>
       <c r="J16">
-        <v>1.059211141857921</v>
+        <v>1.00585829313776</v>
       </c>
       <c r="K16">
-        <v>0.9603423147990229</v>
+        <v>0.9960738592919095</v>
       </c>
       <c r="L16">
-        <v>1.059211141857921</v>
+        <v>1.00585829313776</v>
       </c>
       <c r="M16">
-        <v>1.011908308444843</v>
+        <v>1.001179075508591</v>
       </c>
       <c r="N16">
-        <v>0.9603423147990229</v>
+        <v>0.9960738592919095</v>
       </c>
       <c r="O16">
-        <v>0.9853004925263786</v>
+        <v>0.9985470258190545</v>
       </c>
       <c r="P16">
-        <v>1.02225581719215</v>
+        <v>1.002202659478407</v>
       </c>
       <c r="Q16">
-        <v>0.9990148787430694</v>
+        <v>0.9999032646051249</v>
       </c>
       <c r="R16">
-        <v>1.001617983061108</v>
+        <v>1.000159726082908</v>
       </c>
       <c r="S16">
-        <v>1.019080299781353</v>
+        <v>1.001888274116003</v>
       </c>
       <c r="T16">
-        <v>1.001617983061108</v>
+        <v>1.000159726082908</v>
       </c>
       <c r="U16">
-        <v>1.004395803535771</v>
+        <v>1.00043467040998</v>
       </c>
       <c r="V16">
-        <v>0.9955851057884212</v>
+        <v>0.9995625081863657</v>
       </c>
       <c r="W16">
-        <v>1.00389760808454</v>
+        <v>1.000385564806255</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1647,67 +1704,67 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.9878431391820179</v>
+        <v>0.9971813481762857</v>
       </c>
       <c r="D17">
-        <v>1.031551057107353</v>
+        <v>1.007303800168198</v>
       </c>
       <c r="E17">
-        <v>0.9675661425075506</v>
+        <v>0.9924773061108922</v>
       </c>
       <c r="F17">
-        <v>0.9675661425075506</v>
+        <v>0.9924773061108922</v>
       </c>
       <c r="G17">
-        <v>1.010426954710481</v>
+        <v>1.002413774801749</v>
       </c>
       <c r="H17">
-        <v>0.9819987579953959</v>
+        <v>0.9958347184110204</v>
       </c>
       <c r="I17">
-        <v>0.9879248365056952</v>
+        <v>0.9972143877006703</v>
       </c>
       <c r="J17">
-        <v>1.048510743968409</v>
+        <v>1.011227412354476</v>
       </c>
       <c r="K17">
-        <v>0.9675661425075506</v>
+        <v>0.9924773061108922</v>
       </c>
       <c r="L17">
-        <v>1.048510743968409</v>
+        <v>1.011227412354476</v>
       </c>
       <c r="M17">
-        <v>1.009735750001818</v>
+        <v>1.002259070501342</v>
       </c>
       <c r="N17">
-        <v>0.9675661425075506</v>
+        <v>0.9924773061108922</v>
       </c>
       <c r="O17">
-        <v>0.9879248365056952</v>
+        <v>0.9972143877006703</v>
       </c>
       <c r="P17">
-        <v>1.018217790237052</v>
+        <v>1.004220900027573</v>
       </c>
       <c r="Q17">
-        <v>0.9991758956080883</v>
+        <v>0.9998140812512094</v>
       </c>
       <c r="R17">
-        <v>1.001333907660552</v>
+        <v>1.000306368722013</v>
       </c>
       <c r="S17">
-        <v>1.015620845061528</v>
+        <v>1.003618524952298</v>
       </c>
       <c r="T17">
-        <v>1.001333907660552</v>
+        <v>1.000306368722013</v>
       </c>
       <c r="U17">
-        <v>1.003607169423034</v>
+        <v>1.000833220241947</v>
       </c>
       <c r="V17">
-        <v>0.9963989640399372</v>
+        <v>0.9991620374157358</v>
       </c>
       <c r="W17">
-        <v>1.00319467274734</v>
+        <v>1.000738977278079</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1718,67 +1775,67 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.9932617070093639</v>
+        <v>0.9958661300284649</v>
       </c>
       <c r="D18">
-        <v>1.017586520595366</v>
+        <v>1.010712512833168</v>
       </c>
       <c r="E18">
-        <v>0.9820455392912335</v>
+        <v>0.9889672931603133</v>
       </c>
       <c r="F18">
-        <v>0.9820455392912335</v>
+        <v>0.9889672931603133</v>
       </c>
       <c r="G18">
-        <v>1.005811746672261</v>
+        <v>1.003540291746927</v>
       </c>
       <c r="H18">
-        <v>0.989950322632615</v>
+        <v>0.9938906578981959</v>
       </c>
       <c r="I18">
-        <v>0.9931865824112508</v>
+        <v>0.9959137608553623</v>
       </c>
       <c r="J18">
-        <v>1.027060488674374</v>
+        <v>1.016467418837953</v>
       </c>
       <c r="K18">
-        <v>0.9820455392912335</v>
+        <v>0.9889672931603133</v>
       </c>
       <c r="L18">
-        <v>1.027060488674374</v>
+        <v>1.016467418837953</v>
       </c>
       <c r="M18">
-        <v>1.00538118447501</v>
+        <v>1.003313073073102</v>
       </c>
       <c r="N18">
-        <v>0.9820455392912335</v>
+        <v>0.9889672931603133</v>
       </c>
       <c r="O18">
-        <v>0.9931865824112508</v>
+        <v>0.9959137608553623</v>
       </c>
       <c r="P18">
-        <v>1.010123535542812</v>
+        <v>1.006190589846658</v>
       </c>
       <c r="Q18">
-        <v>0.9994991645417561</v>
+        <v>0.9997270263011446</v>
       </c>
       <c r="R18">
-        <v>1.000764203458953</v>
+        <v>1.000449490951209</v>
       </c>
       <c r="S18">
-        <v>1.008686272585962</v>
+        <v>1.005307157146747</v>
       </c>
       <c r="T18">
-        <v>1.000764203458953</v>
+        <v>1.000449490951209</v>
       </c>
       <c r="U18">
-        <v>1.00202608926228</v>
+        <v>1.001222191150139</v>
       </c>
       <c r="V18">
-        <v>0.9980299792680707</v>
+        <v>0.9987712115521739</v>
       </c>
       <c r="W18">
-        <v>1.001785511470184</v>
+        <v>1.001083892304186</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1789,67 +1846,67 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.9926397417047704</v>
+        <v>0.999941679871321</v>
       </c>
       <c r="D19">
-        <v>1.019225456580995</v>
+        <v>1.000152423442629</v>
       </c>
       <c r="E19">
-        <v>0.9803919241329497</v>
+        <v>0.9998446626474541</v>
       </c>
       <c r="F19">
-        <v>0.9803919241329497</v>
+        <v>0.9998446626474541</v>
       </c>
       <c r="G19">
-        <v>1.006353330211851</v>
+        <v>1.000050370232257</v>
       </c>
       <c r="H19">
-        <v>0.9890112644708193</v>
+        <v>0.9999128687601375</v>
       </c>
       <c r="I19">
-        <v>0.9925385514917994</v>
+        <v>0.999940769174183</v>
       </c>
       <c r="J19">
-        <v>1.029585592193007</v>
+        <v>1.00023457939932</v>
       </c>
       <c r="K19">
-        <v>0.9803919241329497</v>
+        <v>0.9998446626474541</v>
       </c>
       <c r="L19">
-        <v>1.029585592193007</v>
+        <v>1.00023457939932</v>
       </c>
       <c r="M19">
-        <v>1.005875484839764</v>
+        <v>1.000046535700021</v>
       </c>
       <c r="N19">
-        <v>0.9803919241329497</v>
+        <v>0.9998446626474541</v>
       </c>
       <c r="O19">
-        <v>0.9925385514917994</v>
+        <v>0.999940769174183</v>
       </c>
       <c r="P19">
-        <v>1.011062071842403</v>
+        <v>1.000087674286751</v>
       </c>
       <c r="Q19">
-        <v>0.999445940851825</v>
+        <v>0.9999955697032201</v>
       </c>
       <c r="R19">
-        <v>1.000838689272586</v>
+        <v>1.000006670406986</v>
       </c>
       <c r="S19">
-        <v>1.009492491298886</v>
+        <v>1.00007523960192</v>
       </c>
       <c r="T19">
-        <v>1.000838689272586</v>
+        <v>1.000006670406986</v>
       </c>
       <c r="U19">
-        <v>1.002217349507402</v>
+        <v>1.000017595363304</v>
       </c>
       <c r="V19">
-        <v>0.9978522644325114</v>
+        <v>0.9999830088201337</v>
       </c>
       <c r="W19">
-        <v>1.001952668203244</v>
+        <v>1.000015486153415</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -1860,67 +1917,67 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>0.9999970622579328</v>
+        <v>0.9998403779144506</v>
       </c>
       <c r="D20">
-        <v>1.000008323260156</v>
+        <v>1.00041710852302</v>
       </c>
       <c r="E20">
-        <v>0.9999923350855698</v>
+        <v>0.9995748074702432</v>
       </c>
       <c r="F20">
-        <v>0.9999923350855698</v>
+        <v>0.9995748074702432</v>
       </c>
       <c r="G20">
-        <v>1.00000274911158</v>
+        <v>1.000137838827561</v>
       </c>
       <c r="H20">
-        <v>0.9999951427684768</v>
+        <v>0.9997615696652529</v>
       </c>
       <c r="I20">
-        <v>0.9999962252800662</v>
+        <v>0.9998379790575023</v>
       </c>
       <c r="J20">
-        <v>1.000012944473179</v>
+        <v>1.000641913111906</v>
       </c>
       <c r="K20">
-        <v>0.9999923350855698</v>
+        <v>0.9995748074702432</v>
       </c>
       <c r="L20">
-        <v>1.000012944473179</v>
+        <v>1.000641913111906</v>
       </c>
       <c r="M20">
-        <v>1.00000223904552</v>
+        <v>1.00012739038042</v>
       </c>
       <c r="N20">
-        <v>0.9999923350855698</v>
+        <v>0.9995748074702432</v>
       </c>
       <c r="O20">
-        <v>0.9999962252800662</v>
+        <v>0.9998379790575023</v>
       </c>
       <c r="P20">
-        <v>1.000004584876623</v>
+        <v>1.000239946084704</v>
       </c>
       <c r="Q20">
-        <v>0.9999994871958233</v>
+        <v>0.9999879089425314</v>
       </c>
       <c r="R20">
-        <v>1.000000501612938</v>
+        <v>1.000018233213217</v>
       </c>
       <c r="S20">
-        <v>1.000003972954942</v>
+        <v>1.000205910332323</v>
       </c>
       <c r="T20">
-        <v>1.000000501612938</v>
+        <v>1.000018233213217</v>
       </c>
       <c r="U20">
-        <v>1.000001063487599</v>
+        <v>1.000048134616803</v>
       </c>
       <c r="V20">
-        <v>0.9999993178071931</v>
+        <v>0.9999534691874912</v>
       </c>
       <c r="W20">
-        <v>1.00000087766031</v>
+        <v>1.000042373118795</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -1931,67 +1988,67 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>0.9999336028516159</v>
+        <v>0.9997686316078427</v>
       </c>
       <c r="D21">
-        <v>1.000172840622855</v>
+        <v>1.000604574171294</v>
       </c>
       <c r="E21">
-        <v>0.9998229867315456</v>
+        <v>0.9993836868234174</v>
       </c>
       <c r="F21">
-        <v>0.9998229867315456</v>
+        <v>0.9993836868234174</v>
       </c>
       <c r="G21">
-        <v>1.00005711935886</v>
+        <v>1.000199789651228</v>
       </c>
       <c r="H21">
-        <v>0.999901307204188</v>
+        <v>0.9996544096891047</v>
       </c>
       <c r="I21">
-        <v>0.9999334128615736</v>
+        <v>0.9997651724452485</v>
       </c>
       <c r="J21">
-        <v>1.000265857808287</v>
+        <v>1.000930411754366</v>
       </c>
       <c r="K21">
-        <v>0.9998229867315456</v>
+        <v>0.9993836868234174</v>
       </c>
       <c r="L21">
-        <v>1.000265857808287</v>
+        <v>1.000930411754366</v>
       </c>
       <c r="M21">
-        <v>1.000053087618617</v>
+        <v>1.00018465373781</v>
       </c>
       <c r="N21">
-        <v>0.9998229867315456</v>
+        <v>0.9993836868234174</v>
       </c>
       <c r="O21">
-        <v>0.9999334128615736</v>
+        <v>0.9997651724452485</v>
       </c>
       <c r="P21">
-        <v>1.000099635334931</v>
+        <v>1.000347792099808</v>
       </c>
       <c r="Q21">
-        <v>0.9999952661102169</v>
+        <v>0.9999824810482384</v>
       </c>
       <c r="R21">
-        <v>1.000007419133802</v>
+        <v>1.000026423674344</v>
       </c>
       <c r="S21">
-        <v>1.000085463342907</v>
+        <v>1.000298457950281</v>
       </c>
       <c r="T21">
-        <v>1.000007419133802</v>
+        <v>1.000026423674344</v>
       </c>
       <c r="U21">
-        <v>1.000019844190067</v>
+        <v>1.000069765168565</v>
       </c>
       <c r="V21">
-        <v>0.9999804726983624</v>
+        <v>0.9999325494995356</v>
       </c>
       <c r="W21">
-        <v>1.000017526882193</v>
+        <v>1.000061416235039</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -2002,67 +2059,67 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>0.9997656193592607</v>
+        <v>0.9995087933871268</v>
       </c>
       <c r="D22">
-        <v>1.000608014961426</v>
+        <v>1.001283454917904</v>
       </c>
       <c r="E22">
-        <v>0.9993746258783137</v>
+        <v>0.998691503835595</v>
       </c>
       <c r="F22">
-        <v>0.9993746258783137</v>
+        <v>0.998691503835595</v>
       </c>
       <c r="G22">
-        <v>1.000200937088134</v>
+        <v>1.000424134506672</v>
       </c>
       <c r="H22">
-        <v>0.9996531494141123</v>
+        <v>0.9992663530223266</v>
       </c>
       <c r="I22">
-        <v>0.9997675354745221</v>
+        <v>0.9995015561672</v>
       </c>
       <c r="J22">
-        <v>1.000934785028049</v>
+        <v>1.001975161694816</v>
       </c>
       <c r="K22">
-        <v>0.9993746258783137</v>
+        <v>0.998691503835595</v>
       </c>
       <c r="L22">
-        <v>1.000934785028049</v>
+        <v>1.001975161694816</v>
       </c>
       <c r="M22">
-        <v>1.000187739851162</v>
+        <v>1.000392048898538</v>
       </c>
       <c r="N22">
-        <v>0.9993746258783137</v>
+        <v>0.998691503835595</v>
       </c>
       <c r="O22">
-        <v>0.9997675354745221</v>
+        <v>0.9995015561672</v>
       </c>
       <c r="P22">
-        <v>1.000351160251286</v>
+        <v>1.000738358931008</v>
       </c>
       <c r="Q22">
-        <v>0.9999842362813279</v>
+        <v>0.999962845336936</v>
       </c>
       <c r="R22">
-        <v>1.000025648793628</v>
+        <v>1.000056073899204</v>
       </c>
       <c r="S22">
-        <v>1.000301085863568</v>
+        <v>1.000633617456229</v>
       </c>
       <c r="T22">
-        <v>1.000025648793629</v>
+        <v>1.000056073899204</v>
       </c>
       <c r="U22">
-        <v>1.000069470867255</v>
+        <v>1.000148089051071</v>
       </c>
       <c r="V22">
-        <v>0.9999305018694666</v>
+        <v>0.9998567720079755</v>
       </c>
       <c r="W22">
-        <v>1.000061550881873</v>
+        <v>1.000130375803772</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -2073,67 +2130,1416 @@
         <v>21</v>
       </c>
       <c r="C23">
+        <v>0.9991626369816176</v>
+      </c>
+      <c r="D23">
+        <v>1.00218821658437</v>
+      </c>
+      <c r="E23">
+        <v>0.9977694649724077</v>
+      </c>
+      <c r="F23">
+        <v>0.9977694649724077</v>
+      </c>
+      <c r="G23">
+        <v>1.000723125728503</v>
+      </c>
+      <c r="H23">
+        <v>0.9987491270983949</v>
+      </c>
+      <c r="I23">
+        <v>0.9991499296551178</v>
+      </c>
+      <c r="J23">
+        <v>1.003367596988901</v>
+      </c>
+      <c r="K23">
+        <v>0.9977694649724077</v>
+      </c>
+      <c r="L23">
+        <v>1.003367596988901</v>
+      </c>
+      <c r="M23">
+        <v>1.00066828750752</v>
+      </c>
+      <c r="N23">
+        <v>0.9977694649724077</v>
+      </c>
+      <c r="O23">
+        <v>0.9991499296551178</v>
+      </c>
+      <c r="P23">
+        <v>1.001258763322009</v>
+      </c>
+      <c r="Q23">
+        <v>0.9999365276918102</v>
+      </c>
+      <c r="R23">
+        <v>1.000095663872142</v>
+      </c>
+      <c r="S23">
+        <v>1.001080217457507</v>
+      </c>
+      <c r="T23">
+        <v>1.000095663872142</v>
+      </c>
+      <c r="U23">
+        <v>1.000252529336232</v>
+      </c>
+      <c r="V23">
+        <v>0.9997559164634675</v>
+      </c>
+      <c r="W23">
+        <v>1.000222298189604</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>1.008658063000248</v>
+      </c>
+      <c r="D24">
+        <v>0.9776599495876245</v>
+      </c>
+      <c r="E24">
+        <v>1.023129671862989</v>
+      </c>
+      <c r="F24">
+        <v>1.023129671862989</v>
+      </c>
+      <c r="G24">
+        <v>0.992616790466759</v>
+      </c>
+      <c r="H24">
+        <v>1.012725007352464</v>
+      </c>
+      <c r="I24">
+        <v>1.008440267632869</v>
+      </c>
+      <c r="J24">
+        <v>0.9656788526781157</v>
+      </c>
+      <c r="K24">
+        <v>1.023129671862989</v>
+      </c>
+      <c r="L24">
+        <v>0.9656788526781157</v>
+      </c>
+      <c r="M24">
+        <v>0.993046158078209</v>
+      </c>
+      <c r="N24">
+        <v>1.023129671862989</v>
+      </c>
+      <c r="O24">
+        <v>1.008440267632869</v>
+      </c>
+      <c r="P24">
+        <v>0.9870595601554923</v>
+      </c>
+      <c r="Q24">
+        <v>1.000528529049814</v>
+      </c>
+      <c r="R24">
+        <v>0.9990829307246578</v>
+      </c>
+      <c r="S24">
+        <v>0.9889119702592479</v>
+      </c>
+      <c r="T24">
+        <v>0.9990829307246578</v>
+      </c>
+      <c r="U24">
+        <v>0.9974663956601831</v>
+      </c>
+      <c r="V24">
+        <v>1.002599050900744</v>
+      </c>
+      <c r="W24">
+        <v>0.9977443450824096</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>1.002206115577125</v>
+      </c>
+      <c r="D25">
+        <v>0.9941891788109908</v>
+      </c>
+      <c r="E25">
+        <v>1.005865936989239</v>
+      </c>
+      <c r="F25">
+        <v>1.005865936989239</v>
+      </c>
+      <c r="G25">
+        <v>0.9980798403250863</v>
+      </c>
+      <c r="H25">
+        <v>1.00332901908819</v>
+      </c>
+      <c r="I25">
+        <v>1.002295542145029</v>
+      </c>
+      <c r="J25">
+        <v>0.991047796534645</v>
+      </c>
+      <c r="K25">
+        <v>1.005865936989239</v>
+      </c>
+      <c r="L25">
+        <v>0.991047796534645</v>
+      </c>
+      <c r="M25">
+        <v>0.9982463486991924</v>
+      </c>
+      <c r="N25">
+        <v>1.005865936989239</v>
+      </c>
+      <c r="O25">
+        <v>1.002295542145029</v>
+      </c>
+      <c r="P25">
+        <v>0.9966716693398372</v>
+      </c>
+      <c r="Q25">
+        <v>1.000187691235058</v>
+      </c>
+      <c r="R25">
+        <v>0.999736425222971</v>
+      </c>
+      <c r="S25">
+        <v>0.9971410596682535</v>
+      </c>
+      <c r="T25">
+        <v>0.999736425222971</v>
+      </c>
+      <c r="U25">
+        <v>0.9993222789984999</v>
+      </c>
+      <c r="V25">
+        <v>1.000631010596648</v>
+      </c>
+      <c r="W25">
+        <v>0.9994074722711871</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>1.003512512846241</v>
+      </c>
+      <c r="D26">
+        <v>0.99039808277526</v>
+      </c>
+      <c r="E26">
+        <v>1.009257961053271</v>
+      </c>
+      <c r="F26">
+        <v>1.009257961053271</v>
+      </c>
+      <c r="G26">
+        <v>0.9968278730740847</v>
+      </c>
+      <c r="H26">
+        <v>1.00555634199889</v>
+      </c>
+      <c r="I26">
+        <v>1.004083142202896</v>
+      </c>
+      <c r="J26">
+        <v>0.9851348086546712</v>
+      </c>
+      <c r="K26">
+        <v>1.009257961053271</v>
+      </c>
+      <c r="L26">
+        <v>0.9851348086546712</v>
+      </c>
+      <c r="M26">
+        <v>0.9972617311560219</v>
+      </c>
+      <c r="N26">
+        <v>1.009257961053271</v>
+      </c>
+      <c r="O26">
+        <v>1.004083142202896</v>
+      </c>
+      <c r="P26">
+        <v>0.9946089754287837</v>
+      </c>
+      <c r="Q26">
+        <v>1.00045550763849</v>
+      </c>
+      <c r="R26">
+        <v>0.9994919706369462</v>
+      </c>
+      <c r="S26">
+        <v>0.9953486079772174</v>
+      </c>
+      <c r="T26">
+        <v>0.9994919706369462</v>
+      </c>
+      <c r="U26">
+        <v>0.9988259462462308</v>
+      </c>
+      <c r="V26">
+        <v>1.000912349207639</v>
+      </c>
+      <c r="W26">
+        <v>0.9990040567201671</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>1.0009942597083</v>
+      </c>
+      <c r="D27">
+        <v>0.997610378315901</v>
+      </c>
+      <c r="E27">
+        <v>1.002697115514953</v>
+      </c>
+      <c r="F27">
+        <v>1.002697115514953</v>
+      </c>
+      <c r="G27">
+        <v>0.9992098461689657</v>
+      </c>
+      <c r="H27">
+        <v>1.001332731236358</v>
+      </c>
+      <c r="I27">
+        <v>1.000754173015497</v>
+      </c>
+      <c r="J27">
+        <v>0.9963659284845211</v>
+      </c>
+      <c r="K27">
+        <v>1.002697115514953</v>
+      </c>
+      <c r="L27">
+        <v>0.9963659284845211</v>
+      </c>
+      <c r="M27">
+        <v>0.9991744050892001</v>
+      </c>
+      <c r="N27">
+        <v>1.002697115514953</v>
+      </c>
+      <c r="O27">
+        <v>1.000754173015497</v>
+      </c>
+      <c r="P27">
+        <v>0.998560050750009</v>
+      </c>
+      <c r="Q27">
+        <v>0.9999820095922312</v>
+      </c>
+      <c r="R27">
+        <v>0.9999390723383237</v>
+      </c>
+      <c r="S27">
+        <v>0.9987766492229945</v>
+      </c>
+      <c r="T27">
+        <v>0.9999390723383237</v>
+      </c>
+      <c r="U27">
+        <v>0.9997567657959842</v>
+      </c>
+      <c r="V27">
+        <v>1.000344835739778</v>
+      </c>
+      <c r="W27">
+        <v>0.9997673546917121</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>0.9851398444302544</v>
+      </c>
+      <c r="D28">
+        <v>1.03851730482983</v>
+      </c>
+      <c r="E28">
+        <v>0.9603423147990229</v>
+      </c>
+      <c r="F28">
+        <v>0.9603423147990229</v>
+      </c>
+      <c r="G28">
+        <v>1.01272926495976</v>
+      </c>
+      <c r="H28">
+        <v>0.9780321928283118</v>
+      </c>
+      <c r="I28">
+        <v>0.9853004925263786</v>
+      </c>
+      <c r="J28">
+        <v>1.059211141857921</v>
+      </c>
+      <c r="K28">
+        <v>0.9603423147990229</v>
+      </c>
+      <c r="L28">
+        <v>1.059211141857921</v>
+      </c>
+      <c r="M28">
+        <v>1.011908308444843</v>
+      </c>
+      <c r="N28">
+        <v>0.9603423147990229</v>
+      </c>
+      <c r="O28">
+        <v>0.9853004925263786</v>
+      </c>
+      <c r="P28">
+        <v>1.02225581719215</v>
+      </c>
+      <c r="Q28">
+        <v>0.9990148787430694</v>
+      </c>
+      <c r="R28">
+        <v>1.001617983061108</v>
+      </c>
+      <c r="S28">
+        <v>1.019080299781353</v>
+      </c>
+      <c r="T28">
+        <v>1.001617983061108</v>
+      </c>
+      <c r="U28">
+        <v>1.004395803535771</v>
+      </c>
+      <c r="V28">
+        <v>0.9955851057884212</v>
+      </c>
+      <c r="W28">
+        <v>1.00389760808454</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>0.9878431391820179</v>
+      </c>
+      <c r="D29">
+        <v>1.031551057107353</v>
+      </c>
+      <c r="E29">
+        <v>0.9675661425075506</v>
+      </c>
+      <c r="F29">
+        <v>0.9675661425075506</v>
+      </c>
+      <c r="G29">
+        <v>1.010426954710481</v>
+      </c>
+      <c r="H29">
+        <v>0.9819987579953959</v>
+      </c>
+      <c r="I29">
+        <v>0.9879248365056952</v>
+      </c>
+      <c r="J29">
+        <v>1.048510743968409</v>
+      </c>
+      <c r="K29">
+        <v>0.9675661425075506</v>
+      </c>
+      <c r="L29">
+        <v>1.048510743968409</v>
+      </c>
+      <c r="M29">
+        <v>1.009735750001818</v>
+      </c>
+      <c r="N29">
+        <v>0.9675661425075506</v>
+      </c>
+      <c r="O29">
+        <v>0.9879248365056952</v>
+      </c>
+      <c r="P29">
+        <v>1.018217790237052</v>
+      </c>
+      <c r="Q29">
+        <v>0.9991758956080883</v>
+      </c>
+      <c r="R29">
+        <v>1.001333907660552</v>
+      </c>
+      <c r="S29">
+        <v>1.015620845061528</v>
+      </c>
+      <c r="T29">
+        <v>1.001333907660552</v>
+      </c>
+      <c r="U29">
+        <v>1.003607169423034</v>
+      </c>
+      <c r="V29">
+        <v>0.9963989640399372</v>
+      </c>
+      <c r="W29">
+        <v>1.00319467274734</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>0.9932617070093639</v>
+      </c>
+      <c r="D30">
+        <v>1.017586520595366</v>
+      </c>
+      <c r="E30">
+        <v>0.9820455392912335</v>
+      </c>
+      <c r="F30">
+        <v>0.9820455392912335</v>
+      </c>
+      <c r="G30">
+        <v>1.005811746672261</v>
+      </c>
+      <c r="H30">
+        <v>0.989950322632615</v>
+      </c>
+      <c r="I30">
+        <v>0.9931865824112508</v>
+      </c>
+      <c r="J30">
+        <v>1.027060488674374</v>
+      </c>
+      <c r="K30">
+        <v>0.9820455392912335</v>
+      </c>
+      <c r="L30">
+        <v>1.027060488674374</v>
+      </c>
+      <c r="M30">
+        <v>1.00538118447501</v>
+      </c>
+      <c r="N30">
+        <v>0.9820455392912335</v>
+      </c>
+      <c r="O30">
+        <v>0.9931865824112508</v>
+      </c>
+      <c r="P30">
+        <v>1.010123535542812</v>
+      </c>
+      <c r="Q30">
+        <v>0.9994991645417561</v>
+      </c>
+      <c r="R30">
+        <v>1.000764203458953</v>
+      </c>
+      <c r="S30">
+        <v>1.008686272585962</v>
+      </c>
+      <c r="T30">
+        <v>1.000764203458953</v>
+      </c>
+      <c r="U30">
+        <v>1.00202608926228</v>
+      </c>
+      <c r="V30">
+        <v>0.9980299792680707</v>
+      </c>
+      <c r="W30">
+        <v>1.001785511470184</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
+        <v>0.9926397417047704</v>
+      </c>
+      <c r="D31">
+        <v>1.019225456580995</v>
+      </c>
+      <c r="E31">
+        <v>0.9803919241329497</v>
+      </c>
+      <c r="F31">
+        <v>0.9803919241329497</v>
+      </c>
+      <c r="G31">
+        <v>1.006353330211851</v>
+      </c>
+      <c r="H31">
+        <v>0.9890112644708193</v>
+      </c>
+      <c r="I31">
+        <v>0.9925385514917994</v>
+      </c>
+      <c r="J31">
+        <v>1.029585592193007</v>
+      </c>
+      <c r="K31">
+        <v>0.9803919241329497</v>
+      </c>
+      <c r="L31">
+        <v>1.029585592193007</v>
+      </c>
+      <c r="M31">
+        <v>1.005875484839764</v>
+      </c>
+      <c r="N31">
+        <v>0.9803919241329497</v>
+      </c>
+      <c r="O31">
+        <v>0.9925385514917994</v>
+      </c>
+      <c r="P31">
+        <v>1.011062071842403</v>
+      </c>
+      <c r="Q31">
+        <v>0.999445940851825</v>
+      </c>
+      <c r="R31">
+        <v>1.000838689272586</v>
+      </c>
+      <c r="S31">
+        <v>1.009492491298886</v>
+      </c>
+      <c r="T31">
+        <v>1.000838689272586</v>
+      </c>
+      <c r="U31">
+        <v>1.002217349507402</v>
+      </c>
+      <c r="V31">
+        <v>0.9978522644325114</v>
+      </c>
+      <c r="W31">
+        <v>1.001952668203244</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32">
+        <v>0.9820108742465754</v>
+      </c>
+      <c r="D32">
+        <v>1.04660238520548</v>
+      </c>
+      <c r="E32">
+        <v>0.9519860846575346</v>
+      </c>
+      <c r="F32">
+        <v>0.9519860846575346</v>
+      </c>
+      <c r="G32">
+        <v>1.015401294246576</v>
+      </c>
+      <c r="H32">
+        <v>0.973425026164384</v>
+      </c>
+      <c r="I32">
+        <v>0.9822361298630139</v>
+      </c>
+      <c r="J32">
+        <v>1.071634731232877</v>
+      </c>
+      <c r="K32">
+        <v>0.9519860846575346</v>
+      </c>
+      <c r="L32">
+        <v>1.071634731232877</v>
+      </c>
+      <c r="M32">
+        <v>1.014419604931507</v>
+      </c>
+      <c r="N32">
+        <v>0.9519860846575346</v>
+      </c>
+      <c r="O32">
+        <v>0.9822361298630139</v>
+      </c>
+      <c r="P32">
+        <v>1.026935430547945</v>
+      </c>
+      <c r="Q32">
+        <v>0.9988187120547947</v>
+      </c>
+      <c r="R32">
+        <v>1.001952315251142</v>
+      </c>
+      <c r="S32">
+        <v>1.023090718447489</v>
+      </c>
+      <c r="T32">
+        <v>1.001952315251142</v>
+      </c>
+      <c r="U32">
+        <v>1.00531456</v>
+      </c>
+      <c r="V32">
+        <v>0.9946488649315072</v>
+      </c>
+      <c r="W32">
+        <v>1.004714516318493</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33">
+        <v>0.9808824694736842</v>
+      </c>
+      <c r="D33">
+        <v>1.049569117368421</v>
+      </c>
+      <c r="E33">
+        <v>0.9489844494736842</v>
+      </c>
+      <c r="F33">
+        <v>0.9489844494736842</v>
+      </c>
+      <c r="G33">
+        <v>1.016381651052632</v>
+      </c>
+      <c r="H33">
+        <v>0.9717262494736841</v>
+      </c>
+      <c r="I33">
+        <v>0.9810686431578948</v>
+      </c>
+      <c r="J33">
+        <v>1.07620418</v>
+      </c>
+      <c r="K33">
+        <v>0.9489844494736842</v>
+      </c>
+      <c r="L33">
+        <v>1.07620418</v>
+      </c>
+      <c r="M33">
+        <v>1.015317417894737</v>
+      </c>
+      <c r="N33">
+        <v>0.9489844494736842</v>
+      </c>
+      <c r="O33">
+        <v>0.9810686431578948</v>
+      </c>
+      <c r="P33">
+        <v>1.028636411578947</v>
+      </c>
+      <c r="Q33">
+        <v>0.9987251471052632</v>
+      </c>
+      <c r="R33">
+        <v>1.00208575754386</v>
+      </c>
+      <c r="S33">
+        <v>1.024551491403509</v>
+      </c>
+      <c r="T33">
+        <v>1.00208575754386</v>
+      </c>
+      <c r="U33">
+        <v>1.005659730921053</v>
+      </c>
+      <c r="V33">
+        <v>0.994324674631579</v>
+      </c>
+      <c r="W33">
+        <v>1.005016772236842</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34">
+        <v>0.9808824694736842</v>
+      </c>
+      <c r="D34">
+        <v>1.049569117368421</v>
+      </c>
+      <c r="E34">
+        <v>0.9489844494736842</v>
+      </c>
+      <c r="F34">
+        <v>0.9489844494736842</v>
+      </c>
+      <c r="G34">
+        <v>1.016381651052632</v>
+      </c>
+      <c r="H34">
+        <v>0.9717262494736841</v>
+      </c>
+      <c r="I34">
+        <v>0.9810686431578948</v>
+      </c>
+      <c r="J34">
+        <v>1.07620418</v>
+      </c>
+      <c r="K34">
+        <v>0.9489844494736842</v>
+      </c>
+      <c r="L34">
+        <v>1.07620418</v>
+      </c>
+      <c r="M34">
+        <v>1.015317417894737</v>
+      </c>
+      <c r="N34">
+        <v>0.9489844494736842</v>
+      </c>
+      <c r="O34">
+        <v>0.9810686431578948</v>
+      </c>
+      <c r="P34">
+        <v>1.028636411578947</v>
+      </c>
+      <c r="Q34">
+        <v>0.9987251471052632</v>
+      </c>
+      <c r="R34">
+        <v>1.00208575754386</v>
+      </c>
+      <c r="S34">
+        <v>1.024551491403509</v>
+      </c>
+      <c r="T34">
+        <v>1.00208575754386</v>
+      </c>
+      <c r="U34">
+        <v>1.005659730921053</v>
+      </c>
+      <c r="V34">
+        <v>0.994324674631579</v>
+      </c>
+      <c r="W34">
+        <v>1.005016772236842</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35">
+        <v>0.9734331778712669</v>
+      </c>
+      <c r="D35">
+        <v>1.069438764241236</v>
+      </c>
+      <c r="E35">
+        <v>0.9292350920078334</v>
+      </c>
+      <c r="F35">
+        <v>0.9292350920078334</v>
+      </c>
+      <c r="G35">
+        <v>1.022946945318309</v>
+      </c>
+      <c r="H35">
+        <v>0.9603036212538383</v>
+      </c>
+      <c r="I35">
+        <v>0.9730134344763369</v>
+      </c>
+      <c r="J35">
+        <v>1.106866911907752</v>
+      </c>
+      <c r="K35">
+        <v>0.9292350920078334</v>
+      </c>
+      <c r="L35">
+        <v>1.106866911907752</v>
+      </c>
+      <c r="M35">
+        <v>1.021200710314085</v>
+      </c>
+      <c r="N35">
+        <v>0.9292350920078334</v>
+      </c>
+      <c r="O35">
+        <v>0.9730134344763369</v>
+      </c>
+      <c r="P35">
+        <v>1.039940173192044</v>
+      </c>
+      <c r="Q35">
+        <v>0.9979801898973231</v>
+      </c>
+      <c r="R35">
+        <v>1.003038479463974</v>
+      </c>
+      <c r="S35">
+        <v>1.034275763900799</v>
+      </c>
+      <c r="T35">
+        <v>1.003038479463974</v>
+      </c>
+      <c r="U35">
+        <v>1.008015595927558</v>
+      </c>
+      <c r="V35">
+        <v>0.992259495143613</v>
+      </c>
+      <c r="W35">
+        <v>1.007054832173832</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36">
+        <v>0.9999970622579328</v>
+      </c>
+      <c r="D36">
+        <v>1.000008323260156</v>
+      </c>
+      <c r="E36">
+        <v>0.9999923350855698</v>
+      </c>
+      <c r="F36">
+        <v>0.9999923350855698</v>
+      </c>
+      <c r="G36">
+        <v>1.00000274911158</v>
+      </c>
+      <c r="H36">
+        <v>0.9999951427684768</v>
+      </c>
+      <c r="I36">
+        <v>0.9999962252800662</v>
+      </c>
+      <c r="J36">
+        <v>1.000012944473179</v>
+      </c>
+      <c r="K36">
+        <v>0.9999923350855698</v>
+      </c>
+      <c r="L36">
+        <v>1.000012944473179</v>
+      </c>
+      <c r="M36">
+        <v>1.00000223904552</v>
+      </c>
+      <c r="N36">
+        <v>0.9999923350855698</v>
+      </c>
+      <c r="O36">
+        <v>0.9999962252800662</v>
+      </c>
+      <c r="P36">
+        <v>1.000004584876623</v>
+      </c>
+      <c r="Q36">
+        <v>0.9999994871958233</v>
+      </c>
+      <c r="R36">
+        <v>1.000000501612938</v>
+      </c>
+      <c r="S36">
+        <v>1.000003972954942</v>
+      </c>
+      <c r="T36">
+        <v>1.000000501612938</v>
+      </c>
+      <c r="U36">
+        <v>1.000001063487599</v>
+      </c>
+      <c r="V36">
+        <v>0.9999993178071931</v>
+      </c>
+      <c r="W36">
+        <v>1.00000087766031</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>35</v>
+      </c>
+      <c r="C37">
+        <v>0.9999336028516159</v>
+      </c>
+      <c r="D37">
+        <v>1.000172840622855</v>
+      </c>
+      <c r="E37">
+        <v>0.9998229867315456</v>
+      </c>
+      <c r="F37">
+        <v>0.9998229867315456</v>
+      </c>
+      <c r="G37">
+        <v>1.00005711935886</v>
+      </c>
+      <c r="H37">
+        <v>0.999901307204188</v>
+      </c>
+      <c r="I37">
+        <v>0.9999334128615736</v>
+      </c>
+      <c r="J37">
+        <v>1.000265857808287</v>
+      </c>
+      <c r="K37">
+        <v>0.9998229867315456</v>
+      </c>
+      <c r="L37">
+        <v>1.000265857808287</v>
+      </c>
+      <c r="M37">
+        <v>1.000053087618617</v>
+      </c>
+      <c r="N37">
+        <v>0.9998229867315456</v>
+      </c>
+      <c r="O37">
+        <v>0.9999334128615736</v>
+      </c>
+      <c r="P37">
+        <v>1.000099635334931</v>
+      </c>
+      <c r="Q37">
+        <v>0.9999952661102169</v>
+      </c>
+      <c r="R37">
+        <v>1.000007419133802</v>
+      </c>
+      <c r="S37">
+        <v>1.000085463342907</v>
+      </c>
+      <c r="T37">
+        <v>1.000007419133802</v>
+      </c>
+      <c r="U37">
+        <v>1.000019844190067</v>
+      </c>
+      <c r="V37">
+        <v>0.9999804726983624</v>
+      </c>
+      <c r="W37">
+        <v>1.000017526882193</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>36</v>
+      </c>
+      <c r="C38">
+        <v>0.9997656193592607</v>
+      </c>
+      <c r="D38">
+        <v>1.000608014961426</v>
+      </c>
+      <c r="E38">
+        <v>0.9993746258783137</v>
+      </c>
+      <c r="F38">
+        <v>0.9993746258783137</v>
+      </c>
+      <c r="G38">
+        <v>1.000200937088134</v>
+      </c>
+      <c r="H38">
+        <v>0.9996531494141123</v>
+      </c>
+      <c r="I38">
+        <v>0.9997675354745221</v>
+      </c>
+      <c r="J38">
+        <v>1.000934785028049</v>
+      </c>
+      <c r="K38">
+        <v>0.9993746258783137</v>
+      </c>
+      <c r="L38">
+        <v>1.000934785028049</v>
+      </c>
+      <c r="M38">
+        <v>1.000187739851162</v>
+      </c>
+      <c r="N38">
+        <v>0.9993746258783137</v>
+      </c>
+      <c r="O38">
+        <v>0.9997675354745221</v>
+      </c>
+      <c r="P38">
+        <v>1.000351160251286</v>
+      </c>
+      <c r="Q38">
+        <v>0.9999842362813279</v>
+      </c>
+      <c r="R38">
+        <v>1.000025648793628</v>
+      </c>
+      <c r="S38">
+        <v>1.000301085863568</v>
+      </c>
+      <c r="T38">
+        <v>1.000025648793629</v>
+      </c>
+      <c r="U38">
+        <v>1.000069470867255</v>
+      </c>
+      <c r="V38">
+        <v>0.9999305018694666</v>
+      </c>
+      <c r="W38">
+        <v>1.000061550881873</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>37</v>
+      </c>
+      <c r="C39">
         <v>0.9994502629097619</v>
       </c>
-      <c r="D23">
+      <c r="D39">
         <v>1.001423873552513</v>
       </c>
-      <c r="E23">
+      <c r="E39">
         <v>0.9985326767622211</v>
       </c>
-      <c r="F23">
+      <c r="F39">
         <v>0.9985326767622211</v>
       </c>
-      <c r="G23">
+      <c r="G39">
         <v>1.000470568697002</v>
       </c>
-      <c r="H23">
+      <c r="H39">
         <v>0.9991880838717946</v>
       </c>
-      <c r="I23">
+      <c r="I39">
         <v>0.9994574690692285</v>
       </c>
-      <c r="J23">
+      <c r="J39">
         <v>1.002188648437274</v>
       </c>
-      <c r="K23">
+      <c r="K39">
         <v>0.9985326767622211</v>
       </c>
-      <c r="L23">
+      <c r="L39">
         <v>1.002188648437274</v>
       </c>
-      <c r="M23">
+      <c r="M39">
         <v>1.000440688434662</v>
       </c>
-      <c r="N23">
+      <c r="N39">
         <v>0.9985326767622211</v>
       </c>
-      <c r="O23">
+      <c r="O39">
         <v>0.9994574690692285</v>
       </c>
-      <c r="P23">
+      <c r="P39">
         <v>1.000823058753251</v>
       </c>
-      <c r="Q23">
+      <c r="Q39">
         <v>0.9999640188831151</v>
       </c>
-      <c r="R23">
+      <c r="R39">
         <v>1.000059598089575</v>
       </c>
-      <c r="S23">
+      <c r="S39">
         <v>1.000705562067835</v>
       </c>
-      <c r="T23">
+      <c r="T39">
         <v>1.000059598089575</v>
       </c>
-      <c r="U23">
+      <c r="U39">
         <v>1.000162340741432</v>
       </c>
-      <c r="V23">
+      <c r="V39">
         <v>0.9998364079455895</v>
       </c>
-      <c r="W23">
+      <c r="W39">
         <v>1.000144033966807</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>38</v>
+      </c>
+      <c r="C40">
+        <v>0.9933748444461082</v>
+      </c>
+      <c r="D40">
+        <v>1.01728088801443</v>
+      </c>
+      <c r="E40">
+        <v>0.9823445837488719</v>
+      </c>
+      <c r="F40">
+        <v>0.9823445837488719</v>
+      </c>
+      <c r="G40">
+        <v>1.005710770948294</v>
+      </c>
+      <c r="H40">
+        <v>0.9901266265479088</v>
+      </c>
+      <c r="I40">
+        <v>0.9933136455782664</v>
+      </c>
+      <c r="J40">
+        <v>1.026588046597773</v>
+      </c>
+      <c r="K40">
+        <v>0.9823445837488719</v>
+      </c>
+      <c r="L40">
+        <v>1.026588046597773</v>
+      </c>
+      <c r="M40">
+        <v>1.005292422849216</v>
+      </c>
+      <c r="N40">
+        <v>0.9823445837488719</v>
+      </c>
+      <c r="O40">
+        <v>0.9933136455782664</v>
+      </c>
+      <c r="P40">
+        <v>1.00995084608802</v>
+      </c>
+      <c r="Q40">
+        <v>0.9995122082632801</v>
+      </c>
+      <c r="R40">
+        <v>1.000748758641637</v>
+      </c>
+      <c r="S40">
+        <v>1.008537487708111</v>
+      </c>
+      <c r="T40">
+        <v>1.000748758641637</v>
+      </c>
+      <c r="U40">
+        <v>1.001989261718301</v>
+      </c>
+      <c r="V40">
+        <v>0.9980603261244155</v>
+      </c>
+      <c r="W40">
+        <v>1.001753978591359</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>39</v>
+      </c>
+      <c r="C41">
+        <v>1.003340518069474</v>
+      </c>
+      <c r="D41">
+        <v>0.9913611811763863</v>
+      </c>
+      <c r="E41">
+        <v>1.008919543685837</v>
+      </c>
+      <c r="F41">
+        <v>1.008919543685837</v>
+      </c>
+      <c r="G41">
+        <v>0.9971449841007692</v>
+      </c>
+      <c r="H41">
+        <v>1.004923858532752</v>
+      </c>
+      <c r="I41">
+        <v>1.003280240175551</v>
+      </c>
+      <c r="J41">
+        <v>0.9867240325439657</v>
+      </c>
+      <c r="K41">
+        <v>1.008919543685837</v>
+      </c>
+      <c r="L41">
+        <v>0.9867240325439657</v>
+      </c>
+      <c r="M41">
+        <v>0.9973200008212263</v>
+      </c>
+      <c r="N41">
+        <v>1.008919543685837</v>
+      </c>
+      <c r="O41">
+        <v>1.003280240175551</v>
+      </c>
+      <c r="P41">
+        <v>0.9950021363597585</v>
+      </c>
+      <c r="Q41">
+        <v>1.00021261213816</v>
+      </c>
+      <c r="R41">
+        <v>0.9996412721351179</v>
+      </c>
+      <c r="S41">
+        <v>0.9957164189400954</v>
+      </c>
+      <c r="T41">
+        <v>0.9996412721351179</v>
+      </c>
+      <c r="U41">
+        <v>0.9990172001265307</v>
+      </c>
+      <c r="V41">
+        <v>1.000997668838392</v>
+      </c>
+      <c r="W41">
+        <v>0.9991267948882452</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>40</v>
+      </c>
+      <c r="C42">
+        <v>0.9900829106006394</v>
+      </c>
+      <c r="D42">
+        <v>1.025768553881722</v>
+      </c>
+      <c r="E42">
+        <v>0.9735488398305112</v>
+      </c>
+      <c r="F42">
+        <v>0.9735488398305112</v>
+      </c>
+      <c r="G42">
+        <v>1.008515892925523</v>
+      </c>
+      <c r="H42">
+        <v>0.9852930410463211</v>
+      </c>
+      <c r="I42">
+        <v>0.9901123136578319</v>
+      </c>
+      <c r="J42">
+        <v>1.039626349649146</v>
+      </c>
+      <c r="K42">
+        <v>0.9735488398305112</v>
+      </c>
+      <c r="L42">
+        <v>1.039626349649146</v>
+      </c>
+      <c r="M42">
+        <v>1.007937357683467</v>
+      </c>
+      <c r="N42">
+        <v>0.9735488398305112</v>
+      </c>
+      <c r="O42">
+        <v>0.9901123136578319</v>
+      </c>
+      <c r="P42">
+        <v>1.014869331653489</v>
+      </c>
+      <c r="Q42">
+        <v>0.9993141032916775</v>
+      </c>
+      <c r="R42">
+        <v>1.001095834379163</v>
+      </c>
+      <c r="S42">
+        <v>1.012751518744167</v>
+      </c>
+      <c r="T42">
+        <v>1.001095834379163</v>
+      </c>
+      <c r="U42">
+        <v>1.002950849015753</v>
+      </c>
+      <c r="V42">
+        <v>0.9970704471787046</v>
+      </c>
+      <c r="W42">
+        <v>1.002610657409395</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/CubeA-HW40.xlsx
+++ b/JupyterNotebooks/AvgHW/CubeA-HW40.xlsx
@@ -14,36 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
     <t>HKL</t>
   </si>
   <si>
-    <t>BT8Hex_2.5</t>
-  </si>
-  <si>
-    <t>BT8Hex_5</t>
-  </si>
-  <si>
-    <t>BT8Hex_10</t>
-  </si>
-  <si>
-    <t>BT8Hex_15</t>
-  </si>
-  <si>
-    <t>Spiral2.5</t>
-  </si>
-  <si>
     <t>Spiral5</t>
   </si>
   <si>
-    <t>Spiral7.5</t>
-  </si>
-  <si>
-    <t>Spiral10</t>
-  </si>
-  <si>
-    <t>Spiral15</t>
+    <t>RotRing OmegaMax-90</t>
+  </si>
+  <si>
+    <t>Equal Angle</t>
+  </si>
+  <si>
+    <t>Tilt Rotate</t>
+  </si>
+  <si>
+    <t>CLR</t>
+  </si>
+  <si>
+    <t>Rizzie Hex</t>
+  </si>
+  <si>
+    <t>Thomas Hex</t>
+  </si>
+  <si>
+    <t>Tilt Rotate_Partial</t>
+  </si>
+  <si>
+    <t>RotRing OmegaMax-60</t>
+  </si>
+  <si>
+    <t>Equal Angle_Partial</t>
+  </si>
+  <si>
+    <t>Rizzie Hex_Partial</t>
+  </si>
+  <si>
+    <t>ND Single</t>
+  </si>
+  <si>
+    <t>RD Single</t>
+  </si>
+  <si>
+    <t>TD Single</t>
+  </si>
+  <si>
+    <t>Morris Single</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>OffsetFTD</t>
+  </si>
+  <si>
+    <t>OffsetATD</t>
   </si>
   <si>
     <t>OffsetF45</t>
@@ -52,42 +85,45 @@
     <t>OffsetA45</t>
   </si>
   <si>
-    <t>OffsetFTD</t>
-  </si>
-  <si>
-    <t>OffsetATD</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt2.5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt10degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt15degRes</t>
+    <t>OffsetFRD</t>
+  </si>
+  <si>
+    <t>OffsetARD</t>
+  </si>
+  <si>
+    <t>Gaussian Quadrature</t>
+  </si>
+  <si>
+    <t>Michael-CCHex</t>
+  </si>
+  <si>
+    <t>Michael-SNHex</t>
+  </si>
+  <si>
+    <t>[4, 2, 2]</t>
+  </si>
+  <si>
+    <t>[5, 1, 1]</t>
+  </si>
+  <si>
+    <t>[2, 2, 2]</t>
   </si>
   <si>
     <t>[1, 1, 1]</t>
   </si>
   <si>
+    <t>[3, 1, 1]</t>
+  </si>
+  <si>
+    <t>[3, 3, 1]</t>
+  </si>
+  <si>
+    <t>[2, 2, 0]</t>
+  </si>
+  <si>
     <t>[2, 0, 0]</t>
   </si>
   <si>
-    <t>[2, 2, 0]</t>
-  </si>
-  <si>
-    <t>[2, 2, 2]</t>
-  </si>
-  <si>
-    <t>[3, 1, 1]</t>
-  </si>
-  <si>
-    <t>[3, 3, 1]</t>
-  </si>
-  <si>
     <t>[3, 3, 3]</t>
   </si>
   <si>
@@ -95,12 +131,6 @@
   </si>
   <si>
     <t>[4, 2, 0]</t>
-  </si>
-  <si>
-    <t>[4, 2, 2]</t>
-  </si>
-  <si>
-    <t>[5, 1, 1]</t>
   </si>
   <si>
     <t>1Pair-A</t>
@@ -488,13 +518,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AG19"/>
+  <dimension ref="A1:W29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:33">
+    <row r="1" spans="1:23">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -561,38 +591,8 @@
       <c r="W1" s="1">
         <v>21</v>
       </c>
-      <c r="X1" s="1">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1">
-        <v>28</v>
-      </c>
-      <c r="AE1" s="1">
-        <v>29</v>
-      </c>
-      <c r="AF1" s="1">
-        <v>30</v>
-      </c>
-      <c r="AG1" s="1">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:33">
+    </row>
+    <row r="2" spans="1:23">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -600,100 +600,70 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="U2" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="V2" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="W2" t="s">
-        <v>38</v>
-      </c>
-      <c r="X2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>35</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:33">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -701,70 +671,70 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>0.997966211717362</v>
+        <v>0.9998403779144506</v>
       </c>
       <c r="D3">
-        <v>1.00303459963446</v>
+        <v>1.00041710852302</v>
       </c>
       <c r="E3">
-        <v>0.9992473853321913</v>
+        <v>0.9995748074702432</v>
       </c>
       <c r="F3">
-        <v>0.997966211717362</v>
+        <v>0.9995748074702432</v>
       </c>
       <c r="G3">
-        <v>1.000652425766276</v>
+        <v>1.000137838827561</v>
       </c>
       <c r="H3">
-        <v>0.9988742210910363</v>
+        <v>0.9997615696652529</v>
       </c>
       <c r="I3">
-        <v>0.997966211717362</v>
+        <v>0.9998379790575023</v>
       </c>
       <c r="J3">
-        <v>1.00303459963446</v>
+        <v>1.000641913111906</v>
       </c>
       <c r="K3">
-        <v>1.000610776919891</v>
+        <v>0.9995748074702432</v>
       </c>
       <c r="L3">
-        <v>0.9992379967779946</v>
+        <v>1.000641913111906</v>
       </c>
       <c r="M3">
-        <v>1.001974158938575</v>
+        <v>1.00012739038042</v>
       </c>
       <c r="N3">
-        <v>0.997966211717362</v>
+        <v>0.9995748074702432</v>
       </c>
       <c r="O3">
-        <v>0.9992473853321913</v>
+        <v>0.9998379790575023</v>
       </c>
       <c r="P3">
-        <v>1.001140992483326</v>
+        <v>1.000239946084704</v>
       </c>
       <c r="Q3">
-        <v>0.9999499055492336</v>
+        <v>0.9999879089425314</v>
       </c>
       <c r="R3">
-        <v>1.000082732228004</v>
+        <v>1.000018233213217</v>
       </c>
       <c r="S3">
-        <v>1.000978136910976</v>
+        <v>1.000205910332323</v>
       </c>
       <c r="T3">
-        <v>1.000082732228005</v>
+        <v>1.000018233213217</v>
       </c>
       <c r="U3">
-        <v>1.000225155612573</v>
+        <v>1.000048134616803</v>
       </c>
       <c r="V3">
-        <v>0.9997733668335304</v>
+        <v>0.9999534691874912</v>
       </c>
       <c r="W3">
-        <v>1.000199722022223</v>
-      </c>
-    </row>
-    <row r="4" spans="1:33">
+        <v>1.000042373118795</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -772,70 +742,70 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.9960738592919095</v>
+        <v>0.9933748444461082</v>
       </c>
       <c r="D4">
-        <v>1.00585829313776</v>
+        <v>1.01728088801443</v>
       </c>
       <c r="E4">
-        <v>0.9985470258190545</v>
+        <v>0.9823445837488719</v>
       </c>
       <c r="F4">
-        <v>0.9960738592919095</v>
+        <v>0.9823445837488719</v>
       </c>
       <c r="G4">
-        <v>1.001259503391195</v>
+        <v>1.005710770948294</v>
       </c>
       <c r="H4">
-        <v>0.9978266757183147</v>
+        <v>0.9901266265479088</v>
       </c>
       <c r="I4">
-        <v>0.9960738592919095</v>
+        <v>0.9933136455782664</v>
       </c>
       <c r="J4">
-        <v>1.00585829313776</v>
+        <v>1.026588046597773</v>
       </c>
       <c r="K4">
-        <v>1.001179075508591</v>
+        <v>0.9823445837488719</v>
       </c>
       <c r="L4">
-        <v>0.9985289825605073</v>
+        <v>1.026588046597773</v>
       </c>
       <c r="M4">
-        <v>1.003811103022706</v>
+        <v>1.005292422849216</v>
       </c>
       <c r="N4">
-        <v>0.9960738592919095</v>
+        <v>0.9823445837488719</v>
       </c>
       <c r="O4">
-        <v>0.9985470258190545</v>
+        <v>0.9933136455782664</v>
       </c>
       <c r="P4">
-        <v>1.002202659478407</v>
+        <v>1.00995084608802</v>
       </c>
       <c r="Q4">
-        <v>0.9999032646051249</v>
+        <v>0.9995122082632801</v>
       </c>
       <c r="R4">
-        <v>1.000159726082908</v>
+        <v>1.000748758641637</v>
       </c>
       <c r="S4">
-        <v>1.001888274116003</v>
+        <v>1.008537487708111</v>
       </c>
       <c r="T4">
-        <v>1.000159726082908</v>
+        <v>1.000748758641637</v>
       </c>
       <c r="U4">
-        <v>1.00043467040998</v>
+        <v>1.001989261718301</v>
       </c>
       <c r="V4">
-        <v>0.9995625081863657</v>
+        <v>0.9980603261244155</v>
       </c>
       <c r="W4">
-        <v>1.000385564806255</v>
-      </c>
-    </row>
-    <row r="5" spans="1:33">
+        <v>1.001753978591359</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -843,70 +813,70 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.9924773061108922</v>
+        <v>0.9919175533573482</v>
       </c>
       <c r="D5">
-        <v>1.011227412354476</v>
+        <v>1.021087542586457</v>
       </c>
       <c r="E5">
-        <v>0.9972143877006703</v>
+        <v>0.978462314697408</v>
       </c>
       <c r="F5">
-        <v>0.9924773061108922</v>
+        <v>0.978462314697408</v>
       </c>
       <c r="G5">
-        <v>1.002413774801749</v>
+        <v>1.006968733523059</v>
       </c>
       <c r="H5">
-        <v>0.9958347184110204</v>
+        <v>0.9879508296902003</v>
       </c>
       <c r="I5">
-        <v>0.9924773061108922</v>
+        <v>0.9918361772766584</v>
       </c>
       <c r="J5">
-        <v>1.011227412354476</v>
+        <v>1.032446038213255</v>
       </c>
       <c r="K5">
-        <v>1.002259070501342</v>
+        <v>0.978462314697408</v>
       </c>
       <c r="L5">
-        <v>0.9971813481762857</v>
+        <v>1.032446038213255</v>
       </c>
       <c r="M5">
-        <v>1.007303800168198</v>
+        <v>1.006455723991354</v>
       </c>
       <c r="N5">
-        <v>0.9924773061108922</v>
+        <v>0.978462314697408</v>
       </c>
       <c r="O5">
-        <v>0.9972143877006703</v>
+        <v>0.9918361772766584</v>
       </c>
       <c r="P5">
-        <v>1.004220900027573</v>
+        <v>1.012141107744957</v>
       </c>
       <c r="Q5">
-        <v>0.9998140812512094</v>
+        <v>0.9994024553998589</v>
       </c>
       <c r="R5">
-        <v>1.000306368722013</v>
+        <v>1.000914843395774</v>
       </c>
       <c r="S5">
-        <v>1.003618524952298</v>
+        <v>1.010416983004324</v>
       </c>
       <c r="T5">
-        <v>1.000306368722013</v>
+        <v>1.000914843395774</v>
       </c>
       <c r="U5">
-        <v>1.000833220241947</v>
+        <v>1.002428315927595</v>
       </c>
       <c r="V5">
-        <v>0.9991620374157358</v>
+        <v>0.9976351156815578</v>
       </c>
       <c r="W5">
-        <v>1.000738977278079</v>
-      </c>
-    </row>
-    <row r="6" spans="1:33">
+        <v>1.002140614166968</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -914,70 +884,70 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.9889672931603133</v>
+        <v>0.9734331778712669</v>
       </c>
       <c r="D6">
-        <v>1.016467418837953</v>
+        <v>1.069438764241236</v>
       </c>
       <c r="E6">
-        <v>0.9959137608553623</v>
+        <v>0.9292350920078334</v>
       </c>
       <c r="F6">
-        <v>0.9889672931603133</v>
+        <v>0.9292350920078334</v>
       </c>
       <c r="G6">
-        <v>1.003540291746927</v>
+        <v>1.022946945318309</v>
       </c>
       <c r="H6">
-        <v>0.9938906578981959</v>
+        <v>0.9603036212538383</v>
       </c>
       <c r="I6">
-        <v>0.9889672931603133</v>
+        <v>0.9730134344763369</v>
       </c>
       <c r="J6">
-        <v>1.016467418837953</v>
+        <v>1.106866911907752</v>
       </c>
       <c r="K6">
-        <v>1.003313073073102</v>
+        <v>0.9292350920078334</v>
       </c>
       <c r="L6">
-        <v>0.9958661300284649</v>
+        <v>1.106866911907752</v>
       </c>
       <c r="M6">
-        <v>1.010712512833168</v>
+        <v>1.021200710314085</v>
       </c>
       <c r="N6">
-        <v>0.9889672931603133</v>
+        <v>0.9292350920078334</v>
       </c>
       <c r="O6">
-        <v>0.9959137608553623</v>
+        <v>0.9730134344763369</v>
       </c>
       <c r="P6">
-        <v>1.006190589846658</v>
+        <v>1.039940173192044</v>
       </c>
       <c r="Q6">
-        <v>0.9997270263011446</v>
+        <v>0.9979801898973231</v>
       </c>
       <c r="R6">
-        <v>1.000449490951209</v>
+        <v>1.003038479463974</v>
       </c>
       <c r="S6">
-        <v>1.005307157146747</v>
+        <v>1.034275763900799</v>
       </c>
       <c r="T6">
-        <v>1.000449490951209</v>
+        <v>1.003038479463974</v>
       </c>
       <c r="U6">
-        <v>1.001222191150139</v>
+        <v>1.008015595927558</v>
       </c>
       <c r="V6">
-        <v>0.9987712115521739</v>
+        <v>0.992259495143613</v>
       </c>
       <c r="W6">
-        <v>1.001083892304186</v>
-      </c>
-    </row>
-    <row r="7" spans="1:33">
+        <v>1.007054832173832</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -985,70 +955,70 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.9998446626474541</v>
+        <v>0.9991233382390164</v>
       </c>
       <c r="D7">
-        <v>1.00023457939932</v>
+        <v>1.002271677427459</v>
       </c>
       <c r="E7">
-        <v>0.999940769174183</v>
+        <v>0.9976602963011122</v>
       </c>
       <c r="F7">
-        <v>0.9998446626474541</v>
+        <v>0.9976602963011122</v>
       </c>
       <c r="G7">
-        <v>1.000050370232257</v>
+        <v>1.000750749266318</v>
       </c>
       <c r="H7">
-        <v>0.9999128687601375</v>
+        <v>0.9987044832349103</v>
       </c>
       <c r="I7">
-        <v>0.9998446626474541</v>
+        <v>0.9991335679081631</v>
       </c>
       <c r="J7">
-        <v>1.00023457939932</v>
+        <v>1.003492031249944</v>
       </c>
       <c r="K7">
-        <v>1.000046535700022</v>
+        <v>0.9976602963011122</v>
       </c>
       <c r="L7">
-        <v>0.999941679871321</v>
+        <v>1.003492031249944</v>
       </c>
       <c r="M7">
-        <v>1.000152423442629</v>
+        <v>1.000702608006504</v>
       </c>
       <c r="N7">
-        <v>0.9998446626474541</v>
+        <v>0.9976602963011122</v>
       </c>
       <c r="O7">
-        <v>0.999940769174183</v>
+        <v>0.9991335679081631</v>
       </c>
       <c r="P7">
-        <v>1.000087674286751</v>
+        <v>1.001312799579054</v>
       </c>
       <c r="Q7">
-        <v>0.9999955697032199</v>
+        <v>0.9999421585872408</v>
       </c>
       <c r="R7">
-        <v>1.000006670406986</v>
+        <v>1.000095298486407</v>
       </c>
       <c r="S7">
-        <v>1.00007523960192</v>
+        <v>1.001125449474809</v>
       </c>
       <c r="T7">
-        <v>1.000006670406986</v>
+        <v>1.000095298486407</v>
       </c>
       <c r="U7">
-        <v>1.000017595363303</v>
+        <v>1.000259161181384</v>
       </c>
       <c r="V7">
-        <v>0.9999830088201336</v>
+        <v>0.99973938820533</v>
       </c>
       <c r="W7">
-        <v>1.000015486153415</v>
-      </c>
-    </row>
-    <row r="8" spans="1:33">
+        <v>1.000229843954179</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1056,70 +1026,70 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.9995748074702432</v>
+        <v>0.9999336028516159</v>
       </c>
       <c r="D8">
-        <v>1.000641913111906</v>
+        <v>1.000172840622855</v>
       </c>
       <c r="E8">
-        <v>0.9998379790575023</v>
+        <v>0.9998229867315456</v>
       </c>
       <c r="F8">
-        <v>0.9995748074702432</v>
+        <v>0.9998229867315456</v>
       </c>
       <c r="G8">
-        <v>1.000137838827561</v>
+        <v>1.00005711935886</v>
       </c>
       <c r="H8">
-        <v>0.9997615696652529</v>
+        <v>0.999901307204188</v>
       </c>
       <c r="I8">
-        <v>0.9995748074702432</v>
+        <v>0.9999334128615736</v>
       </c>
       <c r="J8">
-        <v>1.000641913111906</v>
+        <v>1.000265857808287</v>
       </c>
       <c r="K8">
-        <v>1.00012739038042</v>
+        <v>0.9998229867315456</v>
       </c>
       <c r="L8">
-        <v>0.9998403779144506</v>
+        <v>1.000265857808287</v>
       </c>
       <c r="M8">
-        <v>1.00041710852302</v>
+        <v>1.000053087618617</v>
       </c>
       <c r="N8">
-        <v>0.9995748074702432</v>
+        <v>0.9998229867315456</v>
       </c>
       <c r="O8">
-        <v>0.9998379790575023</v>
+        <v>0.9999334128615736</v>
       </c>
       <c r="P8">
-        <v>1.000239946084704</v>
+        <v>1.000099635334931</v>
       </c>
       <c r="Q8">
-        <v>0.9999879089425315</v>
+        <v>0.9999952661102169</v>
       </c>
       <c r="R8">
-        <v>1.000018233213217</v>
+        <v>1.000007419133802</v>
       </c>
       <c r="S8">
-        <v>1.000205910332323</v>
+        <v>1.000085463342907</v>
       </c>
       <c r="T8">
-        <v>1.000018233213217</v>
+        <v>1.000007419133802</v>
       </c>
       <c r="U8">
-        <v>1.000048134616803</v>
+        <v>1.000019844190067</v>
       </c>
       <c r="V8">
-        <v>0.9999534691874912</v>
+        <v>0.9999804726983624</v>
       </c>
       <c r="W8">
-        <v>1.000042373118795</v>
-      </c>
-    </row>
-    <row r="9" spans="1:33">
+        <v>1.000017526882193</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1127,70 +1097,70 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.9993836868234174</v>
+        <v>0.9985289825605073</v>
       </c>
       <c r="D9">
-        <v>1.000930411754366</v>
+        <v>1.003811103022706</v>
       </c>
       <c r="E9">
-        <v>0.9997651724452485</v>
+        <v>0.9960738592919095</v>
       </c>
       <c r="F9">
-        <v>0.9993836868234174</v>
+        <v>0.9960738592919095</v>
       </c>
       <c r="G9">
-        <v>1.000199789651228</v>
+        <v>1.001259503391195</v>
       </c>
       <c r="H9">
-        <v>0.9996544096891047</v>
+        <v>0.9978266757183147</v>
       </c>
       <c r="I9">
-        <v>0.9993836868234174</v>
+        <v>0.9985470258190545</v>
       </c>
       <c r="J9">
-        <v>1.000930411754366</v>
+        <v>1.00585829313776</v>
       </c>
       <c r="K9">
-        <v>1.00018465373781</v>
+        <v>0.9960738592919095</v>
       </c>
       <c r="L9">
-        <v>0.9997686316078427</v>
+        <v>1.00585829313776</v>
       </c>
       <c r="M9">
-        <v>1.000604574171294</v>
+        <v>1.001179075508591</v>
       </c>
       <c r="N9">
-        <v>0.9993836868234174</v>
+        <v>0.9960738592919095</v>
       </c>
       <c r="O9">
-        <v>0.9997651724452485</v>
+        <v>0.9985470258190545</v>
       </c>
       <c r="P9">
-        <v>1.000347792099808</v>
+        <v>1.002202659478407</v>
       </c>
       <c r="Q9">
-        <v>0.9999824810482384</v>
+        <v>0.9999032646051249</v>
       </c>
       <c r="R9">
-        <v>1.000026423674344</v>
+        <v>1.000159726082908</v>
       </c>
       <c r="S9">
-        <v>1.000298457950281</v>
+        <v>1.001888274116003</v>
       </c>
       <c r="T9">
-        <v>1.000026423674344</v>
+        <v>1.000159726082908</v>
       </c>
       <c r="U9">
-        <v>1.000069765168565</v>
+        <v>1.00043467040998</v>
       </c>
       <c r="V9">
-        <v>0.9999325494995356</v>
+        <v>0.9995625081863657</v>
       </c>
       <c r="W9">
-        <v>1.000061416235039</v>
-      </c>
-    </row>
-    <row r="10" spans="1:33">
+        <v>1.000385564806255</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1198,70 +1168,70 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.998691503835595</v>
+        <v>0.9730397905978377</v>
       </c>
       <c r="D10">
-        <v>1.001975161694816</v>
+        <v>1.070472578061777</v>
       </c>
       <c r="E10">
-        <v>0.9995015561672</v>
+        <v>0.928188546257785</v>
       </c>
       <c r="F10">
-        <v>0.998691503835595</v>
+        <v>0.928188546257785</v>
       </c>
       <c r="G10">
-        <v>1.000424134506672</v>
+        <v>1.023288569631285</v>
       </c>
       <c r="H10">
-        <v>0.9992663530223266</v>
+        <v>0.9597117219787774</v>
       </c>
       <c r="I10">
-        <v>0.998691503835595</v>
+        <v>0.972606980445324</v>
       </c>
       <c r="J10">
-        <v>1.001975161694816</v>
+        <v>1.108459128935277</v>
       </c>
       <c r="K10">
-        <v>1.000392048898538</v>
+        <v>0.928188546257785</v>
       </c>
       <c r="L10">
-        <v>0.9995087933871268</v>
+        <v>1.108459128935277</v>
       </c>
       <c r="M10">
-        <v>1.001283454917904</v>
+        <v>1.021513778647907</v>
       </c>
       <c r="N10">
-        <v>0.998691503835595</v>
+        <v>0.928188546257785</v>
       </c>
       <c r="O10">
-        <v>0.9995015561672</v>
+        <v>0.972606980445324</v>
       </c>
       <c r="P10">
-        <v>1.000738358931008</v>
+        <v>1.040533054690301</v>
       </c>
       <c r="Q10">
-        <v>0.999962845336936</v>
+        <v>0.9979477750383043</v>
       </c>
       <c r="R10">
-        <v>1.000056073899204</v>
+        <v>1.003084885212796</v>
       </c>
       <c r="S10">
-        <v>1.000633617456229</v>
+        <v>1.034784893003962</v>
       </c>
       <c r="T10">
-        <v>1.000056073899204</v>
+        <v>1.003084885212795</v>
       </c>
       <c r="U10">
-        <v>1.000148089051071</v>
+        <v>1.008135806317418</v>
       </c>
       <c r="V10">
-        <v>0.9998567720079755</v>
+        <v>0.9921463543054913</v>
       </c>
       <c r="W10">
-        <v>1.000130375803772</v>
-      </c>
-    </row>
-    <row r="11" spans="1:33">
+        <v>1.007160136819496</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1269,70 +1239,70 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.9977694649724077</v>
+        <v>0.9959829260338153</v>
       </c>
       <c r="D11">
-        <v>1.003367596988901</v>
+        <v>1.010555629034657</v>
       </c>
       <c r="E11">
-        <v>0.9991499296551178</v>
+        <v>0.9893129618623119</v>
       </c>
       <c r="F11">
-        <v>0.9977694649724077</v>
+        <v>0.9893129618623119</v>
       </c>
       <c r="G11">
-        <v>1.000723125728503</v>
+        <v>1.00348811737796</v>
       </c>
       <c r="H11">
-        <v>0.9987491270983949</v>
+        <v>0.9939566817414931</v>
       </c>
       <c r="I11">
-        <v>0.9977694649724077</v>
+        <v>0.9958509047986396</v>
       </c>
       <c r="J11">
-        <v>1.003367596988901</v>
+        <v>1.016256890799811</v>
       </c>
       <c r="K11">
-        <v>1.00066828750752</v>
+        <v>0.9893129618623119</v>
       </c>
       <c r="L11">
-        <v>0.9991626369816176</v>
+        <v>1.016256890799811</v>
       </c>
       <c r="M11">
-        <v>1.00218821658437</v>
+        <v>1.003197053653765</v>
       </c>
       <c r="N11">
-        <v>0.9977694649724077</v>
+        <v>0.9893129618623119</v>
       </c>
       <c r="O11">
-        <v>0.9991499296551178</v>
+        <v>0.9958509047986396</v>
       </c>
       <c r="P11">
-        <v>1.001258763322009</v>
+        <v>1.006053897799225</v>
       </c>
       <c r="Q11">
-        <v>0.9999365276918102</v>
+        <v>0.9996695110882998</v>
       </c>
       <c r="R11">
-        <v>1.000095663872142</v>
+        <v>1.000473585820254</v>
       </c>
       <c r="S11">
-        <v>1.001080217457507</v>
+        <v>1.005198637658803</v>
       </c>
       <c r="T11">
-        <v>1.000095663872142</v>
+        <v>1.000473585820254</v>
       </c>
       <c r="U11">
-        <v>1.000252529336232</v>
+        <v>1.00122721870968</v>
       </c>
       <c r="V11">
-        <v>0.9997559164634675</v>
+        <v>0.9988443673402067</v>
       </c>
       <c r="W11">
-        <v>1.000222298189604</v>
-      </c>
-    </row>
-    <row r="12" spans="1:33">
+        <v>1.001075145662807</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1340,70 +1310,70 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.023129671862989</v>
+        <v>0.9918469530105267</v>
       </c>
       <c r="D12">
-        <v>0.9656788526781157</v>
+        <v>1.021307059357899</v>
       </c>
       <c r="E12">
-        <v>1.008440267632869</v>
+        <v>0.9782824080526334</v>
       </c>
       <c r="F12">
-        <v>1.023129671862989</v>
+        <v>0.9782824080526334</v>
       </c>
       <c r="G12">
-        <v>0.9926167904667589</v>
+        <v>1.007041196768421</v>
       </c>
       <c r="H12">
-        <v>1.012725007352464</v>
+        <v>0.9878197564736819</v>
       </c>
       <c r="I12">
-        <v>1.023129671862989</v>
+        <v>0.9917216687263135</v>
       </c>
       <c r="J12">
-        <v>0.9656788526781157</v>
+        <v>1.032791166947373</v>
       </c>
       <c r="K12">
-        <v>0.993046158078209</v>
+        <v>0.9782824080526334</v>
       </c>
       <c r="L12">
-        <v>1.008658063000248</v>
+        <v>1.032791166947373</v>
       </c>
       <c r="M12">
-        <v>0.9776599495876245</v>
+        <v>1.006506687494737</v>
       </c>
       <c r="N12">
-        <v>1.023129671862989</v>
+        <v>0.9782824080526334</v>
       </c>
       <c r="O12">
-        <v>1.008440267632869</v>
+        <v>0.9917216687263135</v>
       </c>
       <c r="P12">
-        <v>0.9870595601554922</v>
+        <v>1.012256417836843</v>
       </c>
       <c r="Q12">
-        <v>1.000528529049814</v>
+        <v>0.9993814327473673</v>
       </c>
       <c r="R12">
-        <v>0.9990829307246577</v>
+        <v>1.000931747908773</v>
       </c>
       <c r="S12">
-        <v>0.9889119702592478</v>
+        <v>1.010518010814036</v>
       </c>
       <c r="T12">
-        <v>0.9990829307246577</v>
+        <v>1.000931747908773</v>
       </c>
       <c r="U12">
-        <v>0.997466395660183</v>
+        <v>1.002459110123685</v>
       </c>
       <c r="V12">
-        <v>1.002599050900744</v>
+        <v>0.997623769709475</v>
       </c>
       <c r="W12">
-        <v>0.9977443450824096</v>
-      </c>
-    </row>
-    <row r="13" spans="1:33">
+        <v>1.002164612103948</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1411,70 +1381,70 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>1.005865936989239</v>
+        <v>1.005319264593546</v>
       </c>
       <c r="D13">
-        <v>0.991047796534645</v>
+        <v>0.9861534087814903</v>
       </c>
       <c r="E13">
-        <v>1.002295542145029</v>
+        <v>1.014181886423239</v>
       </c>
       <c r="F13">
-        <v>1.005865936989239</v>
+        <v>1.014181886423239</v>
       </c>
       <c r="G13">
-        <v>0.9980798403250863</v>
+        <v>0.9954240906523727</v>
       </c>
       <c r="H13">
-        <v>1.00332901908819</v>
+        <v>1.007906721398782</v>
       </c>
       <c r="I13">
-        <v>1.005865936989239</v>
+        <v>1.005334093207468</v>
       </c>
       <c r="J13">
-        <v>0.991047796534645</v>
+        <v>0.9787017583366814</v>
       </c>
       <c r="K13">
-        <v>0.9982463486991924</v>
+        <v>1.014181886423239</v>
       </c>
       <c r="L13">
-        <v>1.002206115577125</v>
+        <v>0.9787017583366814</v>
       </c>
       <c r="M13">
-        <v>0.9941891788109908</v>
+        <v>0.9957464492590938</v>
       </c>
       <c r="N13">
-        <v>1.005865936989239</v>
+        <v>1.014181886423239</v>
       </c>
       <c r="O13">
-        <v>1.002295542145029</v>
+        <v>1.005334093207468</v>
       </c>
       <c r="P13">
-        <v>0.9966716693398372</v>
+        <v>0.9920179257720747</v>
       </c>
       <c r="Q13">
-        <v>1.000187691235058</v>
+        <v>1.00037909192992</v>
       </c>
       <c r="R13">
-        <v>0.999736425222971</v>
+        <v>0.999405912655796</v>
       </c>
       <c r="S13">
-        <v>0.9971410596682535</v>
+        <v>0.9931533140655073</v>
       </c>
       <c r="T13">
-        <v>0.999736425222971</v>
+        <v>0.999405912655796</v>
       </c>
       <c r="U13">
-        <v>0.9993222789984999</v>
+        <v>0.9984104571549401</v>
       </c>
       <c r="V13">
-        <v>1.000631010596648</v>
+        <v>1.0015647430086</v>
       </c>
       <c r="W13">
-        <v>0.9994074722711871</v>
-      </c>
-    </row>
-    <row r="14" spans="1:33">
+        <v>0.9985959590815841</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1482,70 +1452,70 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>1.009257961053271</v>
+        <v>0.9534246200000004</v>
       </c>
       <c r="D14">
-        <v>0.9851348086546715</v>
+        <v>1.1217596</v>
       </c>
       <c r="E14">
-        <v>1.004083142202896</v>
+        <v>0.8759446600000014</v>
       </c>
       <c r="F14">
-        <v>1.009257961053271</v>
+        <v>0.8759446600000014</v>
       </c>
       <c r="G14">
-        <v>0.9968278730740847</v>
+        <v>1.040237</v>
       </c>
       <c r="H14">
-        <v>1.00555634199889</v>
+        <v>0.9303893499999991</v>
       </c>
       <c r="I14">
-        <v>1.009257961053271</v>
+        <v>0.9526597999999998</v>
       </c>
       <c r="J14">
-        <v>0.9851348086546715</v>
+        <v>1.187394100000001</v>
       </c>
       <c r="K14">
-        <v>0.9972617311560218</v>
+        <v>0.8759446600000014</v>
       </c>
       <c r="L14">
-        <v>1.003512512846241</v>
+        <v>1.187394100000001</v>
       </c>
       <c r="M14">
-        <v>0.99039808277526</v>
+        <v>1.037164200000001</v>
       </c>
       <c r="N14">
-        <v>1.009257961053271</v>
+        <v>0.8759446600000014</v>
       </c>
       <c r="O14">
-        <v>1.004083142202896</v>
+        <v>0.9526597999999998</v>
       </c>
       <c r="P14">
-        <v>0.9946089754287839</v>
+        <v>1.07002695</v>
       </c>
       <c r="Q14">
-        <v>1.00045550763849</v>
+        <v>0.9964483999999998</v>
       </c>
       <c r="R14">
-        <v>0.9994919706369464</v>
+        <v>1.005332853333334</v>
       </c>
       <c r="S14">
-        <v>0.9953486079772175</v>
+        <v>1.060096966666667</v>
       </c>
       <c r="T14">
-        <v>0.9994919706369463</v>
+        <v>1.005332853333334</v>
       </c>
       <c r="U14">
-        <v>0.9988259462462309</v>
+        <v>1.01405889</v>
       </c>
       <c r="V14">
-        <v>1.000912349207639</v>
+        <v>0.9864360440000006</v>
       </c>
       <c r="W14">
-        <v>0.9990040567201672</v>
-      </c>
-    </row>
-    <row r="15" spans="1:33">
+        <v>1.01237166625</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1553,70 +1523,70 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>1.002697115514953</v>
+        <v>0.9534246199999999</v>
       </c>
       <c r="D15">
-        <v>0.9963659284845212</v>
+        <v>1.1217596</v>
       </c>
       <c r="E15">
-        <v>1.000754173015497</v>
+        <v>0.8759446600000002</v>
       </c>
       <c r="F15">
-        <v>1.002697115514953</v>
+        <v>0.8759446600000002</v>
       </c>
       <c r="G15">
-        <v>0.9992098461689657</v>
+        <v>1.040237</v>
       </c>
       <c r="H15">
-        <v>1.001332731236358</v>
+        <v>0.93038935</v>
       </c>
       <c r="I15">
-        <v>1.002697115514953</v>
+        <v>0.9526597999999999</v>
       </c>
       <c r="J15">
-        <v>0.9963659284845212</v>
+        <v>1.1873941</v>
       </c>
       <c r="K15">
-        <v>0.9991744050892001</v>
+        <v>0.8759446600000002</v>
       </c>
       <c r="L15">
-        <v>1.000994259708301</v>
+        <v>1.1873941</v>
       </c>
       <c r="M15">
-        <v>0.997610378315901</v>
+        <v>1.0371642</v>
       </c>
       <c r="N15">
-        <v>1.002697115514953</v>
+        <v>0.8759446600000002</v>
       </c>
       <c r="O15">
-        <v>1.000754173015497</v>
+        <v>0.9526597999999999</v>
       </c>
       <c r="P15">
-        <v>0.998560050750009</v>
+        <v>1.07002695</v>
       </c>
       <c r="Q15">
-        <v>0.9999820095922312</v>
+        <v>0.9964484</v>
       </c>
       <c r="R15">
-        <v>0.9999390723383237</v>
+        <v>1.005332853333333</v>
       </c>
       <c r="S15">
-        <v>0.9987766492229945</v>
+        <v>1.060096966666667</v>
       </c>
       <c r="T15">
-        <v>0.9999390723383237</v>
+        <v>1.005332853333333</v>
       </c>
       <c r="U15">
-        <v>0.9997567657959842</v>
+        <v>1.01405889</v>
       </c>
       <c r="V15">
-        <v>1.000344835739778</v>
+        <v>0.9864360440000001</v>
       </c>
       <c r="W15">
-        <v>0.9997673546917121</v>
-      </c>
-    </row>
-    <row r="16" spans="1:33">
+        <v>1.01237166625</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1624,67 +1594,67 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.9999923350855698</v>
+        <v>0.9534246199999999</v>
       </c>
       <c r="D16">
-        <v>1.000012944473179</v>
+        <v>1.1217596</v>
       </c>
       <c r="E16">
-        <v>0.9999962252800662</v>
+        <v>0.8759446600000002</v>
       </c>
       <c r="F16">
-        <v>0.9999923350855698</v>
+        <v>0.8759446600000002</v>
       </c>
       <c r="G16">
-        <v>1.00000274911158</v>
+        <v>1.040237</v>
       </c>
       <c r="H16">
-        <v>0.9999951427684766</v>
+        <v>0.93038935</v>
       </c>
       <c r="I16">
-        <v>0.9999923350855698</v>
+        <v>0.9526597999999999</v>
       </c>
       <c r="J16">
-        <v>1.000012944473179</v>
+        <v>1.1873941</v>
       </c>
       <c r="K16">
-        <v>1.00000223904552</v>
+        <v>0.8759446600000002</v>
       </c>
       <c r="L16">
-        <v>0.9999970622579328</v>
+        <v>1.1873941</v>
       </c>
       <c r="M16">
-        <v>1.000008323260156</v>
+        <v>1.0371642</v>
       </c>
       <c r="N16">
-        <v>0.9999923350855698</v>
+        <v>0.8759446600000002</v>
       </c>
       <c r="O16">
-        <v>0.9999962252800662</v>
+        <v>0.9526597999999999</v>
       </c>
       <c r="P16">
-        <v>1.000004584876623</v>
+        <v>1.07002695</v>
       </c>
       <c r="Q16">
-        <v>0.9999994871958233</v>
+        <v>0.9964484</v>
       </c>
       <c r="R16">
-        <v>1.000000501612938</v>
+        <v>1.005332853333333</v>
       </c>
       <c r="S16">
-        <v>1.000003972954942</v>
+        <v>1.060096966666667</v>
       </c>
       <c r="T16">
-        <v>1.000000501612938</v>
+        <v>1.005332853333333</v>
       </c>
       <c r="U16">
-        <v>1.000001063487599</v>
+        <v>1.01405889</v>
       </c>
       <c r="V16">
-        <v>0.9999993178071931</v>
+        <v>0.9864360440000001</v>
       </c>
       <c r="W16">
-        <v>1.00000087766031</v>
+        <v>1.01237166625</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1695,67 +1665,67 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.9998229867315457</v>
+        <v>0.99689954</v>
       </c>
       <c r="D17">
-        <v>1.000265857808287</v>
+        <v>1.007458</v>
       </c>
       <c r="E17">
-        <v>0.9999334128615734</v>
+        <v>0.99159098</v>
       </c>
       <c r="F17">
-        <v>0.9998229867315457</v>
+        <v>0.99159098</v>
       </c>
       <c r="G17">
-        <v>1.000057119358861</v>
+        <v>1.002466</v>
       </c>
       <c r="H17">
-        <v>0.9999013072041879</v>
+        <v>0.99583944</v>
       </c>
       <c r="I17">
-        <v>0.9998229867315457</v>
+        <v>0.99764046</v>
       </c>
       <c r="J17">
-        <v>1.000265857808287</v>
+        <v>1.0113434</v>
       </c>
       <c r="K17">
-        <v>1.000053087618617</v>
+        <v>0.99159098</v>
       </c>
       <c r="L17">
-        <v>0.9999336028516159</v>
+        <v>1.0113434</v>
       </c>
       <c r="M17">
-        <v>1.000172840622855</v>
+        <v>1.0025735</v>
       </c>
       <c r="N17">
-        <v>0.9998229867315457</v>
+        <v>0.99159098</v>
       </c>
       <c r="O17">
-        <v>0.9999334128615734</v>
+        <v>0.99764046</v>
       </c>
       <c r="P17">
-        <v>1.000099635334931</v>
+        <v>1.00449193</v>
       </c>
       <c r="Q17">
-        <v>0.9999952661102172</v>
+        <v>1.00005323</v>
       </c>
       <c r="R17">
-        <v>1.000007419133802</v>
+        <v>1.000191613333333</v>
       </c>
       <c r="S17">
-        <v>1.000085463342907</v>
+        <v>1.00381662</v>
       </c>
       <c r="T17">
-        <v>1.000007419133802</v>
+        <v>1.000191613333333</v>
       </c>
       <c r="U17">
-        <v>1.000019844190067</v>
+        <v>1.00076021</v>
       </c>
       <c r="V17">
-        <v>0.9999804726983624</v>
+        <v>0.9989263640000001</v>
       </c>
       <c r="W17">
-        <v>1.000017526882193</v>
+        <v>1.000726415</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1766,67 +1736,67 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.9993746258783137</v>
+        <v>0.9820108742465754</v>
       </c>
       <c r="D18">
-        <v>1.000934785028049</v>
+        <v>1.04660238520548</v>
       </c>
       <c r="E18">
-        <v>0.9997675354745221</v>
+        <v>0.9519860846575346</v>
       </c>
       <c r="F18">
-        <v>0.9993746258783137</v>
+        <v>0.9519860846575346</v>
       </c>
       <c r="G18">
-        <v>1.000200937088134</v>
+        <v>1.015401294246576</v>
       </c>
       <c r="H18">
-        <v>0.9996531494141123</v>
+        <v>0.973425026164384</v>
       </c>
       <c r="I18">
-        <v>0.9993746258783137</v>
+        <v>0.9822361298630139</v>
       </c>
       <c r="J18">
-        <v>1.000934785028049</v>
+        <v>1.071634731232877</v>
       </c>
       <c r="K18">
-        <v>1.000187739851162</v>
+        <v>0.9519860846575346</v>
       </c>
       <c r="L18">
-        <v>0.9997656193592606</v>
+        <v>1.071634731232877</v>
       </c>
       <c r="M18">
-        <v>1.000608014961426</v>
+        <v>1.014419604931507</v>
       </c>
       <c r="N18">
-        <v>0.9993746258783137</v>
+        <v>0.9519860846575346</v>
       </c>
       <c r="O18">
-        <v>0.9997675354745221</v>
+        <v>0.9822361298630139</v>
       </c>
       <c r="P18">
-        <v>1.000351160251286</v>
+        <v>1.026935430547945</v>
       </c>
       <c r="Q18">
-        <v>0.9999842362813279</v>
+        <v>0.9988187120547947</v>
       </c>
       <c r="R18">
-        <v>1.000025648793628</v>
+        <v>1.001952315251142</v>
       </c>
       <c r="S18">
-        <v>1.000301085863568</v>
+        <v>1.023090718447489</v>
       </c>
       <c r="T18">
-        <v>1.000025648793629</v>
+        <v>1.001952315251142</v>
       </c>
       <c r="U18">
-        <v>1.000069470867255</v>
+        <v>1.00531456</v>
       </c>
       <c r="V18">
-        <v>0.9999305018694666</v>
+        <v>0.9946488649315072</v>
       </c>
       <c r="W18">
-        <v>1.000061550881873</v>
+        <v>1.004714516318493</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1837,67 +1807,777 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.9985326767622211</v>
+        <v>0.9808824694736842</v>
       </c>
       <c r="D19">
-        <v>1.002188648437274</v>
+        <v>1.049569117368421</v>
       </c>
       <c r="E19">
-        <v>0.9994574690692285</v>
+        <v>0.9489844494736842</v>
       </c>
       <c r="F19">
-        <v>0.9985326767622211</v>
+        <v>0.9489844494736842</v>
       </c>
       <c r="G19">
-        <v>1.000470568697002</v>
+        <v>1.016381651052632</v>
       </c>
       <c r="H19">
-        <v>0.9991880838717946</v>
+        <v>0.9717262494736841</v>
       </c>
       <c r="I19">
-        <v>0.9985326767622211</v>
+        <v>0.9810686431578948</v>
       </c>
       <c r="J19">
-        <v>1.002188648437274</v>
+        <v>1.07620418</v>
       </c>
       <c r="K19">
-        <v>1.000440688434662</v>
+        <v>0.9489844494736842</v>
       </c>
       <c r="L19">
-        <v>0.9994502629097619</v>
+        <v>1.07620418</v>
       </c>
       <c r="M19">
-        <v>1.001423873552513</v>
+        <v>1.015317417894737</v>
       </c>
       <c r="N19">
-        <v>0.9985326767622211</v>
+        <v>0.9489844494736842</v>
       </c>
       <c r="O19">
-        <v>0.9994574690692285</v>
+        <v>0.9810686431578948</v>
       </c>
       <c r="P19">
-        <v>1.000823058753251</v>
+        <v>1.028636411578947</v>
       </c>
       <c r="Q19">
-        <v>0.9999640188831151</v>
+        <v>0.9987251471052632</v>
       </c>
       <c r="R19">
-        <v>1.000059598089575</v>
+        <v>1.00208575754386</v>
       </c>
       <c r="S19">
-        <v>1.000705562067835</v>
+        <v>1.024551491403509</v>
       </c>
       <c r="T19">
-        <v>1.000059598089575</v>
+        <v>1.00208575754386</v>
       </c>
       <c r="U19">
-        <v>1.000162340741432</v>
+        <v>1.005659730921053</v>
       </c>
       <c r="V19">
-        <v>0.9998364079455895</v>
+        <v>0.994324674631579</v>
       </c>
       <c r="W19">
-        <v>1.000144033966807</v>
+        <v>1.005016772236842</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>0.9808824694736842</v>
+      </c>
+      <c r="D20">
+        <v>1.049569117368421</v>
+      </c>
+      <c r="E20">
+        <v>0.9489844494736842</v>
+      </c>
+      <c r="F20">
+        <v>0.9489844494736842</v>
+      </c>
+      <c r="G20">
+        <v>1.016381651052632</v>
+      </c>
+      <c r="H20">
+        <v>0.9717262494736841</v>
+      </c>
+      <c r="I20">
+        <v>0.9810686431578948</v>
+      </c>
+      <c r="J20">
+        <v>1.07620418</v>
+      </c>
+      <c r="K20">
+        <v>0.9489844494736842</v>
+      </c>
+      <c r="L20">
+        <v>1.07620418</v>
+      </c>
+      <c r="M20">
+        <v>1.015317417894737</v>
+      </c>
+      <c r="N20">
+        <v>0.9489844494736842</v>
+      </c>
+      <c r="O20">
+        <v>0.9810686431578948</v>
+      </c>
+      <c r="P20">
+        <v>1.028636411578947</v>
+      </c>
+      <c r="Q20">
+        <v>0.9987251471052632</v>
+      </c>
+      <c r="R20">
+        <v>1.00208575754386</v>
+      </c>
+      <c r="S20">
+        <v>1.024551491403509</v>
+      </c>
+      <c r="T20">
+        <v>1.00208575754386</v>
+      </c>
+      <c r="U20">
+        <v>1.005659730921053</v>
+      </c>
+      <c r="V20">
+        <v>0.994324674631579</v>
+      </c>
+      <c r="W20">
+        <v>1.005016772236842</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>1.003512512846241</v>
+      </c>
+      <c r="D21">
+        <v>0.99039808277526</v>
+      </c>
+      <c r="E21">
+        <v>1.009257961053271</v>
+      </c>
+      <c r="F21">
+        <v>1.009257961053271</v>
+      </c>
+      <c r="G21">
+        <v>0.9968278730740847</v>
+      </c>
+      <c r="H21">
+        <v>1.00555634199889</v>
+      </c>
+      <c r="I21">
+        <v>1.004083142202896</v>
+      </c>
+      <c r="J21">
+        <v>0.9851348086546712</v>
+      </c>
+      <c r="K21">
+        <v>1.009257961053271</v>
+      </c>
+      <c r="L21">
+        <v>0.9851348086546712</v>
+      </c>
+      <c r="M21">
+        <v>0.9972617311560219</v>
+      </c>
+      <c r="N21">
+        <v>1.009257961053271</v>
+      </c>
+      <c r="O21">
+        <v>1.004083142202896</v>
+      </c>
+      <c r="P21">
+        <v>0.9946089754287837</v>
+      </c>
+      <c r="Q21">
+        <v>1.00045550763849</v>
+      </c>
+      <c r="R21">
+        <v>0.9994919706369462</v>
+      </c>
+      <c r="S21">
+        <v>0.9953486079772174</v>
+      </c>
+      <c r="T21">
+        <v>0.9994919706369462</v>
+      </c>
+      <c r="U21">
+        <v>0.9988259462462308</v>
+      </c>
+      <c r="V21">
+        <v>1.000912349207639</v>
+      </c>
+      <c r="W21">
+        <v>0.9990040567201671</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>1.0009942597083</v>
+      </c>
+      <c r="D22">
+        <v>0.997610378315901</v>
+      </c>
+      <c r="E22">
+        <v>1.002697115514953</v>
+      </c>
+      <c r="F22">
+        <v>1.002697115514953</v>
+      </c>
+      <c r="G22">
+        <v>0.9992098461689657</v>
+      </c>
+      <c r="H22">
+        <v>1.001332731236358</v>
+      </c>
+      <c r="I22">
+        <v>1.000754173015497</v>
+      </c>
+      <c r="J22">
+        <v>0.9963659284845211</v>
+      </c>
+      <c r="K22">
+        <v>1.002697115514953</v>
+      </c>
+      <c r="L22">
+        <v>0.9963659284845211</v>
+      </c>
+      <c r="M22">
+        <v>0.9991744050892001</v>
+      </c>
+      <c r="N22">
+        <v>1.002697115514953</v>
+      </c>
+      <c r="O22">
+        <v>1.000754173015497</v>
+      </c>
+      <c r="P22">
+        <v>0.998560050750009</v>
+      </c>
+      <c r="Q22">
+        <v>0.9999820095922312</v>
+      </c>
+      <c r="R22">
+        <v>0.9999390723383237</v>
+      </c>
+      <c r="S22">
+        <v>0.9987766492229945</v>
+      </c>
+      <c r="T22">
+        <v>0.9999390723383237</v>
+      </c>
+      <c r="U22">
+        <v>0.9997567657959842</v>
+      </c>
+      <c r="V22">
+        <v>1.000344835739778</v>
+      </c>
+      <c r="W22">
+        <v>0.9997673546917121</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>1.008658063000248</v>
+      </c>
+      <c r="D23">
+        <v>0.9776599495876245</v>
+      </c>
+      <c r="E23">
+        <v>1.023129671862989</v>
+      </c>
+      <c r="F23">
+        <v>1.023129671862989</v>
+      </c>
+      <c r="G23">
+        <v>0.992616790466759</v>
+      </c>
+      <c r="H23">
+        <v>1.012725007352464</v>
+      </c>
+      <c r="I23">
+        <v>1.008440267632869</v>
+      </c>
+      <c r="J23">
+        <v>0.9656788526781157</v>
+      </c>
+      <c r="K23">
+        <v>1.023129671862989</v>
+      </c>
+      <c r="L23">
+        <v>0.9656788526781157</v>
+      </c>
+      <c r="M23">
+        <v>0.993046158078209</v>
+      </c>
+      <c r="N23">
+        <v>1.023129671862989</v>
+      </c>
+      <c r="O23">
+        <v>1.008440267632869</v>
+      </c>
+      <c r="P23">
+        <v>0.9870595601554923</v>
+      </c>
+      <c r="Q23">
+        <v>1.000528529049814</v>
+      </c>
+      <c r="R23">
+        <v>0.9990829307246578</v>
+      </c>
+      <c r="S23">
+        <v>0.9889119702592479</v>
+      </c>
+      <c r="T23">
+        <v>0.9990829307246578</v>
+      </c>
+      <c r="U23">
+        <v>0.9974663956601831</v>
+      </c>
+      <c r="V23">
+        <v>1.002599050900744</v>
+      </c>
+      <c r="W23">
+        <v>0.9977443450824096</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>1.002206115577125</v>
+      </c>
+      <c r="D24">
+        <v>0.9941891788109908</v>
+      </c>
+      <c r="E24">
+        <v>1.005865936989239</v>
+      </c>
+      <c r="F24">
+        <v>1.005865936989239</v>
+      </c>
+      <c r="G24">
+        <v>0.9980798403250863</v>
+      </c>
+      <c r="H24">
+        <v>1.00332901908819</v>
+      </c>
+      <c r="I24">
+        <v>1.002295542145029</v>
+      </c>
+      <c r="J24">
+        <v>0.991047796534645</v>
+      </c>
+      <c r="K24">
+        <v>1.005865936989239</v>
+      </c>
+      <c r="L24">
+        <v>0.991047796534645</v>
+      </c>
+      <c r="M24">
+        <v>0.9982463486991924</v>
+      </c>
+      <c r="N24">
+        <v>1.005865936989239</v>
+      </c>
+      <c r="O24">
+        <v>1.002295542145029</v>
+      </c>
+      <c r="P24">
+        <v>0.9966716693398372</v>
+      </c>
+      <c r="Q24">
+        <v>1.000187691235058</v>
+      </c>
+      <c r="R24">
+        <v>0.999736425222971</v>
+      </c>
+      <c r="S24">
+        <v>0.9971410596682535</v>
+      </c>
+      <c r="T24">
+        <v>0.999736425222971</v>
+      </c>
+      <c r="U24">
+        <v>0.9993222789984999</v>
+      </c>
+      <c r="V24">
+        <v>1.000631010596648</v>
+      </c>
+      <c r="W24">
+        <v>0.9994074722711871</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>1.003512512846241</v>
+      </c>
+      <c r="D25">
+        <v>0.99039808277526</v>
+      </c>
+      <c r="E25">
+        <v>1.009257961053271</v>
+      </c>
+      <c r="F25">
+        <v>1.009257961053271</v>
+      </c>
+      <c r="G25">
+        <v>0.9968278730740847</v>
+      </c>
+      <c r="H25">
+        <v>1.00555634199889</v>
+      </c>
+      <c r="I25">
+        <v>1.004083142202896</v>
+      </c>
+      <c r="J25">
+        <v>0.9851348086546712</v>
+      </c>
+      <c r="K25">
+        <v>1.009257961053271</v>
+      </c>
+      <c r="L25">
+        <v>0.9851348086546712</v>
+      </c>
+      <c r="M25">
+        <v>0.9972617311560219</v>
+      </c>
+      <c r="N25">
+        <v>1.009257961053271</v>
+      </c>
+      <c r="O25">
+        <v>1.004083142202896</v>
+      </c>
+      <c r="P25">
+        <v>0.9946089754287837</v>
+      </c>
+      <c r="Q25">
+        <v>1.00045550763849</v>
+      </c>
+      <c r="R25">
+        <v>0.9994919706369462</v>
+      </c>
+      <c r="S25">
+        <v>0.9953486079772174</v>
+      </c>
+      <c r="T25">
+        <v>0.9994919706369462</v>
+      </c>
+      <c r="U25">
+        <v>0.9988259462462308</v>
+      </c>
+      <c r="V25">
+        <v>1.000912349207639</v>
+      </c>
+      <c r="W25">
+        <v>0.999004056720167</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>1.0009942597083</v>
+      </c>
+      <c r="D26">
+        <v>0.997610378315901</v>
+      </c>
+      <c r="E26">
+        <v>1.002697115514953</v>
+      </c>
+      <c r="F26">
+        <v>1.002697115514953</v>
+      </c>
+      <c r="G26">
+        <v>0.9992098461689657</v>
+      </c>
+      <c r="H26">
+        <v>1.001332731236358</v>
+      </c>
+      <c r="I26">
+        <v>1.000754173015497</v>
+      </c>
+      <c r="J26">
+        <v>0.9963659284845212</v>
+      </c>
+      <c r="K26">
+        <v>1.002697115514953</v>
+      </c>
+      <c r="L26">
+        <v>0.9963659284845212</v>
+      </c>
+      <c r="M26">
+        <v>0.9991744050892002</v>
+      </c>
+      <c r="N26">
+        <v>1.002697115514953</v>
+      </c>
+      <c r="O26">
+        <v>1.000754173015497</v>
+      </c>
+      <c r="P26">
+        <v>0.998560050750009</v>
+      </c>
+      <c r="Q26">
+        <v>0.9999820095922312</v>
+      </c>
+      <c r="R26">
+        <v>0.9999390723383237</v>
+      </c>
+      <c r="S26">
+        <v>0.9987766492229945</v>
+      </c>
+      <c r="T26">
+        <v>0.9999390723383237</v>
+      </c>
+      <c r="U26">
+        <v>0.9997567657959842</v>
+      </c>
+      <c r="V26">
+        <v>1.000344835739778</v>
+      </c>
+      <c r="W26">
+        <v>0.9997673546917121</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>0.9972089625946605</v>
+      </c>
+      <c r="D27">
+        <v>1.007244742186753</v>
+      </c>
+      <c r="E27">
+        <v>0.9925539214800553</v>
+      </c>
+      <c r="F27">
+        <v>0.9925539214800553</v>
+      </c>
+      <c r="G27">
+        <v>1.002394220050903</v>
+      </c>
+      <c r="H27">
+        <v>0.995866394954801</v>
+      </c>
+      <c r="I27">
+        <v>0.9972263926070266</v>
+      </c>
+      <c r="J27">
+        <v>1.011139264332678</v>
+      </c>
+      <c r="K27">
+        <v>0.9925539214800553</v>
+      </c>
+      <c r="L27">
+        <v>1.011139264332678</v>
+      </c>
+      <c r="M27">
+        <v>1.002235017196369</v>
+      </c>
+      <c r="N27">
+        <v>0.9925539214800553</v>
+      </c>
+      <c r="O27">
+        <v>0.9972263926070266</v>
+      </c>
+      <c r="P27">
+        <v>1.004182828469852</v>
+      </c>
+      <c r="Q27">
+        <v>0.9998103063289647</v>
+      </c>
+      <c r="R27">
+        <v>1.00030652613992</v>
+      </c>
+      <c r="S27">
+        <v>1.003586625663536</v>
+      </c>
+      <c r="T27">
+        <v>1.00030652613992</v>
+      </c>
+      <c r="U27">
+        <v>1.000828449617666</v>
+      </c>
+      <c r="V27">
+        <v>0.9991735439901437</v>
+      </c>
+      <c r="W27">
+        <v>1.000733614425406</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>0.9986095773060059</v>
+      </c>
+      <c r="D28">
+        <v>1.00346343500097</v>
+      </c>
+      <c r="E28">
+        <v>0.99625662145127</v>
+      </c>
+      <c r="F28">
+        <v>0.99625662145127</v>
+      </c>
+      <c r="G28">
+        <v>1.0011449179039</v>
+      </c>
+      <c r="H28">
+        <v>0.9980472828319188</v>
+      </c>
+      <c r="I28">
+        <v>0.9987964901700164</v>
+      </c>
+      <c r="J28">
+        <v>1.005294674182376</v>
+      </c>
+      <c r="K28">
+        <v>0.99625662145127</v>
+      </c>
+      <c r="L28">
+        <v>1.005294674182376</v>
+      </c>
+      <c r="M28">
+        <v>1.001135825051361</v>
+      </c>
+      <c r="N28">
+        <v>0.99625662145127</v>
+      </c>
+      <c r="O28">
+        <v>0.9987964901700164</v>
+      </c>
+      <c r="P28">
+        <v>1.002045582176196</v>
+      </c>
+      <c r="Q28">
+        <v>0.9999707040369582</v>
+      </c>
+      <c r="R28">
+        <v>1.000115928601221</v>
+      </c>
+      <c r="S28">
+        <v>1.001745360752097</v>
+      </c>
+      <c r="T28">
+        <v>1.000115928601221</v>
+      </c>
+      <c r="U28">
+        <v>1.000373175926891</v>
+      </c>
+      <c r="V28">
+        <v>0.9995498650317665</v>
+      </c>
+      <c r="W28">
+        <v>1.000343602987227</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>1.007122524458665</v>
+      </c>
+      <c r="D29">
+        <v>0.9812479578900459</v>
+      </c>
+      <c r="E29">
+        <v>1.018940382327925</v>
+      </c>
+      <c r="F29">
+        <v>1.018940382327925</v>
+      </c>
+      <c r="G29">
+        <v>0.9938034489559029</v>
+      </c>
+      <c r="H29">
+        <v>1.010741712007964</v>
+      </c>
+      <c r="I29">
+        <v>1.007400951800301</v>
+      </c>
+      <c r="J29">
+        <v>0.9711121613928648</v>
+      </c>
+      <c r="K29">
+        <v>1.018940382327925</v>
+      </c>
+      <c r="L29">
+        <v>0.9711121613928648</v>
+      </c>
+      <c r="M29">
+        <v>0.994336984453265</v>
+      </c>
+      <c r="N29">
+        <v>1.018940382327925</v>
+      </c>
+      <c r="O29">
+        <v>1.007400951800301</v>
+      </c>
+      <c r="P29">
+        <v>0.9892565565965827</v>
+      </c>
+      <c r="Q29">
+        <v>1.000602200378102</v>
+      </c>
+      <c r="R29">
+        <v>0.999151165173697</v>
+      </c>
+      <c r="S29">
+        <v>0.9907721873830228</v>
+      </c>
+      <c r="T29">
+        <v>0.999151165173697</v>
+      </c>
+      <c r="U29">
+        <v>0.9978142361192485</v>
+      </c>
+      <c r="V29">
+        <v>1.002039465360984</v>
+      </c>
+      <c r="W29">
+        <v>0.9980882654108668</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/CubeA-HW40.xlsx
+++ b/JupyterNotebooks/AvgHW/CubeA-HW40.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>HKL</t>
   </si>
@@ -22,6 +22,12 @@
     <t>Spiral5</t>
   </si>
   <si>
+    <t>Holden</t>
+  </si>
+  <si>
+    <t>Rizzie Spiral</t>
+  </si>
+  <si>
     <t>RotRing OmegaMax-90</t>
   </si>
   <si>
@@ -37,7 +43,7 @@
     <t>Rizzie Hex</t>
   </si>
   <si>
-    <t>Thomas Hex</t>
+    <t>Matthies Hex</t>
   </si>
   <si>
     <t>Tilt Rotate_Partial</t>
@@ -518,7 +524,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W29"/>
+  <dimension ref="A1:W31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -600,67 +606,67 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="L2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="M2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="N2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="O2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="P2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="Q2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="R2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="S2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="T2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="U2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="V2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="W2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -742,67 +748,67 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.9933748444461082</v>
+        <v>0.9934726827217643</v>
       </c>
       <c r="D4">
-        <v>1.01728088801443</v>
+        <v>1.017035335519111</v>
       </c>
       <c r="E4">
-        <v>0.9823445837488719</v>
+        <v>0.982607558707121</v>
       </c>
       <c r="F4">
-        <v>0.9823445837488719</v>
+        <v>0.982607558707121</v>
       </c>
       <c r="G4">
-        <v>1.005710770948294</v>
+        <v>1.005629600610228</v>
       </c>
       <c r="H4">
-        <v>0.9901266265479088</v>
+        <v>0.9902653808638124</v>
       </c>
       <c r="I4">
-        <v>0.9933136455782664</v>
+        <v>0.9934005910594292</v>
       </c>
       <c r="J4">
-        <v>1.026588046597773</v>
+        <v>1.026212257199679</v>
       </c>
       <c r="K4">
-        <v>0.9823445837488719</v>
+        <v>0.982607558707121</v>
       </c>
       <c r="L4">
-        <v>1.026588046597773</v>
+        <v>1.026212257199679</v>
       </c>
       <c r="M4">
-        <v>1.005292422849216</v>
+        <v>1.005212786938636</v>
       </c>
       <c r="N4">
-        <v>0.9823445837488719</v>
+        <v>0.982607558707121</v>
       </c>
       <c r="O4">
-        <v>0.9933136455782664</v>
+        <v>0.9934005910594292</v>
       </c>
       <c r="P4">
-        <v>1.00995084608802</v>
+        <v>1.009806424129554</v>
       </c>
       <c r="Q4">
-        <v>0.9995122082632801</v>
+        <v>0.9995150958348287</v>
       </c>
       <c r="R4">
-        <v>1.000748758641637</v>
+        <v>1.00074013565541</v>
       </c>
       <c r="S4">
-        <v>1.008537487708111</v>
+        <v>1.008414149623112</v>
       </c>
       <c r="T4">
-        <v>1.000748758641637</v>
+        <v>1.00074013565541</v>
       </c>
       <c r="U4">
-        <v>1.001989261718301</v>
+        <v>1.001962501894115</v>
       </c>
       <c r="V4">
-        <v>0.9980603261244155</v>
+        <v>0.9980915132567159</v>
       </c>
       <c r="W4">
-        <v>1.001753978591359</v>
+        <v>1.001729524202473</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -813,67 +819,67 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.9919175533573482</v>
+        <v>0.9837191538085051</v>
       </c>
       <c r="D5">
-        <v>1.021087542586457</v>
+        <v>1.042111082797261</v>
       </c>
       <c r="E5">
-        <v>0.978462314697408</v>
+        <v>0.956530226749408</v>
       </c>
       <c r="F5">
-        <v>0.978462314697408</v>
+        <v>0.956530226749408</v>
       </c>
       <c r="G5">
-        <v>1.006968733523059</v>
+        <v>1.013917143562421</v>
       </c>
       <c r="H5">
-        <v>0.9879508296902003</v>
+        <v>0.975996785150762</v>
       </c>
       <c r="I5">
-        <v>0.9918361772766584</v>
+        <v>0.9840035750825074</v>
       </c>
       <c r="J5">
-        <v>1.032446038213255</v>
+        <v>1.064717093562117</v>
       </c>
       <c r="K5">
-        <v>0.978462314697408</v>
+        <v>0.956530226749408</v>
       </c>
       <c r="L5">
-        <v>1.032446038213255</v>
+        <v>1.064717093562117</v>
       </c>
       <c r="M5">
-        <v>1.006455723991354</v>
+        <v>1.013060418007667</v>
       </c>
       <c r="N5">
-        <v>0.978462314697408</v>
+        <v>0.956530226749408</v>
       </c>
       <c r="O5">
-        <v>0.9918361772766584</v>
+        <v>0.9840035750825074</v>
       </c>
       <c r="P5">
-        <v>1.012141107744957</v>
+        <v>1.024360334322312</v>
       </c>
       <c r="Q5">
-        <v>0.9994024553998589</v>
+        <v>0.9989603593224643</v>
       </c>
       <c r="R5">
-        <v>1.000914843395774</v>
+        <v>1.001750298464678</v>
       </c>
       <c r="S5">
-        <v>1.010416983004324</v>
+        <v>1.020879270735682</v>
       </c>
       <c r="T5">
-        <v>1.000914843395774</v>
+        <v>1.001750298464678</v>
       </c>
       <c r="U5">
-        <v>1.002428315927595</v>
+        <v>1.004792009739114</v>
       </c>
       <c r="V5">
-        <v>0.9976351156815578</v>
+        <v>0.9951396531411725</v>
       </c>
       <c r="W5">
-        <v>1.002140614166968</v>
+        <v>1.004256934840081</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -884,67 +890,67 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.9734331778712669</v>
+        <v>0.9933748444461082</v>
       </c>
       <c r="D6">
-        <v>1.069438764241236</v>
+        <v>1.01728088801443</v>
       </c>
       <c r="E6">
-        <v>0.9292350920078334</v>
+        <v>0.9823445837488719</v>
       </c>
       <c r="F6">
-        <v>0.9292350920078334</v>
+        <v>0.9823445837488719</v>
       </c>
       <c r="G6">
-        <v>1.022946945318309</v>
+        <v>1.005710770948294</v>
       </c>
       <c r="H6">
-        <v>0.9603036212538383</v>
+        <v>0.9901266265479088</v>
       </c>
       <c r="I6">
-        <v>0.9730134344763369</v>
+        <v>0.9933136455782664</v>
       </c>
       <c r="J6">
-        <v>1.106866911907752</v>
+        <v>1.026588046597773</v>
       </c>
       <c r="K6">
-        <v>0.9292350920078334</v>
+        <v>0.9823445837488719</v>
       </c>
       <c r="L6">
-        <v>1.106866911907752</v>
+        <v>1.026588046597773</v>
       </c>
       <c r="M6">
-        <v>1.021200710314085</v>
+        <v>1.005292422849216</v>
       </c>
       <c r="N6">
-        <v>0.9292350920078334</v>
+        <v>0.9823445837488719</v>
       </c>
       <c r="O6">
-        <v>0.9730134344763369</v>
+        <v>0.9933136455782664</v>
       </c>
       <c r="P6">
-        <v>1.039940173192044</v>
+        <v>1.00995084608802</v>
       </c>
       <c r="Q6">
-        <v>0.9979801898973231</v>
+        <v>0.9995122082632801</v>
       </c>
       <c r="R6">
-        <v>1.003038479463974</v>
+        <v>1.000748758641637</v>
       </c>
       <c r="S6">
-        <v>1.034275763900799</v>
+        <v>1.008537487708111</v>
       </c>
       <c r="T6">
-        <v>1.003038479463974</v>
+        <v>1.000748758641637</v>
       </c>
       <c r="U6">
-        <v>1.008015595927558</v>
+        <v>1.001989261718301</v>
       </c>
       <c r="V6">
-        <v>0.992259495143613</v>
+        <v>0.9980603261244155</v>
       </c>
       <c r="W6">
-        <v>1.007054832173832</v>
+        <v>1.001753978591359</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -955,67 +961,67 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.9991233382390164</v>
+        <v>0.9919175533573482</v>
       </c>
       <c r="D7">
-        <v>1.002271677427459</v>
+        <v>1.021087542586457</v>
       </c>
       <c r="E7">
-        <v>0.9976602963011122</v>
+        <v>0.978462314697408</v>
       </c>
       <c r="F7">
-        <v>0.9976602963011122</v>
+        <v>0.978462314697408</v>
       </c>
       <c r="G7">
-        <v>1.000750749266318</v>
+        <v>1.006968733523059</v>
       </c>
       <c r="H7">
-        <v>0.9987044832349103</v>
+        <v>0.9879508296902003</v>
       </c>
       <c r="I7">
-        <v>0.9991335679081631</v>
+        <v>0.9918361772766584</v>
       </c>
       <c r="J7">
-        <v>1.003492031249944</v>
+        <v>1.032446038213255</v>
       </c>
       <c r="K7">
-        <v>0.9976602963011122</v>
+        <v>0.978462314697408</v>
       </c>
       <c r="L7">
-        <v>1.003492031249944</v>
+        <v>1.032446038213255</v>
       </c>
       <c r="M7">
-        <v>1.000702608006504</v>
+        <v>1.006455723991354</v>
       </c>
       <c r="N7">
-        <v>0.9976602963011122</v>
+        <v>0.978462314697408</v>
       </c>
       <c r="O7">
-        <v>0.9991335679081631</v>
+        <v>0.9918361772766584</v>
       </c>
       <c r="P7">
-        <v>1.001312799579054</v>
+        <v>1.012141107744957</v>
       </c>
       <c r="Q7">
-        <v>0.9999421585872408</v>
+        <v>0.9994024553998589</v>
       </c>
       <c r="R7">
-        <v>1.000095298486407</v>
+        <v>1.000914843395774</v>
       </c>
       <c r="S7">
-        <v>1.001125449474809</v>
+        <v>1.010416983004324</v>
       </c>
       <c r="T7">
-        <v>1.000095298486407</v>
+        <v>1.000914843395774</v>
       </c>
       <c r="U7">
-        <v>1.000259161181384</v>
+        <v>1.002428315927595</v>
       </c>
       <c r="V7">
-        <v>0.99973938820533</v>
+        <v>0.9976351156815578</v>
       </c>
       <c r="W7">
-        <v>1.000229843954179</v>
+        <v>1.002140614166968</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -1026,67 +1032,67 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.9999336028516159</v>
+        <v>0.9734331778712669</v>
       </c>
       <c r="D8">
-        <v>1.000172840622855</v>
+        <v>1.069438764241236</v>
       </c>
       <c r="E8">
-        <v>0.9998229867315456</v>
+        <v>0.9292350920078334</v>
       </c>
       <c r="F8">
-        <v>0.9998229867315456</v>
+        <v>0.9292350920078334</v>
       </c>
       <c r="G8">
-        <v>1.00005711935886</v>
+        <v>1.022946945318309</v>
       </c>
       <c r="H8">
-        <v>0.999901307204188</v>
+        <v>0.9603036212538383</v>
       </c>
       <c r="I8">
-        <v>0.9999334128615736</v>
+        <v>0.9730134344763369</v>
       </c>
       <c r="J8">
-        <v>1.000265857808287</v>
+        <v>1.106866911907752</v>
       </c>
       <c r="K8">
-        <v>0.9998229867315456</v>
+        <v>0.9292350920078334</v>
       </c>
       <c r="L8">
-        <v>1.000265857808287</v>
+        <v>1.106866911907752</v>
       </c>
       <c r="M8">
-        <v>1.000053087618617</v>
+        <v>1.021200710314085</v>
       </c>
       <c r="N8">
-        <v>0.9998229867315456</v>
+        <v>0.9292350920078334</v>
       </c>
       <c r="O8">
-        <v>0.9999334128615736</v>
+        <v>0.9730134344763369</v>
       </c>
       <c r="P8">
-        <v>1.000099635334931</v>
+        <v>1.039940173192044</v>
       </c>
       <c r="Q8">
-        <v>0.9999952661102169</v>
+        <v>0.9979801898973231</v>
       </c>
       <c r="R8">
-        <v>1.000007419133802</v>
+        <v>1.003038479463974</v>
       </c>
       <c r="S8">
-        <v>1.000085463342907</v>
+        <v>1.034275763900799</v>
       </c>
       <c r="T8">
-        <v>1.000007419133802</v>
+        <v>1.003038479463974</v>
       </c>
       <c r="U8">
-        <v>1.000019844190067</v>
+        <v>1.008015595927558</v>
       </c>
       <c r="V8">
-        <v>0.9999804726983624</v>
+        <v>0.992259495143613</v>
       </c>
       <c r="W8">
-        <v>1.000017526882193</v>
+        <v>1.007054832173832</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1097,67 +1103,67 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.9985289825605073</v>
+        <v>0.9991233382390164</v>
       </c>
       <c r="D9">
-        <v>1.003811103022706</v>
+        <v>1.002271677427459</v>
       </c>
       <c r="E9">
-        <v>0.9960738592919095</v>
+        <v>0.9976602963011122</v>
       </c>
       <c r="F9">
-        <v>0.9960738592919095</v>
+        <v>0.9976602963011122</v>
       </c>
       <c r="G9">
-        <v>1.001259503391195</v>
+        <v>1.000750749266318</v>
       </c>
       <c r="H9">
-        <v>0.9978266757183147</v>
+        <v>0.9987044832349103</v>
       </c>
       <c r="I9">
-        <v>0.9985470258190545</v>
+        <v>0.9991335679081631</v>
       </c>
       <c r="J9">
-        <v>1.00585829313776</v>
+        <v>1.003492031249944</v>
       </c>
       <c r="K9">
-        <v>0.9960738592919095</v>
+        <v>0.9976602963011122</v>
       </c>
       <c r="L9">
-        <v>1.00585829313776</v>
+        <v>1.003492031249944</v>
       </c>
       <c r="M9">
-        <v>1.001179075508591</v>
+        <v>1.000702608006504</v>
       </c>
       <c r="N9">
-        <v>0.9960738592919095</v>
+        <v>0.9976602963011122</v>
       </c>
       <c r="O9">
-        <v>0.9985470258190545</v>
+        <v>0.9991335679081631</v>
       </c>
       <c r="P9">
-        <v>1.002202659478407</v>
+        <v>1.001312799579054</v>
       </c>
       <c r="Q9">
-        <v>0.9999032646051249</v>
+        <v>0.9999421585872408</v>
       </c>
       <c r="R9">
-        <v>1.000159726082908</v>
+        <v>1.000095298486407</v>
       </c>
       <c r="S9">
-        <v>1.001888274116003</v>
+        <v>1.001125449474809</v>
       </c>
       <c r="T9">
-        <v>1.000159726082908</v>
+        <v>1.000095298486407</v>
       </c>
       <c r="U9">
-        <v>1.00043467040998</v>
+        <v>1.000259161181384</v>
       </c>
       <c r="V9">
-        <v>0.9995625081863657</v>
+        <v>0.99973938820533</v>
       </c>
       <c r="W9">
-        <v>1.000385564806255</v>
+        <v>1.000229843954179</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1168,67 +1174,67 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.9730397905978377</v>
+        <v>0.9999336028516159</v>
       </c>
       <c r="D10">
-        <v>1.070472578061777</v>
+        <v>1.000172840622855</v>
       </c>
       <c r="E10">
-        <v>0.928188546257785</v>
+        <v>0.9998229867315456</v>
       </c>
       <c r="F10">
-        <v>0.928188546257785</v>
+        <v>0.9998229867315456</v>
       </c>
       <c r="G10">
-        <v>1.023288569631285</v>
+        <v>1.00005711935886</v>
       </c>
       <c r="H10">
-        <v>0.9597117219787774</v>
+        <v>0.999901307204188</v>
       </c>
       <c r="I10">
-        <v>0.972606980445324</v>
+        <v>0.9999334128615736</v>
       </c>
       <c r="J10">
-        <v>1.108459128935277</v>
+        <v>1.000265857808287</v>
       </c>
       <c r="K10">
-        <v>0.928188546257785</v>
+        <v>0.9998229867315456</v>
       </c>
       <c r="L10">
-        <v>1.108459128935277</v>
+        <v>1.000265857808287</v>
       </c>
       <c r="M10">
-        <v>1.021513778647907</v>
+        <v>1.000053087618617</v>
       </c>
       <c r="N10">
-        <v>0.928188546257785</v>
+        <v>0.9998229867315456</v>
       </c>
       <c r="O10">
-        <v>0.972606980445324</v>
+        <v>0.9999334128615736</v>
       </c>
       <c r="P10">
-        <v>1.040533054690301</v>
+        <v>1.000099635334931</v>
       </c>
       <c r="Q10">
-        <v>0.9979477750383043</v>
+        <v>0.9999952661102169</v>
       </c>
       <c r="R10">
-        <v>1.003084885212796</v>
+        <v>1.000007419133802</v>
       </c>
       <c r="S10">
-        <v>1.034784893003962</v>
+        <v>1.000085463342907</v>
       </c>
       <c r="T10">
-        <v>1.003084885212795</v>
+        <v>1.000007419133802</v>
       </c>
       <c r="U10">
-        <v>1.008135806317418</v>
+        <v>1.000019844190067</v>
       </c>
       <c r="V10">
-        <v>0.9921463543054913</v>
+        <v>0.9999804726983624</v>
       </c>
       <c r="W10">
-        <v>1.007160136819496</v>
+        <v>1.000017526882193</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1239,67 +1245,67 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.9959829260338153</v>
+        <v>0.9985289825605073</v>
       </c>
       <c r="D11">
-        <v>1.010555629034657</v>
+        <v>1.003811103022706</v>
       </c>
       <c r="E11">
-        <v>0.9893129618623119</v>
+        <v>0.9960738592919095</v>
       </c>
       <c r="F11">
-        <v>0.9893129618623119</v>
+        <v>0.9960738592919095</v>
       </c>
       <c r="G11">
-        <v>1.00348811737796</v>
+        <v>1.001259503391195</v>
       </c>
       <c r="H11">
-        <v>0.9939566817414931</v>
+        <v>0.9978266757183147</v>
       </c>
       <c r="I11">
-        <v>0.9958509047986396</v>
+        <v>0.9985470258190545</v>
       </c>
       <c r="J11">
-        <v>1.016256890799811</v>
+        <v>1.00585829313776</v>
       </c>
       <c r="K11">
-        <v>0.9893129618623119</v>
+        <v>0.9960738592919095</v>
       </c>
       <c r="L11">
-        <v>1.016256890799811</v>
+        <v>1.00585829313776</v>
       </c>
       <c r="M11">
-        <v>1.003197053653765</v>
+        <v>1.001179075508591</v>
       </c>
       <c r="N11">
-        <v>0.9893129618623119</v>
+        <v>0.9960738592919095</v>
       </c>
       <c r="O11">
-        <v>0.9958509047986396</v>
+        <v>0.9985470258190545</v>
       </c>
       <c r="P11">
-        <v>1.006053897799225</v>
+        <v>1.002202659478407</v>
       </c>
       <c r="Q11">
-        <v>0.9996695110882998</v>
+        <v>0.9999032646051249</v>
       </c>
       <c r="R11">
-        <v>1.000473585820254</v>
+        <v>1.000159726082908</v>
       </c>
       <c r="S11">
-        <v>1.005198637658803</v>
+        <v>1.001888274116003</v>
       </c>
       <c r="T11">
-        <v>1.000473585820254</v>
+        <v>1.000159726082908</v>
       </c>
       <c r="U11">
-        <v>1.00122721870968</v>
+        <v>1.00043467040998</v>
       </c>
       <c r="V11">
-        <v>0.9988443673402067</v>
+        <v>0.9995625081863657</v>
       </c>
       <c r="W11">
-        <v>1.001075145662807</v>
+        <v>1.000385564806255</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1310,67 +1316,67 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.9918469530105267</v>
+        <v>0.9730397905978377</v>
       </c>
       <c r="D12">
-        <v>1.021307059357899</v>
+        <v>1.070472578061777</v>
       </c>
       <c r="E12">
-        <v>0.9782824080526334</v>
+        <v>0.928188546257785</v>
       </c>
       <c r="F12">
-        <v>0.9782824080526334</v>
+        <v>0.928188546257785</v>
       </c>
       <c r="G12">
-        <v>1.007041196768421</v>
+        <v>1.023288569631285</v>
       </c>
       <c r="H12">
-        <v>0.9878197564736819</v>
+        <v>0.9597117219787774</v>
       </c>
       <c r="I12">
-        <v>0.9917216687263135</v>
+        <v>0.972606980445324</v>
       </c>
       <c r="J12">
-        <v>1.032791166947373</v>
+        <v>1.108459128935277</v>
       </c>
       <c r="K12">
-        <v>0.9782824080526334</v>
+        <v>0.928188546257785</v>
       </c>
       <c r="L12">
-        <v>1.032791166947373</v>
+        <v>1.108459128935277</v>
       </c>
       <c r="M12">
-        <v>1.006506687494737</v>
+        <v>1.021513778647907</v>
       </c>
       <c r="N12">
-        <v>0.9782824080526334</v>
+        <v>0.928188546257785</v>
       </c>
       <c r="O12">
-        <v>0.9917216687263135</v>
+        <v>0.972606980445324</v>
       </c>
       <c r="P12">
-        <v>1.012256417836843</v>
+        <v>1.040533054690301</v>
       </c>
       <c r="Q12">
-        <v>0.9993814327473673</v>
+        <v>0.9979477750383043</v>
       </c>
       <c r="R12">
-        <v>1.000931747908773</v>
+        <v>1.003084885212796</v>
       </c>
       <c r="S12">
-        <v>1.010518010814036</v>
+        <v>1.034784893003962</v>
       </c>
       <c r="T12">
-        <v>1.000931747908773</v>
+        <v>1.003084885212795</v>
       </c>
       <c r="U12">
-        <v>1.002459110123685</v>
+        <v>1.008135806317418</v>
       </c>
       <c r="V12">
-        <v>0.997623769709475</v>
+        <v>0.9921463543054913</v>
       </c>
       <c r="W12">
-        <v>1.002164612103948</v>
+        <v>1.007160136819496</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -1381,67 +1387,67 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>1.005319264593546</v>
+        <v>0.9959829260338153</v>
       </c>
       <c r="D13">
-        <v>0.9861534087814903</v>
+        <v>1.010555629034657</v>
       </c>
       <c r="E13">
-        <v>1.014181886423239</v>
+        <v>0.9893129618623119</v>
       </c>
       <c r="F13">
-        <v>1.014181886423239</v>
+        <v>0.9893129618623119</v>
       </c>
       <c r="G13">
-        <v>0.9954240906523727</v>
+        <v>1.00348811737796</v>
       </c>
       <c r="H13">
-        <v>1.007906721398782</v>
+        <v>0.9939566817414931</v>
       </c>
       <c r="I13">
-        <v>1.005334093207468</v>
+        <v>0.9958509047986396</v>
       </c>
       <c r="J13">
-        <v>0.9787017583366814</v>
+        <v>1.016256890799811</v>
       </c>
       <c r="K13">
-        <v>1.014181886423239</v>
+        <v>0.9893129618623119</v>
       </c>
       <c r="L13">
-        <v>0.9787017583366814</v>
+        <v>1.016256890799811</v>
       </c>
       <c r="M13">
-        <v>0.9957464492590938</v>
+        <v>1.003197053653765</v>
       </c>
       <c r="N13">
-        <v>1.014181886423239</v>
+        <v>0.9893129618623119</v>
       </c>
       <c r="O13">
-        <v>1.005334093207468</v>
+        <v>0.9958509047986396</v>
       </c>
       <c r="P13">
-        <v>0.9920179257720747</v>
+        <v>1.006053897799225</v>
       </c>
       <c r="Q13">
-        <v>1.00037909192992</v>
+        <v>0.9996695110882998</v>
       </c>
       <c r="R13">
-        <v>0.999405912655796</v>
+        <v>1.000473585820254</v>
       </c>
       <c r="S13">
-        <v>0.9931533140655073</v>
+        <v>1.005198637658803</v>
       </c>
       <c r="T13">
-        <v>0.999405912655796</v>
+        <v>1.000473585820254</v>
       </c>
       <c r="U13">
-        <v>0.9984104571549401</v>
+        <v>1.00122721870968</v>
       </c>
       <c r="V13">
-        <v>1.0015647430086</v>
+        <v>0.9988443673402067</v>
       </c>
       <c r="W13">
-        <v>0.9985959590815841</v>
+        <v>1.001075145662807</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -1452,67 +1458,67 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.9534246200000004</v>
+        <v>0.9918469530105267</v>
       </c>
       <c r="D14">
-        <v>1.1217596</v>
+        <v>1.021307059357899</v>
       </c>
       <c r="E14">
-        <v>0.8759446600000014</v>
+        <v>0.9782824080526334</v>
       </c>
       <c r="F14">
-        <v>0.8759446600000014</v>
+        <v>0.9782824080526334</v>
       </c>
       <c r="G14">
-        <v>1.040237</v>
+        <v>1.007041196768421</v>
       </c>
       <c r="H14">
-        <v>0.9303893499999991</v>
+        <v>0.9878197564736819</v>
       </c>
       <c r="I14">
-        <v>0.9526597999999998</v>
+        <v>0.9917216687263135</v>
       </c>
       <c r="J14">
-        <v>1.187394100000001</v>
+        <v>1.032791166947373</v>
       </c>
       <c r="K14">
-        <v>0.8759446600000014</v>
+        <v>0.9782824080526334</v>
       </c>
       <c r="L14">
-        <v>1.187394100000001</v>
+        <v>1.032791166947373</v>
       </c>
       <c r="M14">
-        <v>1.037164200000001</v>
+        <v>1.006506687494737</v>
       </c>
       <c r="N14">
-        <v>0.8759446600000014</v>
+        <v>0.9782824080526334</v>
       </c>
       <c r="O14">
-        <v>0.9526597999999998</v>
+        <v>0.9917216687263135</v>
       </c>
       <c r="P14">
-        <v>1.07002695</v>
+        <v>1.012256417836843</v>
       </c>
       <c r="Q14">
-        <v>0.9964483999999998</v>
+        <v>0.9993814327473673</v>
       </c>
       <c r="R14">
-        <v>1.005332853333334</v>
+        <v>1.000931747908773</v>
       </c>
       <c r="S14">
-        <v>1.060096966666667</v>
+        <v>1.010518010814036</v>
       </c>
       <c r="T14">
-        <v>1.005332853333334</v>
+        <v>1.000931747908773</v>
       </c>
       <c r="U14">
-        <v>1.01405889</v>
+        <v>1.002459110123685</v>
       </c>
       <c r="V14">
-        <v>0.9864360440000006</v>
+        <v>0.997623769709475</v>
       </c>
       <c r="W14">
-        <v>1.01237166625</v>
+        <v>1.002164612103948</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -1523,67 +1529,67 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.9534246199999999</v>
+        <v>1.005319264593546</v>
       </c>
       <c r="D15">
-        <v>1.1217596</v>
+        <v>0.9861534087814903</v>
       </c>
       <c r="E15">
-        <v>0.8759446600000002</v>
+        <v>1.014181886423239</v>
       </c>
       <c r="F15">
-        <v>0.8759446600000002</v>
+        <v>1.014181886423239</v>
       </c>
       <c r="G15">
-        <v>1.040237</v>
+        <v>0.9954240906523727</v>
       </c>
       <c r="H15">
-        <v>0.93038935</v>
+        <v>1.007906721398782</v>
       </c>
       <c r="I15">
-        <v>0.9526597999999999</v>
+        <v>1.005334093207468</v>
       </c>
       <c r="J15">
-        <v>1.1873941</v>
+        <v>0.9787017583366814</v>
       </c>
       <c r="K15">
-        <v>0.8759446600000002</v>
+        <v>1.014181886423239</v>
       </c>
       <c r="L15">
-        <v>1.1873941</v>
+        <v>0.9787017583366814</v>
       </c>
       <c r="M15">
-        <v>1.0371642</v>
+        <v>0.9957464492590938</v>
       </c>
       <c r="N15">
-        <v>0.8759446600000002</v>
+        <v>1.014181886423239</v>
       </c>
       <c r="O15">
-        <v>0.9526597999999999</v>
+        <v>1.005334093207468</v>
       </c>
       <c r="P15">
-        <v>1.07002695</v>
+        <v>0.9920179257720747</v>
       </c>
       <c r="Q15">
-        <v>0.9964484</v>
+        <v>1.00037909192992</v>
       </c>
       <c r="R15">
-        <v>1.005332853333333</v>
+        <v>0.999405912655796</v>
       </c>
       <c r="S15">
-        <v>1.060096966666667</v>
+        <v>0.9931533140655073</v>
       </c>
       <c r="T15">
-        <v>1.005332853333333</v>
+        <v>0.999405912655796</v>
       </c>
       <c r="U15">
-        <v>1.01405889</v>
+        <v>0.9984104571549401</v>
       </c>
       <c r="V15">
-        <v>0.9864360440000001</v>
+        <v>1.0015647430086</v>
       </c>
       <c r="W15">
-        <v>1.01237166625</v>
+        <v>0.9985959590815841</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -1594,64 +1600,64 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.9534246199999999</v>
+        <v>0.9534246200000004</v>
       </c>
       <c r="D16">
         <v>1.1217596</v>
       </c>
       <c r="E16">
-        <v>0.8759446600000002</v>
+        <v>0.8759446600000014</v>
       </c>
       <c r="F16">
-        <v>0.8759446600000002</v>
+        <v>0.8759446600000014</v>
       </c>
       <c r="G16">
         <v>1.040237</v>
       </c>
       <c r="H16">
-        <v>0.93038935</v>
+        <v>0.9303893499999991</v>
       </c>
       <c r="I16">
-        <v>0.9526597999999999</v>
+        <v>0.9526597999999998</v>
       </c>
       <c r="J16">
-        <v>1.1873941</v>
+        <v>1.187394100000001</v>
       </c>
       <c r="K16">
-        <v>0.8759446600000002</v>
+        <v>0.8759446600000014</v>
       </c>
       <c r="L16">
-        <v>1.1873941</v>
+        <v>1.187394100000001</v>
       </c>
       <c r="M16">
-        <v>1.0371642</v>
+        <v>1.037164200000001</v>
       </c>
       <c r="N16">
-        <v>0.8759446600000002</v>
+        <v>0.8759446600000014</v>
       </c>
       <c r="O16">
-        <v>0.9526597999999999</v>
+        <v>0.9526597999999998</v>
       </c>
       <c r="P16">
         <v>1.07002695</v>
       </c>
       <c r="Q16">
-        <v>0.9964484</v>
+        <v>0.9964483999999998</v>
       </c>
       <c r="R16">
-        <v>1.005332853333333</v>
+        <v>1.005332853333334</v>
       </c>
       <c r="S16">
         <v>1.060096966666667</v>
       </c>
       <c r="T16">
-        <v>1.005332853333333</v>
+        <v>1.005332853333334</v>
       </c>
       <c r="U16">
         <v>1.01405889</v>
       </c>
       <c r="V16">
-        <v>0.9864360440000001</v>
+        <v>0.9864360440000006</v>
       </c>
       <c r="W16">
         <v>1.01237166625</v>
@@ -1665,67 +1671,67 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.99689954</v>
+        <v>0.9534246199999999</v>
       </c>
       <c r="D17">
-        <v>1.007458</v>
+        <v>1.1217596</v>
       </c>
       <c r="E17">
-        <v>0.99159098</v>
+        <v>0.8759446600000002</v>
       </c>
       <c r="F17">
-        <v>0.99159098</v>
+        <v>0.8759446600000002</v>
       </c>
       <c r="G17">
-        <v>1.002466</v>
+        <v>1.040237</v>
       </c>
       <c r="H17">
-        <v>0.99583944</v>
+        <v>0.93038935</v>
       </c>
       <c r="I17">
-        <v>0.99764046</v>
+        <v>0.9526597999999999</v>
       </c>
       <c r="J17">
-        <v>1.0113434</v>
+        <v>1.1873941</v>
       </c>
       <c r="K17">
-        <v>0.99159098</v>
+        <v>0.8759446600000002</v>
       </c>
       <c r="L17">
-        <v>1.0113434</v>
+        <v>1.1873941</v>
       </c>
       <c r="M17">
-        <v>1.0025735</v>
+        <v>1.0371642</v>
       </c>
       <c r="N17">
-        <v>0.99159098</v>
+        <v>0.8759446600000002</v>
       </c>
       <c r="O17">
-        <v>0.99764046</v>
+        <v>0.9526597999999999</v>
       </c>
       <c r="P17">
-        <v>1.00449193</v>
+        <v>1.07002695</v>
       </c>
       <c r="Q17">
-        <v>1.00005323</v>
+        <v>0.9964484</v>
       </c>
       <c r="R17">
-        <v>1.000191613333333</v>
+        <v>1.005332853333333</v>
       </c>
       <c r="S17">
-        <v>1.00381662</v>
+        <v>1.060096966666667</v>
       </c>
       <c r="T17">
-        <v>1.000191613333333</v>
+        <v>1.005332853333333</v>
       </c>
       <c r="U17">
-        <v>1.00076021</v>
+        <v>1.01405889</v>
       </c>
       <c r="V17">
-        <v>0.9989263640000001</v>
+        <v>0.9864360440000001</v>
       </c>
       <c r="W17">
-        <v>1.000726415</v>
+        <v>1.01237166625</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1736,67 +1742,67 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.9820108742465754</v>
+        <v>0.9534246199999999</v>
       </c>
       <c r="D18">
-        <v>1.04660238520548</v>
+        <v>1.1217596</v>
       </c>
       <c r="E18">
-        <v>0.9519860846575346</v>
+        <v>0.8759446600000002</v>
       </c>
       <c r="F18">
-        <v>0.9519860846575346</v>
+        <v>0.8759446600000002</v>
       </c>
       <c r="G18">
-        <v>1.015401294246576</v>
+        <v>1.040237</v>
       </c>
       <c r="H18">
-        <v>0.973425026164384</v>
+        <v>0.93038935</v>
       </c>
       <c r="I18">
-        <v>0.9822361298630139</v>
+        <v>0.9526597999999999</v>
       </c>
       <c r="J18">
-        <v>1.071634731232877</v>
+        <v>1.1873941</v>
       </c>
       <c r="K18">
-        <v>0.9519860846575346</v>
+        <v>0.8759446600000002</v>
       </c>
       <c r="L18">
-        <v>1.071634731232877</v>
+        <v>1.1873941</v>
       </c>
       <c r="M18">
-        <v>1.014419604931507</v>
+        <v>1.0371642</v>
       </c>
       <c r="N18">
-        <v>0.9519860846575346</v>
+        <v>0.8759446600000002</v>
       </c>
       <c r="O18">
-        <v>0.9822361298630139</v>
+        <v>0.9526597999999999</v>
       </c>
       <c r="P18">
-        <v>1.026935430547945</v>
+        <v>1.07002695</v>
       </c>
       <c r="Q18">
-        <v>0.9988187120547947</v>
+        <v>0.9964484</v>
       </c>
       <c r="R18">
-        <v>1.001952315251142</v>
+        <v>1.005332853333333</v>
       </c>
       <c r="S18">
-        <v>1.023090718447489</v>
+        <v>1.060096966666667</v>
       </c>
       <c r="T18">
-        <v>1.001952315251142</v>
+        <v>1.005332853333333</v>
       </c>
       <c r="U18">
-        <v>1.00531456</v>
+        <v>1.01405889</v>
       </c>
       <c r="V18">
-        <v>0.9946488649315072</v>
+        <v>0.9864360440000001</v>
       </c>
       <c r="W18">
-        <v>1.004714516318493</v>
+        <v>1.01237166625</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1807,67 +1813,67 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.9808824694736842</v>
+        <v>0.99689954</v>
       </c>
       <c r="D19">
-        <v>1.049569117368421</v>
+        <v>1.007458</v>
       </c>
       <c r="E19">
-        <v>0.9489844494736842</v>
+        <v>0.99159098</v>
       </c>
       <c r="F19">
-        <v>0.9489844494736842</v>
+        <v>0.99159098</v>
       </c>
       <c r="G19">
-        <v>1.016381651052632</v>
+        <v>1.002466</v>
       </c>
       <c r="H19">
-        <v>0.9717262494736841</v>
+        <v>0.99583944</v>
       </c>
       <c r="I19">
-        <v>0.9810686431578948</v>
+        <v>0.99764046</v>
       </c>
       <c r="J19">
-        <v>1.07620418</v>
+        <v>1.0113434</v>
       </c>
       <c r="K19">
-        <v>0.9489844494736842</v>
+        <v>0.99159098</v>
       </c>
       <c r="L19">
-        <v>1.07620418</v>
+        <v>1.0113434</v>
       </c>
       <c r="M19">
-        <v>1.015317417894737</v>
+        <v>1.0025735</v>
       </c>
       <c r="N19">
-        <v>0.9489844494736842</v>
+        <v>0.99159098</v>
       </c>
       <c r="O19">
-        <v>0.9810686431578948</v>
+        <v>0.99764046</v>
       </c>
       <c r="P19">
-        <v>1.028636411578947</v>
+        <v>1.00449193</v>
       </c>
       <c r="Q19">
-        <v>0.9987251471052632</v>
+        <v>1.00005323</v>
       </c>
       <c r="R19">
-        <v>1.00208575754386</v>
+        <v>1.000191613333333</v>
       </c>
       <c r="S19">
-        <v>1.024551491403509</v>
+        <v>1.00381662</v>
       </c>
       <c r="T19">
-        <v>1.00208575754386</v>
+        <v>1.000191613333333</v>
       </c>
       <c r="U19">
-        <v>1.005659730921053</v>
+        <v>1.00076021</v>
       </c>
       <c r="V19">
-        <v>0.994324674631579</v>
+        <v>0.9989263640000001</v>
       </c>
       <c r="W19">
-        <v>1.005016772236842</v>
+        <v>1.000726415</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -1878,67 +1884,67 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>0.9808824694736842</v>
+        <v>0.9820108742465754</v>
       </c>
       <c r="D20">
-        <v>1.049569117368421</v>
+        <v>1.04660238520548</v>
       </c>
       <c r="E20">
-        <v>0.9489844494736842</v>
+        <v>0.9519860846575346</v>
       </c>
       <c r="F20">
-        <v>0.9489844494736842</v>
+        <v>0.9519860846575346</v>
       </c>
       <c r="G20">
-        <v>1.016381651052632</v>
+        <v>1.015401294246576</v>
       </c>
       <c r="H20">
-        <v>0.9717262494736841</v>
+        <v>0.973425026164384</v>
       </c>
       <c r="I20">
-        <v>0.9810686431578948</v>
+        <v>0.9822361298630139</v>
       </c>
       <c r="J20">
-        <v>1.07620418</v>
+        <v>1.071634731232877</v>
       </c>
       <c r="K20">
-        <v>0.9489844494736842</v>
+        <v>0.9519860846575346</v>
       </c>
       <c r="L20">
-        <v>1.07620418</v>
+        <v>1.071634731232877</v>
       </c>
       <c r="M20">
-        <v>1.015317417894737</v>
+        <v>1.014419604931507</v>
       </c>
       <c r="N20">
-        <v>0.9489844494736842</v>
+        <v>0.9519860846575346</v>
       </c>
       <c r="O20">
-        <v>0.9810686431578948</v>
+        <v>0.9822361298630139</v>
       </c>
       <c r="P20">
-        <v>1.028636411578947</v>
+        <v>1.026935430547945</v>
       </c>
       <c r="Q20">
-        <v>0.9987251471052632</v>
+        <v>0.9988187120547947</v>
       </c>
       <c r="R20">
-        <v>1.00208575754386</v>
+        <v>1.001952315251142</v>
       </c>
       <c r="S20">
-        <v>1.024551491403509</v>
+        <v>1.023090718447489</v>
       </c>
       <c r="T20">
-        <v>1.00208575754386</v>
+        <v>1.001952315251142</v>
       </c>
       <c r="U20">
-        <v>1.005659730921053</v>
+        <v>1.00531456</v>
       </c>
       <c r="V20">
-        <v>0.994324674631579</v>
+        <v>0.9946488649315072</v>
       </c>
       <c r="W20">
-        <v>1.005016772236842</v>
+        <v>1.004714516318493</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -1949,67 +1955,67 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>1.003512512846241</v>
+        <v>0.9808824694736842</v>
       </c>
       <c r="D21">
-        <v>0.99039808277526</v>
+        <v>1.049569117368421</v>
       </c>
       <c r="E21">
-        <v>1.009257961053271</v>
+        <v>0.9489844494736842</v>
       </c>
       <c r="F21">
-        <v>1.009257961053271</v>
+        <v>0.9489844494736842</v>
       </c>
       <c r="G21">
-        <v>0.9968278730740847</v>
+        <v>1.016381651052632</v>
       </c>
       <c r="H21">
-        <v>1.00555634199889</v>
+        <v>0.9717262494736841</v>
       </c>
       <c r="I21">
-        <v>1.004083142202896</v>
+        <v>0.9810686431578948</v>
       </c>
       <c r="J21">
-        <v>0.9851348086546712</v>
+        <v>1.07620418</v>
       </c>
       <c r="K21">
-        <v>1.009257961053271</v>
+        <v>0.9489844494736842</v>
       </c>
       <c r="L21">
-        <v>0.9851348086546712</v>
+        <v>1.07620418</v>
       </c>
       <c r="M21">
-        <v>0.9972617311560219</v>
+        <v>1.015317417894737</v>
       </c>
       <c r="N21">
-        <v>1.009257961053271</v>
+        <v>0.9489844494736842</v>
       </c>
       <c r="O21">
-        <v>1.004083142202896</v>
+        <v>0.9810686431578948</v>
       </c>
       <c r="P21">
-        <v>0.9946089754287837</v>
+        <v>1.028636411578947</v>
       </c>
       <c r="Q21">
-        <v>1.00045550763849</v>
+        <v>0.9987251471052632</v>
       </c>
       <c r="R21">
-        <v>0.9994919706369462</v>
+        <v>1.00208575754386</v>
       </c>
       <c r="S21">
-        <v>0.9953486079772174</v>
+        <v>1.024551491403509</v>
       </c>
       <c r="T21">
-        <v>0.9994919706369462</v>
+        <v>1.00208575754386</v>
       </c>
       <c r="U21">
-        <v>0.9988259462462308</v>
+        <v>1.005659730921053</v>
       </c>
       <c r="V21">
-        <v>1.000912349207639</v>
+        <v>0.994324674631579</v>
       </c>
       <c r="W21">
-        <v>0.9990040567201671</v>
+        <v>1.005016772236842</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -2020,67 +2026,67 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>1.0009942597083</v>
+        <v>0.9808824694736842</v>
       </c>
       <c r="D22">
-        <v>0.997610378315901</v>
+        <v>1.049569117368421</v>
       </c>
       <c r="E22">
-        <v>1.002697115514953</v>
+        <v>0.9489844494736842</v>
       </c>
       <c r="F22">
-        <v>1.002697115514953</v>
+        <v>0.9489844494736842</v>
       </c>
       <c r="G22">
-        <v>0.9992098461689657</v>
+        <v>1.016381651052632</v>
       </c>
       <c r="H22">
-        <v>1.001332731236358</v>
+        <v>0.9717262494736841</v>
       </c>
       <c r="I22">
-        <v>1.000754173015497</v>
+        <v>0.9810686431578948</v>
       </c>
       <c r="J22">
-        <v>0.9963659284845211</v>
+        <v>1.07620418</v>
       </c>
       <c r="K22">
-        <v>1.002697115514953</v>
+        <v>0.9489844494736842</v>
       </c>
       <c r="L22">
-        <v>0.9963659284845211</v>
+        <v>1.07620418</v>
       </c>
       <c r="M22">
-        <v>0.9991744050892001</v>
+        <v>1.015317417894737</v>
       </c>
       <c r="N22">
-        <v>1.002697115514953</v>
+        <v>0.9489844494736842</v>
       </c>
       <c r="O22">
-        <v>1.000754173015497</v>
+        <v>0.9810686431578948</v>
       </c>
       <c r="P22">
-        <v>0.998560050750009</v>
+        <v>1.028636411578947</v>
       </c>
       <c r="Q22">
-        <v>0.9999820095922312</v>
+        <v>0.9987251471052632</v>
       </c>
       <c r="R22">
-        <v>0.9999390723383237</v>
+        <v>1.00208575754386</v>
       </c>
       <c r="S22">
-        <v>0.9987766492229945</v>
+        <v>1.024551491403509</v>
       </c>
       <c r="T22">
-        <v>0.9999390723383237</v>
+        <v>1.00208575754386</v>
       </c>
       <c r="U22">
-        <v>0.9997567657959842</v>
+        <v>1.005659730921053</v>
       </c>
       <c r="V22">
-        <v>1.000344835739778</v>
+        <v>0.994324674631579</v>
       </c>
       <c r="W22">
-        <v>0.9997673546917121</v>
+        <v>1.005016772236842</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -2091,67 +2097,67 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>1.008658063000248</v>
+        <v>1.003512512846241</v>
       </c>
       <c r="D23">
-        <v>0.9776599495876245</v>
+        <v>0.99039808277526</v>
       </c>
       <c r="E23">
-        <v>1.023129671862989</v>
+        <v>1.009257961053271</v>
       </c>
       <c r="F23">
-        <v>1.023129671862989</v>
+        <v>1.009257961053271</v>
       </c>
       <c r="G23">
-        <v>0.992616790466759</v>
+        <v>0.9968278730740847</v>
       </c>
       <c r="H23">
-        <v>1.012725007352464</v>
+        <v>1.00555634199889</v>
       </c>
       <c r="I23">
-        <v>1.008440267632869</v>
+        <v>1.004083142202896</v>
       </c>
       <c r="J23">
-        <v>0.9656788526781157</v>
+        <v>0.9851348086546712</v>
       </c>
       <c r="K23">
-        <v>1.023129671862989</v>
+        <v>1.009257961053271</v>
       </c>
       <c r="L23">
-        <v>0.9656788526781157</v>
+        <v>0.9851348086546712</v>
       </c>
       <c r="M23">
-        <v>0.993046158078209</v>
+        <v>0.9972617311560219</v>
       </c>
       <c r="N23">
-        <v>1.023129671862989</v>
+        <v>1.009257961053271</v>
       </c>
       <c r="O23">
-        <v>1.008440267632869</v>
+        <v>1.004083142202896</v>
       </c>
       <c r="P23">
-        <v>0.9870595601554923</v>
+        <v>0.9946089754287837</v>
       </c>
       <c r="Q23">
-        <v>1.000528529049814</v>
+        <v>1.00045550763849</v>
       </c>
       <c r="R23">
-        <v>0.9990829307246578</v>
+        <v>0.9994919706369462</v>
       </c>
       <c r="S23">
-        <v>0.9889119702592479</v>
+        <v>0.9953486079772174</v>
       </c>
       <c r="T23">
-        <v>0.9990829307246578</v>
+        <v>0.9994919706369462</v>
       </c>
       <c r="U23">
-        <v>0.9974663956601831</v>
+        <v>0.9988259462462308</v>
       </c>
       <c r="V23">
-        <v>1.002599050900744</v>
+        <v>1.000912349207639</v>
       </c>
       <c r="W23">
-        <v>0.9977443450824096</v>
+        <v>0.9990040567201671</v>
       </c>
     </row>
     <row r="24" spans="1:23">
@@ -2162,67 +2168,67 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>1.002206115577125</v>
+        <v>1.0009942597083</v>
       </c>
       <c r="D24">
-        <v>0.9941891788109908</v>
+        <v>0.997610378315901</v>
       </c>
       <c r="E24">
-        <v>1.005865936989239</v>
+        <v>1.002697115514953</v>
       </c>
       <c r="F24">
-        <v>1.005865936989239</v>
+        <v>1.002697115514953</v>
       </c>
       <c r="G24">
-        <v>0.9980798403250863</v>
+        <v>0.9992098461689657</v>
       </c>
       <c r="H24">
-        <v>1.00332901908819</v>
+        <v>1.001332731236358</v>
       </c>
       <c r="I24">
-        <v>1.002295542145029</v>
+        <v>1.000754173015497</v>
       </c>
       <c r="J24">
-        <v>0.991047796534645</v>
+        <v>0.9963659284845211</v>
       </c>
       <c r="K24">
-        <v>1.005865936989239</v>
+        <v>1.002697115514953</v>
       </c>
       <c r="L24">
-        <v>0.991047796534645</v>
+        <v>0.9963659284845211</v>
       </c>
       <c r="M24">
-        <v>0.9982463486991924</v>
+        <v>0.9991744050892001</v>
       </c>
       <c r="N24">
-        <v>1.005865936989239</v>
+        <v>1.002697115514953</v>
       </c>
       <c r="O24">
-        <v>1.002295542145029</v>
+        <v>1.000754173015497</v>
       </c>
       <c r="P24">
-        <v>0.9966716693398372</v>
+        <v>0.998560050750009</v>
       </c>
       <c r="Q24">
-        <v>1.000187691235058</v>
+        <v>0.9999820095922312</v>
       </c>
       <c r="R24">
-        <v>0.999736425222971</v>
+        <v>0.9999390723383237</v>
       </c>
       <c r="S24">
-        <v>0.9971410596682535</v>
+        <v>0.9987766492229945</v>
       </c>
       <c r="T24">
-        <v>0.999736425222971</v>
+        <v>0.9999390723383237</v>
       </c>
       <c r="U24">
-        <v>0.9993222789984999</v>
+        <v>0.9997567657959842</v>
       </c>
       <c r="V24">
-        <v>1.000631010596648</v>
+        <v>1.000344835739778</v>
       </c>
       <c r="W24">
-        <v>0.9994074722711871</v>
+        <v>0.9997673546917121</v>
       </c>
     </row>
     <row r="25" spans="1:23">
@@ -2233,67 +2239,67 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>1.003512512846241</v>
+        <v>1.008658063000248</v>
       </c>
       <c r="D25">
-        <v>0.99039808277526</v>
+        <v>0.9776599495876245</v>
       </c>
       <c r="E25">
-        <v>1.009257961053271</v>
+        <v>1.023129671862989</v>
       </c>
       <c r="F25">
-        <v>1.009257961053271</v>
+        <v>1.023129671862989</v>
       </c>
       <c r="G25">
-        <v>0.9968278730740847</v>
+        <v>0.992616790466759</v>
       </c>
       <c r="H25">
-        <v>1.00555634199889</v>
+        <v>1.012725007352464</v>
       </c>
       <c r="I25">
-        <v>1.004083142202896</v>
+        <v>1.008440267632869</v>
       </c>
       <c r="J25">
-        <v>0.9851348086546712</v>
+        <v>0.9656788526781157</v>
       </c>
       <c r="K25">
-        <v>1.009257961053271</v>
+        <v>1.023129671862989</v>
       </c>
       <c r="L25">
-        <v>0.9851348086546712</v>
+        <v>0.9656788526781157</v>
       </c>
       <c r="M25">
-        <v>0.9972617311560219</v>
+        <v>0.993046158078209</v>
       </c>
       <c r="N25">
-        <v>1.009257961053271</v>
+        <v>1.023129671862989</v>
       </c>
       <c r="O25">
-        <v>1.004083142202896</v>
+        <v>1.008440267632869</v>
       </c>
       <c r="P25">
-        <v>0.9946089754287837</v>
+        <v>0.9870595601554923</v>
       </c>
       <c r="Q25">
-        <v>1.00045550763849</v>
+        <v>1.000528529049814</v>
       </c>
       <c r="R25">
-        <v>0.9994919706369462</v>
+        <v>0.9990829307246578</v>
       </c>
       <c r="S25">
-        <v>0.9953486079772174</v>
+        <v>0.9889119702592479</v>
       </c>
       <c r="T25">
-        <v>0.9994919706369462</v>
+        <v>0.9990829307246578</v>
       </c>
       <c r="U25">
-        <v>0.9988259462462308</v>
+        <v>0.9974663956601831</v>
       </c>
       <c r="V25">
-        <v>1.000912349207639</v>
+        <v>1.002599050900744</v>
       </c>
       <c r="W25">
-        <v>0.999004056720167</v>
+        <v>0.9977443450824096</v>
       </c>
     </row>
     <row r="26" spans="1:23">
@@ -2304,67 +2310,67 @@
         <v>24</v>
       </c>
       <c r="C26">
-        <v>1.0009942597083</v>
+        <v>1.002206115577125</v>
       </c>
       <c r="D26">
-        <v>0.997610378315901</v>
+        <v>0.9941891788109908</v>
       </c>
       <c r="E26">
-        <v>1.002697115514953</v>
+        <v>1.005865936989239</v>
       </c>
       <c r="F26">
-        <v>1.002697115514953</v>
+        <v>1.005865936989239</v>
       </c>
       <c r="G26">
-        <v>0.9992098461689657</v>
+        <v>0.9980798403250863</v>
       </c>
       <c r="H26">
-        <v>1.001332731236358</v>
+        <v>1.00332901908819</v>
       </c>
       <c r="I26">
-        <v>1.000754173015497</v>
+        <v>1.002295542145029</v>
       </c>
       <c r="J26">
-        <v>0.9963659284845212</v>
+        <v>0.991047796534645</v>
       </c>
       <c r="K26">
-        <v>1.002697115514953</v>
+        <v>1.005865936989239</v>
       </c>
       <c r="L26">
-        <v>0.9963659284845212</v>
+        <v>0.991047796534645</v>
       </c>
       <c r="M26">
-        <v>0.9991744050892002</v>
+        <v>0.9982463486991924</v>
       </c>
       <c r="N26">
-        <v>1.002697115514953</v>
+        <v>1.005865936989239</v>
       </c>
       <c r="O26">
-        <v>1.000754173015497</v>
+        <v>1.002295542145029</v>
       </c>
       <c r="P26">
-        <v>0.998560050750009</v>
+        <v>0.9966716693398372</v>
       </c>
       <c r="Q26">
-        <v>0.9999820095922312</v>
+        <v>1.000187691235058</v>
       </c>
       <c r="R26">
-        <v>0.9999390723383237</v>
+        <v>0.999736425222971</v>
       </c>
       <c r="S26">
-        <v>0.9987766492229945</v>
+        <v>0.9971410596682535</v>
       </c>
       <c r="T26">
-        <v>0.9999390723383237</v>
+        <v>0.999736425222971</v>
       </c>
       <c r="U26">
-        <v>0.9997567657959842</v>
+        <v>0.9993222789984999</v>
       </c>
       <c r="V26">
-        <v>1.000344835739778</v>
+        <v>1.000631010596648</v>
       </c>
       <c r="W26">
-        <v>0.9997673546917121</v>
+        <v>0.9994074722711871</v>
       </c>
     </row>
     <row r="27" spans="1:23">
@@ -2375,67 +2381,67 @@
         <v>25</v>
       </c>
       <c r="C27">
-        <v>0.9972089625946605</v>
+        <v>1.003512512846241</v>
       </c>
       <c r="D27">
-        <v>1.007244742186753</v>
+        <v>0.99039808277526</v>
       </c>
       <c r="E27">
-        <v>0.9925539214800553</v>
+        <v>1.009257961053271</v>
       </c>
       <c r="F27">
-        <v>0.9925539214800553</v>
+        <v>1.009257961053271</v>
       </c>
       <c r="G27">
-        <v>1.002394220050903</v>
+        <v>0.9968278730740847</v>
       </c>
       <c r="H27">
-        <v>0.995866394954801</v>
+        <v>1.00555634199889</v>
       </c>
       <c r="I27">
-        <v>0.9972263926070266</v>
+        <v>1.004083142202896</v>
       </c>
       <c r="J27">
-        <v>1.011139264332678</v>
+        <v>0.9851348086546712</v>
       </c>
       <c r="K27">
-        <v>0.9925539214800553</v>
+        <v>1.009257961053271</v>
       </c>
       <c r="L27">
-        <v>1.011139264332678</v>
+        <v>0.9851348086546712</v>
       </c>
       <c r="M27">
-        <v>1.002235017196369</v>
+        <v>0.9972617311560219</v>
       </c>
       <c r="N27">
-        <v>0.9925539214800553</v>
+        <v>1.009257961053271</v>
       </c>
       <c r="O27">
-        <v>0.9972263926070266</v>
+        <v>1.004083142202896</v>
       </c>
       <c r="P27">
-        <v>1.004182828469852</v>
+        <v>0.9946089754287837</v>
       </c>
       <c r="Q27">
-        <v>0.9998103063289647</v>
+        <v>1.00045550763849</v>
       </c>
       <c r="R27">
-        <v>1.00030652613992</v>
+        <v>0.9994919706369462</v>
       </c>
       <c r="S27">
-        <v>1.003586625663536</v>
+        <v>0.9953486079772174</v>
       </c>
       <c r="T27">
-        <v>1.00030652613992</v>
+        <v>0.9994919706369462</v>
       </c>
       <c r="U27">
-        <v>1.000828449617666</v>
+        <v>0.9988259462462308</v>
       </c>
       <c r="V27">
-        <v>0.9991735439901437</v>
+        <v>1.000912349207639</v>
       </c>
       <c r="W27">
-        <v>1.000733614425406</v>
+        <v>0.999004056720167</v>
       </c>
     </row>
     <row r="28" spans="1:23">
@@ -2446,67 +2452,67 @@
         <v>26</v>
       </c>
       <c r="C28">
-        <v>0.9986095773060059</v>
+        <v>1.0009942597083</v>
       </c>
       <c r="D28">
-        <v>1.00346343500097</v>
+        <v>0.997610378315901</v>
       </c>
       <c r="E28">
-        <v>0.99625662145127</v>
+        <v>1.002697115514953</v>
       </c>
       <c r="F28">
-        <v>0.99625662145127</v>
+        <v>1.002697115514953</v>
       </c>
       <c r="G28">
-        <v>1.0011449179039</v>
+        <v>0.9992098461689657</v>
       </c>
       <c r="H28">
-        <v>0.9980472828319188</v>
+        <v>1.001332731236358</v>
       </c>
       <c r="I28">
-        <v>0.9987964901700164</v>
+        <v>1.000754173015497</v>
       </c>
       <c r="J28">
-        <v>1.005294674182376</v>
+        <v>0.9963659284845212</v>
       </c>
       <c r="K28">
-        <v>0.99625662145127</v>
+        <v>1.002697115514953</v>
       </c>
       <c r="L28">
-        <v>1.005294674182376</v>
+        <v>0.9963659284845212</v>
       </c>
       <c r="M28">
-        <v>1.001135825051361</v>
+        <v>0.9991744050892002</v>
       </c>
       <c r="N28">
-        <v>0.99625662145127</v>
+        <v>1.002697115514953</v>
       </c>
       <c r="O28">
-        <v>0.9987964901700164</v>
+        <v>1.000754173015497</v>
       </c>
       <c r="P28">
-        <v>1.002045582176196</v>
+        <v>0.998560050750009</v>
       </c>
       <c r="Q28">
-        <v>0.9999707040369582</v>
+        <v>0.9999820095922312</v>
       </c>
       <c r="R28">
-        <v>1.000115928601221</v>
+        <v>0.9999390723383237</v>
       </c>
       <c r="S28">
-        <v>1.001745360752097</v>
+        <v>0.9987766492229945</v>
       </c>
       <c r="T28">
-        <v>1.000115928601221</v>
+        <v>0.9999390723383237</v>
       </c>
       <c r="U28">
-        <v>1.000373175926891</v>
+        <v>0.9997567657959842</v>
       </c>
       <c r="V28">
-        <v>0.9995498650317665</v>
+        <v>1.000344835739778</v>
       </c>
       <c r="W28">
-        <v>1.000343602987227</v>
+        <v>0.9997673546917121</v>
       </c>
     </row>
     <row r="29" spans="1:23">
@@ -2517,66 +2523,208 @@
         <v>27</v>
       </c>
       <c r="C29">
+        <v>0.9972089625946605</v>
+      </c>
+      <c r="D29">
+        <v>1.007244742186753</v>
+      </c>
+      <c r="E29">
+        <v>0.9925539214800553</v>
+      </c>
+      <c r="F29">
+        <v>0.9925539214800553</v>
+      </c>
+      <c r="G29">
+        <v>1.002394220050903</v>
+      </c>
+      <c r="H29">
+        <v>0.995866394954801</v>
+      </c>
+      <c r="I29">
+        <v>0.9972263926070266</v>
+      </c>
+      <c r="J29">
+        <v>1.011139264332678</v>
+      </c>
+      <c r="K29">
+        <v>0.9925539214800553</v>
+      </c>
+      <c r="L29">
+        <v>1.011139264332678</v>
+      </c>
+      <c r="M29">
+        <v>1.002235017196369</v>
+      </c>
+      <c r="N29">
+        <v>0.9925539214800553</v>
+      </c>
+      <c r="O29">
+        <v>0.9972263926070266</v>
+      </c>
+      <c r="P29">
+        <v>1.004182828469852</v>
+      </c>
+      <c r="Q29">
+        <v>0.9998103063289647</v>
+      </c>
+      <c r="R29">
+        <v>1.00030652613992</v>
+      </c>
+      <c r="S29">
+        <v>1.003586625663536</v>
+      </c>
+      <c r="T29">
+        <v>1.00030652613992</v>
+      </c>
+      <c r="U29">
+        <v>1.000828449617666</v>
+      </c>
+      <c r="V29">
+        <v>0.9991735439901437</v>
+      </c>
+      <c r="W29">
+        <v>1.000733614425406</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>0.9986095773060059</v>
+      </c>
+      <c r="D30">
+        <v>1.00346343500097</v>
+      </c>
+      <c r="E30">
+        <v>0.99625662145127</v>
+      </c>
+      <c r="F30">
+        <v>0.99625662145127</v>
+      </c>
+      <c r="G30">
+        <v>1.0011449179039</v>
+      </c>
+      <c r="H30">
+        <v>0.9980472828319188</v>
+      </c>
+      <c r="I30">
+        <v>0.9987964901700164</v>
+      </c>
+      <c r="J30">
+        <v>1.005294674182376</v>
+      </c>
+      <c r="K30">
+        <v>0.99625662145127</v>
+      </c>
+      <c r="L30">
+        <v>1.005294674182376</v>
+      </c>
+      <c r="M30">
+        <v>1.001135825051361</v>
+      </c>
+      <c r="N30">
+        <v>0.99625662145127</v>
+      </c>
+      <c r="O30">
+        <v>0.9987964901700164</v>
+      </c>
+      <c r="P30">
+        <v>1.002045582176196</v>
+      </c>
+      <c r="Q30">
+        <v>0.9999707040369582</v>
+      </c>
+      <c r="R30">
+        <v>1.000115928601221</v>
+      </c>
+      <c r="S30">
+        <v>1.001745360752097</v>
+      </c>
+      <c r="T30">
+        <v>1.000115928601221</v>
+      </c>
+      <c r="U30">
+        <v>1.000373175926891</v>
+      </c>
+      <c r="V30">
+        <v>0.9995498650317665</v>
+      </c>
+      <c r="W30">
+        <v>1.000343602987227</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
         <v>1.007122524458665</v>
       </c>
-      <c r="D29">
+      <c r="D31">
         <v>0.9812479578900459</v>
       </c>
-      <c r="E29">
+      <c r="E31">
         <v>1.018940382327925</v>
       </c>
-      <c r="F29">
+      <c r="F31">
         <v>1.018940382327925</v>
       </c>
-      <c r="G29">
+      <c r="G31">
         <v>0.9938034489559029</v>
       </c>
-      <c r="H29">
+      <c r="H31">
         <v>1.010741712007964</v>
       </c>
-      <c r="I29">
+      <c r="I31">
         <v>1.007400951800301</v>
       </c>
-      <c r="J29">
+      <c r="J31">
         <v>0.9711121613928648</v>
       </c>
-      <c r="K29">
+      <c r="K31">
         <v>1.018940382327925</v>
       </c>
-      <c r="L29">
+      <c r="L31">
         <v>0.9711121613928648</v>
       </c>
-      <c r="M29">
+      <c r="M31">
         <v>0.994336984453265</v>
       </c>
-      <c r="N29">
+      <c r="N31">
         <v>1.018940382327925</v>
       </c>
-      <c r="O29">
+      <c r="O31">
         <v>1.007400951800301</v>
       </c>
-      <c r="P29">
+      <c r="P31">
         <v>0.9892565565965827</v>
       </c>
-      <c r="Q29">
+      <c r="Q31">
         <v>1.000602200378102</v>
       </c>
-      <c r="R29">
+      <c r="R31">
         <v>0.999151165173697</v>
       </c>
-      <c r="S29">
+      <c r="S31">
         <v>0.9907721873830228</v>
       </c>
-      <c r="T29">
+      <c r="T31">
         <v>0.999151165173697</v>
       </c>
-      <c r="U29">
+      <c r="U31">
         <v>0.9978142361192485</v>
       </c>
-      <c r="V29">
+      <c r="V31">
         <v>1.002039465360984</v>
       </c>
-      <c r="W29">
+      <c r="W31">
         <v>0.9980882654108668</v>
       </c>
     </row>
